--- a/Math/Valiant-1.0Math.xlsx
+++ b/Math/Valiant-1.0Math.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17655" windowHeight="10920"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="17655" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="30" r:id="rId1"/>
-    <sheet name="Respin" sheetId="38" r:id="rId2"/>
+    <sheet name="Lighting" sheetId="38" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Base!$E$5:$I$16</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Respin!$E$5:$I$16</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Lighting!$E$5:$I$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -24,223 +24,223 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Base!$AA$16</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Respin!$AA$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Lighting!$AA$16</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Base!$I$7</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">Respin!$I$7</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">Lighting!$I$7</definedName>
     <definedName name="solver_lhs100" localSheetId="0" hidden="1">Base!$I$5</definedName>
-    <definedName name="solver_lhs100" localSheetId="1" hidden="1">Respin!$I$5</definedName>
+    <definedName name="solver_lhs100" localSheetId="1" hidden="1">Lighting!$I$5</definedName>
     <definedName name="solver_lhs101" localSheetId="0" hidden="1">Base!$I$13</definedName>
-    <definedName name="solver_lhs101" localSheetId="1" hidden="1">Respin!$I$13</definedName>
+    <definedName name="solver_lhs101" localSheetId="1" hidden="1">Lighting!$I$13</definedName>
     <definedName name="solver_lhs102" localSheetId="0" hidden="1">Base!$I$7</definedName>
-    <definedName name="solver_lhs102" localSheetId="1" hidden="1">Respin!$I$7</definedName>
+    <definedName name="solver_lhs102" localSheetId="1" hidden="1">Lighting!$I$7</definedName>
     <definedName name="solver_lhs103" localSheetId="0" hidden="1">Base!$AA$6</definedName>
-    <definedName name="solver_lhs103" localSheetId="1" hidden="1">Respin!$AA$6</definedName>
+    <definedName name="solver_lhs103" localSheetId="1" hidden="1">Lighting!$AA$6</definedName>
     <definedName name="solver_lhs104" localSheetId="0" hidden="1">Base!$AA$12</definedName>
-    <definedName name="solver_lhs104" localSheetId="1" hidden="1">Respin!$AA$12</definedName>
+    <definedName name="solver_lhs104" localSheetId="1" hidden="1">Lighting!$AA$12</definedName>
     <definedName name="solver_lhs105" localSheetId="0" hidden="1">Base!$I$5</definedName>
-    <definedName name="solver_lhs105" localSheetId="1" hidden="1">Respin!$I$5</definedName>
+    <definedName name="solver_lhs105" localSheetId="1" hidden="1">Lighting!$I$5</definedName>
     <definedName name="solver_lhs106" localSheetId="0" hidden="1">Base!$AA$11</definedName>
-    <definedName name="solver_lhs106" localSheetId="1" hidden="1">Respin!$AA$11</definedName>
+    <definedName name="solver_lhs106" localSheetId="1" hidden="1">Lighting!$AA$11</definedName>
     <definedName name="solver_lhs107" localSheetId="0" hidden="1">Base!$I$6</definedName>
-    <definedName name="solver_lhs107" localSheetId="1" hidden="1">Respin!$I$6</definedName>
+    <definedName name="solver_lhs107" localSheetId="1" hidden="1">Lighting!$I$6</definedName>
     <definedName name="solver_lhs108" localSheetId="0" hidden="1">Base!$E$16</definedName>
-    <definedName name="solver_lhs108" localSheetId="1" hidden="1">Respin!$E$16</definedName>
+    <definedName name="solver_lhs108" localSheetId="1" hidden="1">Lighting!$E$16</definedName>
     <definedName name="solver_lhs109" localSheetId="0" hidden="1">Base!$AA$7</definedName>
-    <definedName name="solver_lhs109" localSheetId="1" hidden="1">Respin!$AA$7</definedName>
+    <definedName name="solver_lhs109" localSheetId="1" hidden="1">Lighting!$AA$7</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Base!$I$6</definedName>
-    <definedName name="solver_lhs11" localSheetId="1" hidden="1">Respin!$I$6</definedName>
+    <definedName name="solver_lhs11" localSheetId="1" hidden="1">Lighting!$I$6</definedName>
     <definedName name="solver_lhs12" localSheetId="0" hidden="1">Base!$I$5</definedName>
-    <definedName name="solver_lhs12" localSheetId="1" hidden="1">Respin!$I$5</definedName>
+    <definedName name="solver_lhs12" localSheetId="1" hidden="1">Lighting!$I$5</definedName>
     <definedName name="solver_lhs13" localSheetId="0" hidden="1">Base!$I$16</definedName>
-    <definedName name="solver_lhs13" localSheetId="1" hidden="1">Respin!$I$16</definedName>
+    <definedName name="solver_lhs13" localSheetId="1" hidden="1">Lighting!$I$16</definedName>
     <definedName name="solver_lhs14" localSheetId="0" hidden="1">Base!$I$15</definedName>
-    <definedName name="solver_lhs14" localSheetId="1" hidden="1">Respin!$I$15</definedName>
+    <definedName name="solver_lhs14" localSheetId="1" hidden="1">Lighting!$I$15</definedName>
     <definedName name="solver_lhs15" localSheetId="0" hidden="1">Base!$I$14</definedName>
-    <definedName name="solver_lhs15" localSheetId="1" hidden="1">Respin!$I$14</definedName>
+    <definedName name="solver_lhs15" localSheetId="1" hidden="1">Lighting!$I$14</definedName>
     <definedName name="solver_lhs16" localSheetId="0" hidden="1">Base!$I$13</definedName>
-    <definedName name="solver_lhs16" localSheetId="1" hidden="1">Respin!$I$13</definedName>
+    <definedName name="solver_lhs16" localSheetId="1" hidden="1">Lighting!$I$13</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">Base!$I$12</definedName>
-    <definedName name="solver_lhs17" localSheetId="1" hidden="1">Respin!$I$12</definedName>
+    <definedName name="solver_lhs17" localSheetId="1" hidden="1">Lighting!$I$12</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">Base!$I$11</definedName>
-    <definedName name="solver_lhs18" localSheetId="1" hidden="1">Respin!$I$11</definedName>
+    <definedName name="solver_lhs18" localSheetId="1" hidden="1">Lighting!$I$11</definedName>
     <definedName name="solver_lhs19" localSheetId="0" hidden="1">Base!$I$10</definedName>
-    <definedName name="solver_lhs19" localSheetId="1" hidden="1">Respin!$I$10</definedName>
+    <definedName name="solver_lhs19" localSheetId="1" hidden="1">Lighting!$I$10</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Base!$AA$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Respin!$AA$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Lighting!$AA$16</definedName>
     <definedName name="solver_lhs20" localSheetId="0" hidden="1">Base!$H$8</definedName>
-    <definedName name="solver_lhs20" localSheetId="1" hidden="1">Respin!$H$8</definedName>
+    <definedName name="solver_lhs20" localSheetId="1" hidden="1">Lighting!$H$8</definedName>
     <definedName name="solver_lhs21" localSheetId="0" hidden="1">Base!$H$9</definedName>
-    <definedName name="solver_lhs21" localSheetId="1" hidden="1">Respin!$H$9</definedName>
+    <definedName name="solver_lhs21" localSheetId="1" hidden="1">Lighting!$H$9</definedName>
     <definedName name="solver_lhs22" localSheetId="0" hidden="1">Base!$H$7</definedName>
-    <definedName name="solver_lhs22" localSheetId="1" hidden="1">Respin!$H$7</definedName>
+    <definedName name="solver_lhs22" localSheetId="1" hidden="1">Lighting!$H$7</definedName>
     <definedName name="solver_lhs23" localSheetId="0" hidden="1">Base!$H$6</definedName>
-    <definedName name="solver_lhs23" localSheetId="1" hidden="1">Respin!$H$6</definedName>
+    <definedName name="solver_lhs23" localSheetId="1" hidden="1">Lighting!$H$6</definedName>
     <definedName name="solver_lhs24" localSheetId="0" hidden="1">Base!$H$5</definedName>
-    <definedName name="solver_lhs24" localSheetId="1" hidden="1">Respin!$H$5</definedName>
+    <definedName name="solver_lhs24" localSheetId="1" hidden="1">Lighting!$H$5</definedName>
     <definedName name="solver_lhs25" localSheetId="0" hidden="1">Base!$H$16</definedName>
-    <definedName name="solver_lhs25" localSheetId="1" hidden="1">Respin!$H$16</definedName>
+    <definedName name="solver_lhs25" localSheetId="1" hidden="1">Lighting!$H$16</definedName>
     <definedName name="solver_lhs26" localSheetId="0" hidden="1">Base!$H$15</definedName>
-    <definedName name="solver_lhs26" localSheetId="1" hidden="1">Respin!$H$15</definedName>
+    <definedName name="solver_lhs26" localSheetId="1" hidden="1">Lighting!$H$15</definedName>
     <definedName name="solver_lhs27" localSheetId="0" hidden="1">Base!$H$14</definedName>
-    <definedName name="solver_lhs27" localSheetId="1" hidden="1">Respin!$H$14</definedName>
+    <definedName name="solver_lhs27" localSheetId="1" hidden="1">Lighting!$H$14</definedName>
     <definedName name="solver_lhs28" localSheetId="0" hidden="1">Base!$H$13</definedName>
-    <definedName name="solver_lhs28" localSheetId="1" hidden="1">Respin!$H$13</definedName>
+    <definedName name="solver_lhs28" localSheetId="1" hidden="1">Lighting!$H$13</definedName>
     <definedName name="solver_lhs29" localSheetId="0" hidden="1">Base!$H$12</definedName>
-    <definedName name="solver_lhs29" localSheetId="1" hidden="1">Respin!$H$12</definedName>
+    <definedName name="solver_lhs29" localSheetId="1" hidden="1">Lighting!$H$12</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Base!$AA$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Respin!$AA$11</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Lighting!$AA$11</definedName>
     <definedName name="solver_lhs30" localSheetId="0" hidden="1">Base!$H$11</definedName>
-    <definedName name="solver_lhs30" localSheetId="1" hidden="1">Respin!$H$11</definedName>
+    <definedName name="solver_lhs30" localSheetId="1" hidden="1">Lighting!$H$11</definedName>
     <definedName name="solver_lhs31" localSheetId="0" hidden="1">Base!$H$10</definedName>
-    <definedName name="solver_lhs31" localSheetId="1" hidden="1">Respin!$H$10</definedName>
+    <definedName name="solver_lhs31" localSheetId="1" hidden="1">Lighting!$H$10</definedName>
     <definedName name="solver_lhs32" localSheetId="0" hidden="1">Base!$G$8</definedName>
-    <definedName name="solver_lhs32" localSheetId="1" hidden="1">Respin!$G$8</definedName>
+    <definedName name="solver_lhs32" localSheetId="1" hidden="1">Lighting!$G$8</definedName>
     <definedName name="solver_lhs33" localSheetId="0" hidden="1">Base!$G$9</definedName>
-    <definedName name="solver_lhs33" localSheetId="1" hidden="1">Respin!$G$9</definedName>
+    <definedName name="solver_lhs33" localSheetId="1" hidden="1">Lighting!$G$9</definedName>
     <definedName name="solver_lhs34" localSheetId="0" hidden="1">Base!$G$7</definedName>
-    <definedName name="solver_lhs34" localSheetId="1" hidden="1">Respin!$G$7</definedName>
+    <definedName name="solver_lhs34" localSheetId="1" hidden="1">Lighting!$G$7</definedName>
     <definedName name="solver_lhs35" localSheetId="0" hidden="1">Base!$G$6</definedName>
-    <definedName name="solver_lhs35" localSheetId="1" hidden="1">Respin!$G$6</definedName>
+    <definedName name="solver_lhs35" localSheetId="1" hidden="1">Lighting!$G$6</definedName>
     <definedName name="solver_lhs36" localSheetId="0" hidden="1">Base!$G$5</definedName>
-    <definedName name="solver_lhs36" localSheetId="1" hidden="1">Respin!$G$5</definedName>
+    <definedName name="solver_lhs36" localSheetId="1" hidden="1">Lighting!$G$5</definedName>
     <definedName name="solver_lhs37" localSheetId="0" hidden="1">Base!$G$16</definedName>
-    <definedName name="solver_lhs37" localSheetId="1" hidden="1">Respin!$G$16</definedName>
+    <definedName name="solver_lhs37" localSheetId="1" hidden="1">Lighting!$G$16</definedName>
     <definedName name="solver_lhs38" localSheetId="0" hidden="1">Base!$G$15</definedName>
-    <definedName name="solver_lhs38" localSheetId="1" hidden="1">Respin!$G$15</definedName>
+    <definedName name="solver_lhs38" localSheetId="1" hidden="1">Lighting!$G$15</definedName>
     <definedName name="solver_lhs39" localSheetId="0" hidden="1">Base!$G$14</definedName>
-    <definedName name="solver_lhs39" localSheetId="1" hidden="1">Respin!$G$14</definedName>
+    <definedName name="solver_lhs39" localSheetId="1" hidden="1">Lighting!$G$14</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Base!$AA$6</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Respin!$AA$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Lighting!$AA$6</definedName>
     <definedName name="solver_lhs40" localSheetId="0" hidden="1">Base!$G$13</definedName>
-    <definedName name="solver_lhs40" localSheetId="1" hidden="1">Respin!$G$13</definedName>
+    <definedName name="solver_lhs40" localSheetId="1" hidden="1">Lighting!$G$13</definedName>
     <definedName name="solver_lhs41" localSheetId="0" hidden="1">Base!$G$12</definedName>
-    <definedName name="solver_lhs41" localSheetId="1" hidden="1">Respin!$G$12</definedName>
+    <definedName name="solver_lhs41" localSheetId="1" hidden="1">Lighting!$G$12</definedName>
     <definedName name="solver_lhs42" localSheetId="0" hidden="1">Base!$G$11</definedName>
-    <definedName name="solver_lhs42" localSheetId="1" hidden="1">Respin!$G$11</definedName>
+    <definedName name="solver_lhs42" localSheetId="1" hidden="1">Lighting!$G$11</definedName>
     <definedName name="solver_lhs43" localSheetId="0" hidden="1">Base!$G$10</definedName>
-    <definedName name="solver_lhs43" localSheetId="1" hidden="1">Respin!$G$10</definedName>
+    <definedName name="solver_lhs43" localSheetId="1" hidden="1">Lighting!$G$10</definedName>
     <definedName name="solver_lhs44" localSheetId="0" hidden="1">Base!$F$8</definedName>
-    <definedName name="solver_lhs44" localSheetId="1" hidden="1">Respin!$F$8</definedName>
+    <definedName name="solver_lhs44" localSheetId="1" hidden="1">Lighting!$F$8</definedName>
     <definedName name="solver_lhs45" localSheetId="0" hidden="1">Base!$F$9</definedName>
-    <definedName name="solver_lhs45" localSheetId="1" hidden="1">Respin!$F$9</definedName>
+    <definedName name="solver_lhs45" localSheetId="1" hidden="1">Lighting!$F$9</definedName>
     <definedName name="solver_lhs46" localSheetId="0" hidden="1">Base!$F$7</definedName>
-    <definedName name="solver_lhs46" localSheetId="1" hidden="1">Respin!$F$7</definedName>
+    <definedName name="solver_lhs46" localSheetId="1" hidden="1">Lighting!$F$7</definedName>
     <definedName name="solver_lhs47" localSheetId="0" hidden="1">Base!$F$6</definedName>
-    <definedName name="solver_lhs47" localSheetId="1" hidden="1">Respin!$F$6</definedName>
+    <definedName name="solver_lhs47" localSheetId="1" hidden="1">Lighting!$F$6</definedName>
     <definedName name="solver_lhs48" localSheetId="0" hidden="1">Base!$F$5</definedName>
-    <definedName name="solver_lhs48" localSheetId="1" hidden="1">Respin!$F$5</definedName>
+    <definedName name="solver_lhs48" localSheetId="1" hidden="1">Lighting!$F$5</definedName>
     <definedName name="solver_lhs49" localSheetId="0" hidden="1">Base!$F$16</definedName>
-    <definedName name="solver_lhs49" localSheetId="1" hidden="1">Respin!$F$16</definedName>
+    <definedName name="solver_lhs49" localSheetId="1" hidden="1">Lighting!$F$16</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Base!$AA$7</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Respin!$AA$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Lighting!$AA$7</definedName>
     <definedName name="solver_lhs50" localSheetId="0" hidden="1">Base!$F$15</definedName>
-    <definedName name="solver_lhs50" localSheetId="1" hidden="1">Respin!$F$15</definedName>
+    <definedName name="solver_lhs50" localSheetId="1" hidden="1">Lighting!$F$15</definedName>
     <definedName name="solver_lhs51" localSheetId="0" hidden="1">Base!$F$14</definedName>
-    <definedName name="solver_lhs51" localSheetId="1" hidden="1">Respin!$F$14</definedName>
+    <definedName name="solver_lhs51" localSheetId="1" hidden="1">Lighting!$F$14</definedName>
     <definedName name="solver_lhs52" localSheetId="0" hidden="1">Base!$F$13</definedName>
-    <definedName name="solver_lhs52" localSheetId="1" hidden="1">Respin!$F$13</definedName>
+    <definedName name="solver_lhs52" localSheetId="1" hidden="1">Lighting!$F$13</definedName>
     <definedName name="solver_lhs53" localSheetId="0" hidden="1">Base!$F$12</definedName>
-    <definedName name="solver_lhs53" localSheetId="1" hidden="1">Respin!$F$12</definedName>
+    <definedName name="solver_lhs53" localSheetId="1" hidden="1">Lighting!$F$12</definedName>
     <definedName name="solver_lhs54" localSheetId="0" hidden="1">Base!$F$11</definedName>
-    <definedName name="solver_lhs54" localSheetId="1" hidden="1">Respin!$F$11</definedName>
+    <definedName name="solver_lhs54" localSheetId="1" hidden="1">Lighting!$F$11</definedName>
     <definedName name="solver_lhs55" localSheetId="0" hidden="1">Base!$F$10</definedName>
-    <definedName name="solver_lhs55" localSheetId="1" hidden="1">Respin!$F$10</definedName>
+    <definedName name="solver_lhs55" localSheetId="1" hidden="1">Lighting!$F$10</definedName>
     <definedName name="solver_lhs56" localSheetId="0" hidden="1">Base!$E$9</definedName>
-    <definedName name="solver_lhs56" localSheetId="1" hidden="1">Respin!$E$9</definedName>
+    <definedName name="solver_lhs56" localSheetId="1" hidden="1">Lighting!$E$9</definedName>
     <definedName name="solver_lhs57" localSheetId="0" hidden="1">Base!$E$8</definedName>
-    <definedName name="solver_lhs57" localSheetId="1" hidden="1">Respin!$E$8</definedName>
+    <definedName name="solver_lhs57" localSheetId="1" hidden="1">Lighting!$E$8</definedName>
     <definedName name="solver_lhs58" localSheetId="0" hidden="1">Base!$E$7</definedName>
-    <definedName name="solver_lhs58" localSheetId="1" hidden="1">Respin!$E$7</definedName>
+    <definedName name="solver_lhs58" localSheetId="1" hidden="1">Lighting!$E$7</definedName>
     <definedName name="solver_lhs59" localSheetId="0" hidden="1">Base!$E$6</definedName>
-    <definedName name="solver_lhs59" localSheetId="1" hidden="1">Respin!$E$6</definedName>
+    <definedName name="solver_lhs59" localSheetId="1" hidden="1">Lighting!$E$6</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Base!$AA$12</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Respin!$AA$12</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Lighting!$AA$12</definedName>
     <definedName name="solver_lhs60" localSheetId="0" hidden="1">Base!$E$10</definedName>
-    <definedName name="solver_lhs60" localSheetId="1" hidden="1">Respin!$E$10</definedName>
+    <definedName name="solver_lhs60" localSheetId="1" hidden="1">Lighting!$E$10</definedName>
     <definedName name="solver_lhs61" localSheetId="0" hidden="1">Base!$E$11</definedName>
-    <definedName name="solver_lhs61" localSheetId="1" hidden="1">Respin!$E$11</definedName>
+    <definedName name="solver_lhs61" localSheetId="1" hidden="1">Lighting!$E$11</definedName>
     <definedName name="solver_lhs62" localSheetId="0" hidden="1">Base!$E$12</definedName>
-    <definedName name="solver_lhs62" localSheetId="1" hidden="1">Respin!$E$12</definedName>
+    <definedName name="solver_lhs62" localSheetId="1" hidden="1">Lighting!$E$12</definedName>
     <definedName name="solver_lhs63" localSheetId="0" hidden="1">Base!$E$13</definedName>
-    <definedName name="solver_lhs63" localSheetId="1" hidden="1">Respin!$E$13</definedName>
+    <definedName name="solver_lhs63" localSheetId="1" hidden="1">Lighting!$E$13</definedName>
     <definedName name="solver_lhs64" localSheetId="0" hidden="1">Base!$E$14</definedName>
-    <definedName name="solver_lhs64" localSheetId="1" hidden="1">Respin!$E$14</definedName>
+    <definedName name="solver_lhs64" localSheetId="1" hidden="1">Lighting!$E$14</definedName>
     <definedName name="solver_lhs65" localSheetId="0" hidden="1">Base!$E$15</definedName>
-    <definedName name="solver_lhs65" localSheetId="1" hidden="1">Respin!$E$15</definedName>
+    <definedName name="solver_lhs65" localSheetId="1" hidden="1">Lighting!$E$15</definedName>
     <definedName name="solver_lhs66" localSheetId="0" hidden="1">Base!$E$16</definedName>
-    <definedName name="solver_lhs66" localSheetId="1" hidden="1">Respin!$E$16</definedName>
+    <definedName name="solver_lhs66" localSheetId="1" hidden="1">Lighting!$E$16</definedName>
     <definedName name="solver_lhs67" localSheetId="0" hidden="1">Base!$H$13</definedName>
-    <definedName name="solver_lhs67" localSheetId="1" hidden="1">Respin!$H$13</definedName>
+    <definedName name="solver_lhs67" localSheetId="1" hidden="1">Lighting!$H$13</definedName>
     <definedName name="solver_lhs68" localSheetId="0" hidden="1">Base!$H$13</definedName>
-    <definedName name="solver_lhs68" localSheetId="1" hidden="1">Respin!$H$13</definedName>
+    <definedName name="solver_lhs68" localSheetId="1" hidden="1">Lighting!$H$13</definedName>
     <definedName name="solver_lhs69" localSheetId="0" hidden="1">Base!$H$14</definedName>
-    <definedName name="solver_lhs69" localSheetId="1" hidden="1">Respin!$H$14</definedName>
+    <definedName name="solver_lhs69" localSheetId="1" hidden="1">Lighting!$H$14</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Base!$E$5</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Respin!$E$5</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Lighting!$E$5</definedName>
     <definedName name="solver_lhs70" localSheetId="0" hidden="1">Base!$G$13</definedName>
-    <definedName name="solver_lhs70" localSheetId="1" hidden="1">Respin!$G$13</definedName>
+    <definedName name="solver_lhs70" localSheetId="1" hidden="1">Lighting!$G$13</definedName>
     <definedName name="solver_lhs71" localSheetId="0" hidden="1">Base!$G$6</definedName>
-    <definedName name="solver_lhs71" localSheetId="1" hidden="1">Respin!$G$6</definedName>
+    <definedName name="solver_lhs71" localSheetId="1" hidden="1">Lighting!$G$6</definedName>
     <definedName name="solver_lhs72" localSheetId="0" hidden="1">Base!$G$6</definedName>
-    <definedName name="solver_lhs72" localSheetId="1" hidden="1">Respin!$G$6</definedName>
+    <definedName name="solver_lhs72" localSheetId="1" hidden="1">Lighting!$G$6</definedName>
     <definedName name="solver_lhs73" localSheetId="0" hidden="1">Base!$G$6</definedName>
-    <definedName name="solver_lhs73" localSheetId="1" hidden="1">Respin!$G$6</definedName>
+    <definedName name="solver_lhs73" localSheetId="1" hidden="1">Lighting!$G$6</definedName>
     <definedName name="solver_lhs74" localSheetId="0" hidden="1">Base!$G$16</definedName>
-    <definedName name="solver_lhs74" localSheetId="1" hidden="1">Respin!$G$16</definedName>
+    <definedName name="solver_lhs74" localSheetId="1" hidden="1">Lighting!$G$16</definedName>
     <definedName name="solver_lhs75" localSheetId="0" hidden="1">Base!$G$15</definedName>
-    <definedName name="solver_lhs75" localSheetId="1" hidden="1">Respin!$G$15</definedName>
+    <definedName name="solver_lhs75" localSheetId="1" hidden="1">Lighting!$G$15</definedName>
     <definedName name="solver_lhs76" localSheetId="0" hidden="1">Base!$E$5</definedName>
-    <definedName name="solver_lhs76" localSheetId="1" hidden="1">Respin!$E$5</definedName>
+    <definedName name="solver_lhs76" localSheetId="1" hidden="1">Lighting!$E$5</definedName>
     <definedName name="solver_lhs77" localSheetId="0" hidden="1">Base!$I$16</definedName>
-    <definedName name="solver_lhs77" localSheetId="1" hidden="1">Respin!$I$16</definedName>
+    <definedName name="solver_lhs77" localSheetId="1" hidden="1">Lighting!$I$16</definedName>
     <definedName name="solver_lhs78" localSheetId="0" hidden="1">Base!$I$16</definedName>
-    <definedName name="solver_lhs78" localSheetId="1" hidden="1">Respin!$I$16</definedName>
+    <definedName name="solver_lhs78" localSheetId="1" hidden="1">Lighting!$I$16</definedName>
     <definedName name="solver_lhs79" localSheetId="0" hidden="1">Base!$H$15</definedName>
-    <definedName name="solver_lhs79" localSheetId="1" hidden="1">Respin!$H$15</definedName>
+    <definedName name="solver_lhs79" localSheetId="1" hidden="1">Lighting!$H$15</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">Base!$I$9</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">Respin!$I$9</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">Lighting!$I$9</definedName>
     <definedName name="solver_lhs80" localSheetId="0" hidden="1">Base!$H$7</definedName>
-    <definedName name="solver_lhs80" localSheetId="1" hidden="1">Respin!$H$7</definedName>
+    <definedName name="solver_lhs80" localSheetId="1" hidden="1">Lighting!$H$7</definedName>
     <definedName name="solver_lhs81" localSheetId="0" hidden="1">Base!$H$16</definedName>
-    <definedName name="solver_lhs81" localSheetId="1" hidden="1">Respin!$H$16</definedName>
+    <definedName name="solver_lhs81" localSheetId="1" hidden="1">Lighting!$H$16</definedName>
     <definedName name="solver_lhs82" localSheetId="0" hidden="1">Base!$H$7</definedName>
-    <definedName name="solver_lhs82" localSheetId="1" hidden="1">Respin!$H$7</definedName>
+    <definedName name="solver_lhs82" localSheetId="1" hidden="1">Lighting!$H$7</definedName>
     <definedName name="solver_lhs83" localSheetId="0" hidden="1">Base!$H$6</definedName>
-    <definedName name="solver_lhs83" localSheetId="1" hidden="1">Respin!$H$6</definedName>
+    <definedName name="solver_lhs83" localSheetId="1" hidden="1">Lighting!$H$6</definedName>
     <definedName name="solver_lhs84" localSheetId="0" hidden="1">Base!$H$5</definedName>
-    <definedName name="solver_lhs84" localSheetId="1" hidden="1">Respin!$H$5</definedName>
+    <definedName name="solver_lhs84" localSheetId="1" hidden="1">Lighting!$H$5</definedName>
     <definedName name="solver_lhs85" localSheetId="0" hidden="1">Base!$H$16</definedName>
-    <definedName name="solver_lhs85" localSheetId="1" hidden="1">Respin!$H$16</definedName>
+    <definedName name="solver_lhs85" localSheetId="1" hidden="1">Lighting!$H$16</definedName>
     <definedName name="solver_lhs86" localSheetId="0" hidden="1">Base!$I$16</definedName>
-    <definedName name="solver_lhs86" localSheetId="1" hidden="1">Respin!$I$16</definedName>
+    <definedName name="solver_lhs86" localSheetId="1" hidden="1">Lighting!$I$16</definedName>
     <definedName name="solver_lhs87" localSheetId="0" hidden="1">Base!$I$13</definedName>
-    <definedName name="solver_lhs87" localSheetId="1" hidden="1">Respin!$I$13</definedName>
+    <definedName name="solver_lhs87" localSheetId="1" hidden="1">Lighting!$I$13</definedName>
     <definedName name="solver_lhs88" localSheetId="0" hidden="1">Base!$I$14</definedName>
-    <definedName name="solver_lhs88" localSheetId="1" hidden="1">Respin!$I$14</definedName>
+    <definedName name="solver_lhs88" localSheetId="1" hidden="1">Lighting!$I$14</definedName>
     <definedName name="solver_lhs89" localSheetId="0" hidden="1">Base!$I$15</definedName>
-    <definedName name="solver_lhs89" localSheetId="1" hidden="1">Respin!$I$15</definedName>
+    <definedName name="solver_lhs89" localSheetId="1" hidden="1">Lighting!$I$15</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">Base!$I$8</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">Respin!$I$8</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">Lighting!$I$8</definedName>
     <definedName name="solver_lhs90" localSheetId="0" hidden="1">Base!$E$5</definedName>
-    <definedName name="solver_lhs90" localSheetId="1" hidden="1">Respin!$E$5</definedName>
+    <definedName name="solver_lhs90" localSheetId="1" hidden="1">Lighting!$E$5</definedName>
     <definedName name="solver_lhs91" localSheetId="0" hidden="1">Base!$I$7</definedName>
-    <definedName name="solver_lhs91" localSheetId="1" hidden="1">Respin!$I$7</definedName>
+    <definedName name="solver_lhs91" localSheetId="1" hidden="1">Lighting!$I$7</definedName>
     <definedName name="solver_lhs92" localSheetId="0" hidden="1">Base!$I$5</definedName>
-    <definedName name="solver_lhs92" localSheetId="1" hidden="1">Respin!$I$5</definedName>
+    <definedName name="solver_lhs92" localSheetId="1" hidden="1">Lighting!$I$5</definedName>
     <definedName name="solver_lhs93" localSheetId="0" hidden="1">Base!$I$7</definedName>
-    <definedName name="solver_lhs93" localSheetId="1" hidden="1">Respin!$I$7</definedName>
+    <definedName name="solver_lhs93" localSheetId="1" hidden="1">Lighting!$I$7</definedName>
     <definedName name="solver_lhs94" localSheetId="0" hidden="1">Base!$I$14</definedName>
-    <definedName name="solver_lhs94" localSheetId="1" hidden="1">Respin!$I$14</definedName>
+    <definedName name="solver_lhs94" localSheetId="1" hidden="1">Lighting!$I$14</definedName>
     <definedName name="solver_lhs95" localSheetId="0" hidden="1">Base!$I$15</definedName>
-    <definedName name="solver_lhs95" localSheetId="1" hidden="1">Respin!$I$15</definedName>
+    <definedName name="solver_lhs95" localSheetId="1" hidden="1">Lighting!$I$15</definedName>
     <definedName name="solver_lhs96" localSheetId="0" hidden="1">Base!$I$14</definedName>
-    <definedName name="solver_lhs96" localSheetId="1" hidden="1">Respin!$I$14</definedName>
+    <definedName name="solver_lhs96" localSheetId="1" hidden="1">Lighting!$I$14</definedName>
     <definedName name="solver_lhs97" localSheetId="0" hidden="1">Base!$I$15</definedName>
-    <definedName name="solver_lhs97" localSheetId="1" hidden="1">Respin!$I$15</definedName>
+    <definedName name="solver_lhs97" localSheetId="1" hidden="1">Lighting!$I$15</definedName>
     <definedName name="solver_lhs98" localSheetId="0" hidden="1">Base!$I$6</definedName>
-    <definedName name="solver_lhs98" localSheetId="1" hidden="1">Respin!$I$6</definedName>
+    <definedName name="solver_lhs98" localSheetId="1" hidden="1">Lighting!$I$6</definedName>
     <definedName name="solver_lhs99" localSheetId="0" hidden="1">Base!$I$6</definedName>
-    <definedName name="solver_lhs99" localSheetId="1" hidden="1">Respin!$I$6</definedName>
+    <definedName name="solver_lhs99" localSheetId="1" hidden="1">Lighting!$I$6</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -260,7 +260,7 @@
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Base!$AA$14</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Respin!$AA$14</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Lighting!$AA$14</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -484,25 +484,25 @@
     <definedName name="solver_rel99" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_rel99" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Base!$AA$17</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Respin!$AA$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Lighting!$AA$17</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs10" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs100" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs100" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs100" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs101" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs101" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs101" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs102" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs102" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs102" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs103" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs103" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs104" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs104" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs105" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs105" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs105" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs106" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs106" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs107" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs107" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs107" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs108" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs108" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs109" localSheetId="0" hidden="1">0</definedName>
@@ -526,7 +526,7 @@
     <definedName name="solver_rhs19" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs19" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs20" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs20" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs21" localSheetId="0" hidden="1">целое</definedName>
@@ -630,53 +630,53 @@
     <definedName name="solver_rhs66" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs66" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs67" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs67" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs67" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs68" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs68" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs69" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs69" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs69" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs7" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs70" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs70" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs71" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs71" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs71" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs72" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs72" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs73" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs73" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs73" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs74" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs74" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs74" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs75" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs75" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs75" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs76" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs76" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs76" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs77" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs77" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs78" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs78" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs78" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs79" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs79" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs79" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs8" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs80" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs80" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs80" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs81" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs81" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs81" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs82" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs82" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs82" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs83" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs83" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs83" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs84" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs84" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs85" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs85" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs85" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs86" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs86" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs86" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs87" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs87" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs87" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs88" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs88" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs88" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs89" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs89" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">целое</definedName>
@@ -684,21 +684,21 @@
     <definedName name="solver_rhs90" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs90" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs91" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs91" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs91" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs92" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs92" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs93" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs93" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs94" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs94" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs94" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs95" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs95" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs95" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs96" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs96" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rhs97" localSheetId="0" hidden="1">Base!$AA$1</definedName>
-    <definedName name="solver_rhs97" localSheetId="1" hidden="1">Respin!$AA$1</definedName>
+    <definedName name="solver_rhs97" localSheetId="1" hidden="1">Lighting!$AA$1</definedName>
     <definedName name="solver_rhs98" localSheetId="0" hidden="1">Base!$AA$2</definedName>
-    <definedName name="solver_rhs98" localSheetId="1" hidden="1">Respin!$AA$2</definedName>
+    <definedName name="solver_rhs98" localSheetId="1" hidden="1">Lighting!$AA$2</definedName>
     <definedName name="solver_rhs99" localSheetId="0" hidden="1">целое</definedName>
     <definedName name="solver_rhs99" localSheetId="1" hidden="1">целое</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -927,11 +927,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -970,7 +970,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,6 +995,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1011,10 +1023,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,8 +1034,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1038,9 +1050,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1379,8 +1393,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T17" sqref="T5:X17"/>
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -1411,30 +1425,30 @@
       </c>
       <c r="AC1">
         <f>MIN($AA$14)</f>
-        <v>21.884570205636042</v>
+        <v>15.186020502038712</v>
       </c>
       <c r="AG1">
         <v>1</v>
       </c>
       <c r="AH1" s="6">
         <f t="shared" ref="AH1:AL1" si="0">3*L5</f>
-        <v>2.6392961876832849E-2</v>
+        <v>2.5482625482625481</v>
       </c>
       <c r="AI1" s="6">
         <f t="shared" si="0"/>
-        <v>2.4930747922437674E-2</v>
+        <v>0.34526854219948849</v>
       </c>
       <c r="AJ1" s="6">
         <f t="shared" si="0"/>
-        <v>2.4930747922437674E-2</v>
+        <v>0.35386631716906947</v>
       </c>
       <c r="AK1" s="6">
         <f t="shared" si="0"/>
-        <v>2.4930747922437674E-2</v>
+        <v>7.0422535211267595E-2</v>
       </c>
       <c r="AL1" s="6">
         <f t="shared" si="0"/>
-        <v>2.6392961876832849E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="AM1">
         <v>1</v>
@@ -1481,7 +1495,7 @@
       </c>
       <c r="AC3" t="b">
         <f>$AA$11&gt;=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="12" t="s">
         <v>61</v>
@@ -1568,30 +1582,30 @@
       </c>
       <c r="AF4" s="22">
         <f>PRODUCT(AH4:AL4)</f>
-        <v>0.87876711023651877</v>
+        <v>-0.54993596408774281</v>
       </c>
       <c r="AG4" s="5">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>1-AH1</f>
-        <v>0.97360703812316718</v>
+        <v>-1.5482625482625481</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AL4" si="1">1-AI1</f>
-        <v>0.97506925207756234</v>
+        <v>0.65473145780051145</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97506925207756234</v>
+        <v>0.64613368283093053</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97506925207756234</v>
+        <v>0.92957746478873238</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97360703812316718</v>
+        <v>0.90322580645161288</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
@@ -1607,70 +1621,68 @@
       <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>3</v>
+      <c r="E5" s="26">
+        <f>-SUM(E6:E$16,-E$18)</f>
+        <v>660</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:I14" si="2">E5</f>
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="G5">
+        <f>F5</f>
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:P7" si="2">E5/E$17</f>
+        <v>0.84942084942084939</v>
+      </c>
+      <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H5">
+        <v>0.11508951406649616</v>
+      </c>
+      <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I5">
+        <v>0.11795543905635648</v>
+      </c>
+      <c r="O5" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:P7" si="3">E5/E$17</f>
-        <v>8.7976539589442824E-3</v>
-      </c>
-      <c r="M5" s="6">
-        <f t="shared" si="3"/>
-        <v>8.3102493074792248E-3</v>
-      </c>
-      <c r="N5" s="6">
-        <f t="shared" si="3"/>
-        <v>8.3102493074792248E-3</v>
-      </c>
-      <c r="O5" s="6">
-        <f t="shared" si="3"/>
-        <v>8.3102493074792248E-3</v>
+        <v>2.3474178403755867E-2</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="3"/>
-        <v>8.7976539589442824E-3</v>
+        <f t="shared" si="2"/>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T16" si="4">"x"&amp;E5&amp;" "&amp;$D5</f>
-        <v>x3 0</v>
+        <f t="shared" ref="T5:T16" si="3">"x"&amp;E5&amp;" "&amp;$D5</f>
+        <v>x660 0</v>
       </c>
       <c r="U5" t="str">
-        <f t="shared" ref="U5:U15" si="5">"x"&amp;F5&amp;" "&amp;$D5</f>
-        <v>x3 0</v>
+        <f t="shared" ref="U5:U15" si="4">"x"&amp;F5&amp;" "&amp;$D5</f>
+        <v>x90 0</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V15" si="6">"x"&amp;G5&amp;" "&amp;$D5</f>
-        <v>x3 0</v>
+        <f t="shared" ref="V5:V15" si="5">"x"&amp;G5&amp;" "&amp;$D5</f>
+        <v>x90 0</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W15" si="7">"x"&amp;H5&amp;" "&amp;$D5</f>
-        <v>x3 0</v>
+        <f t="shared" ref="W5:W15" si="6">"x"&amp;H5&amp;" "&amp;$D5</f>
+        <v>x5 0</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" ref="X5:X16" si="8">"x"&amp;I5&amp;" "&amp;$D5</f>
-        <v>x3 0</v>
+        <f t="shared" ref="X5:X16" si="7">"x"&amp;I5&amp;" "&amp;$D5</f>
+        <v>x5 0</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>48</v>
@@ -1687,28 +1699,28 @@
       </c>
       <c r="AF5" s="22">
         <f>SUM(AH5:AL5)</f>
-        <v>0.11504943170367896</v>
+        <v>0.21336072434215875</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6">
         <f>PRODUCT($AG4:AG4,AI4:$AM4)*AH1</f>
-        <v>2.3821999976291176E-2</v>
+        <v>0.90513151196486363</v>
       </c>
       <c r="AI5" s="6">
         <f>PRODUCT($AG4:AH4,AJ4:$AM4)*AI1</f>
-        <v>2.2468477250365538E-2</v>
+        <v>-0.29000529356189569</v>
       </c>
       <c r="AJ5" s="6">
         <f>PRODUCT($AG4:AI4,AK4:$AM4)*AJ1</f>
-        <v>2.2468477250365538E-2</v>
+        <v>-0.30118196816164416</v>
       </c>
       <c r="AK5" s="6">
         <f>PRODUCT($AG4:AJ4,AL4:$AM4)*AK1</f>
-        <v>2.2468477250365538E-2</v>
+        <v>-4.1661815461192638E-2</v>
       </c>
       <c r="AL5" s="6">
         <f>PRODUCT($AG4:AK4,AM4:$AM4)*AL1</f>
-        <v>2.3821999976291176E-2</v>
+        <v>-5.8921710437972445E-2</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1719,82 +1731,78 @@
         <v>10</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" ref="D6:D16" si="9">D5+1</f>
+        <f t="shared" ref="D6:D16" si="8">D5+1</f>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>E5*H49/H50</f>
-        <v>6</v>
-      </c>
-      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="26">
+        <f>-SUM(F7:F$16,-F$18,F5)</f>
+        <v>606</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" ref="K6:K16" si="9">K5+1</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G6">
+        <v>3.8610038610038609E-2</v>
+      </c>
+      <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H6">
+        <v>0.77493606138107418</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I6">
+        <v>3.9318479685452164E-2</v>
+      </c>
+      <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" ref="K6:K16" si="10">K5+1</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
+        <v>4.6948356807511735E-2</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>1.7595307917888565E-2</v>
-      </c>
-      <c r="M6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.662049861495845E-2</v>
-      </c>
-      <c r="N6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.662049861495845E-2</v>
-      </c>
-      <c r="O6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.662049861495845E-2</v>
-      </c>
-      <c r="P6" s="6">
-        <f t="shared" si="3"/>
-        <v>1.7595307917888565E-2</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" t="str">
+        <v>x30 1</v>
+      </c>
+      <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>x6 1</v>
-      </c>
-      <c r="U6" t="str">
+        <v>x606 1</v>
+      </c>
+      <c r="V6" t="str">
         <f t="shared" si="5"/>
-        <v>x6 1</v>
-      </c>
-      <c r="V6" t="str">
+        <v>x30 1</v>
+      </c>
+      <c r="W6" t="str">
         <f t="shared" si="6"/>
-        <v>x6 1</v>
-      </c>
-      <c r="W6" t="str">
+        <v>x10 1</v>
+      </c>
+      <c r="X6" t="str">
         <f t="shared" si="7"/>
-        <v>x6 1</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="8"/>
-        <v>x6 1</v>
+        <v>x10 1</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="5">
         <f>B9-(AA4-AA5)</f>
-        <v>31.957514841670267</v>
+        <v>5.5292903943725236</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>37</v>
@@ -1808,48 +1816,48 @@
       </c>
       <c r="AF6" s="23">
         <f>SUM(AH6:AQ6)</f>
-        <v>6.0237228023353254E-3</v>
+        <v>0.86715676061505731</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6">
         <f>PRODUCT(AH4:AJ4)*PRODUCT(AK1,AL1)</f>
-        <v>6.0908522666653579E-4</v>
+        <v>-4.4637659422706397E-3</v>
       </c>
       <c r="AI6" s="6">
         <f>PRODUCT(AH4:AI4,AK4)*PRODUCT(AJ1,AL1)</f>
-        <v>6.0908522666653579E-4</v>
+        <v>-3.2269496588747594E-2</v>
       </c>
       <c r="AJ6" s="6">
         <f>PRODUCT(AH4:AI4,AL4)*PRODUCT(AJ1,AK1)</f>
-        <v>5.7447811151502813E-4</v>
+        <v>-2.2816815769821523E-2</v>
       </c>
       <c r="AK6" s="6">
         <f>PRODUCT(AH4,AJ4,AK4)*PRODUCT(AI1,AL1)</f>
-        <v>6.0908522666653579E-4</v>
+        <v>-3.107199573877454E-2</v>
       </c>
       <c r="AL6" s="6">
         <f>PRODUCT(AH4,AJ4,AL4)*PRODUCT(AI1,AK1)</f>
-        <v>5.7447811151502813E-4</v>
+        <v>-2.1970097997113306E-2</v>
       </c>
       <c r="AM6" s="6">
         <f>PRODUCT(AH4,AK4,AL4)*PRODUCT(AI1,AJ1)</f>
-        <v>5.7447811151502813E-4</v>
+        <v>-0.15882642852274206</v>
       </c>
       <c r="AN6" s="6">
         <f>PRODUCT(AI4,AJ4,AK4)*PRODUCT(AH1,AL1)</f>
-        <v>6.4577710779102594E-4</v>
+        <v>9.6978376281949677E-2</v>
       </c>
       <c r="AO6" s="6">
         <f>PRODUCT(AI4,AJ4,AL4)*PRODUCT(AH1,AK1)</f>
-        <v>6.0908522666653579E-4</v>
+        <v>6.8570569088247227E-2</v>
       </c>
       <c r="AP6" s="6">
         <f>PRODUCT(AI4,AK4,AL4)*PRODUCT(AH1,AJ1)</f>
-        <v>6.0908522666653579E-4</v>
+        <v>0.49571097004160897</v>
       </c>
       <c r="AQ6" s="6">
         <f>PRODUCT(AJ4,AK4,AL4)*PRODUCT(AH1,AI1)</f>
-        <v>6.0908522666653579E-4</v>
+        <v>0.47731544576272111</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1861,81 +1869,78 @@
         <v>10</v>
       </c>
       <c r="D7" s="12">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>30</v>
+      </c>
+      <c r="G7" s="26">
+        <f>-SUM(G8:G$16,-G$18,G$5:G6)</f>
+        <v>608</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
+      <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G7">
+        <v>3.8610038610038609E-2</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H7">
+        <v>3.8363171355498722E-2</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I7">
+        <v>0.79685452162516379</v>
+      </c>
+      <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
+        <v>4.6948356807511735E-2</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>2.0527859237536656E-2</v>
-      </c>
-      <c r="M7" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9390581717451522E-2</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9390581717451522E-2</v>
-      </c>
-      <c r="O7" s="6">
-        <f t="shared" si="3"/>
-        <v>1.9390581717451522E-2</v>
-      </c>
-      <c r="P7" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0527859237536656E-2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="str">
+        <v>x30 2</v>
+      </c>
+      <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>x7 2</v>
-      </c>
-      <c r="U7" t="str">
+        <v>x30 2</v>
+      </c>
+      <c r="V7" t="str">
         <f t="shared" si="5"/>
-        <v>x7 2</v>
-      </c>
-      <c r="V7" t="str">
+        <v>x608 2</v>
+      </c>
+      <c r="W7" t="str">
         <f t="shared" si="6"/>
-        <v>x7 2</v>
-      </c>
-      <c r="W7" t="str">
+        <v>x10 2</v>
+      </c>
+      <c r="X7" t="str">
         <f t="shared" si="7"/>
-        <v>x7 2</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="8"/>
-        <v>x7 2</v>
+        <v>x10 2</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AA7" s="5">
         <f>(AA4+AA5)-B9</f>
-        <v>8.0424851583297325</v>
+        <v>34.470709605627476</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>37</v>
@@ -1949,48 +1954,48 @@
       </c>
       <c r="AF7" s="23">
         <f>SUM(AH7:AQ7)</f>
-        <v>1.5766161123291446E-4</v>
+        <v>0.41287586078363547</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6">
         <f>PRODUCT(AH1:AJ1)*PRODUCT(AK4,AL4)</f>
-        <v>1.5573201818178473E-5</v>
+        <v>0.26141008185787973</v>
       </c>
       <c r="AI7" s="6">
         <f>PRODUCT(AH1:AI1,AK1)*PRODUCT(AJ4,AL4)</f>
-        <v>1.5573201818178473E-5</v>
+        <v>3.6160261042630384E-2</v>
       </c>
       <c r="AJ7" s="6">
         <f>PRODUCT(AH1:AI1,AL1)*PRODUCT(AJ4,AK4)</f>
-        <v>1.651134650602055E-5</v>
+        <v>5.1140940617434405E-2</v>
       </c>
       <c r="AK7" s="6">
         <f>PRODUCT(AH1,AJ1,AK1)*PRODUCT(AI4,AL4)</f>
-        <v>1.5573201818178473E-5</v>
+        <v>3.7553861366788545E-2</v>
       </c>
       <c r="AL7" s="6">
         <f>PRODUCT(AH1,AJ1,AL1)*PRODUCT(AI4,AK4)</f>
-        <v>1.651134650602055E-5</v>
+        <v>5.3111889647315239E-2</v>
       </c>
       <c r="AM7" s="6">
         <f>PRODUCT(AH1,AK1,AL1)*PRODUCT(AI4,AJ4)</f>
-        <v>1.651134650602055E-5</v>
+        <v>7.3468466880264888E-3</v>
       </c>
       <c r="AN7" s="6">
         <f>PRODUCT(AI1,AJ1,AK1)*PRODUCT(AH4,AL4)</f>
-        <v>1.4688360805781965E-5</v>
+        <v>-1.203230519111682E-2</v>
       </c>
       <c r="AO7" s="6">
         <f>PRODUCT(AI1,AJ1,AL1)*PRODUCT(AH4,AK4)</f>
-        <v>1.5573201818178473E-5</v>
+        <v>-1.7017117341722364E-2</v>
       </c>
       <c r="AP7" s="6">
         <f>PRODUCT(AI1,AK1,AL1)*PRODUCT(AH4,AJ4)</f>
-        <v>1.5573201818178473E-5</v>
+        <v>-2.3539390711192825E-3</v>
       </c>
       <c r="AQ7" s="6">
         <f>PRODUCT(AJ1,AK1,AL1)*PRODUCT(AH4,AI4)</f>
-        <v>1.5573201818178473E-5</v>
+        <v>-2.4446588324808778E-3</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2001,74 +2006,71 @@
         <v>0</v>
       </c>
       <c r="D8" s="12">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="26">
+        <f>-SUM(H9:H$16,-H$18,H$5:H7)</f>
+        <v>126</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L13" si="11">E8/E$17</f>
-        <v>2.932551319648094E-2</v>
+        <f t="shared" ref="L8:L13" si="10">E8/E$17</f>
+        <v>2.1879021879021878E-2</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8:M13" si="12">F8/F$17</f>
-        <v>2.7700831024930747E-2</v>
+        <f t="shared" ref="M8:M13" si="11">F8/F$17</f>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" ref="N8:N13" si="13">G8/G$17</f>
-        <v>2.7700831024930747E-2</v>
+        <f t="shared" ref="N8:N13" si="12">G8/G$17</f>
+        <v>3.9318479685452159E-3</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O13" si="14">H8/H$17</f>
-        <v>2.7700831024930747E-2</v>
+        <f t="shared" ref="O8:O13" si="13">H8/H$17</f>
+        <v>0.59154929577464788</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P13" si="15">I8/I$17</f>
-        <v>2.932551319648094E-2</v>
+        <f t="shared" ref="P8:P13" si="14">I8/I$17</f>
+        <v>0.22580645161290322</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
       <c r="T8" t="str">
+        <f t="shared" si="3"/>
+        <v>x17 3</v>
+      </c>
+      <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>x10 3</v>
-      </c>
-      <c r="U8" t="str">
+        <v>x17 3</v>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="5"/>
-        <v>x10 3</v>
-      </c>
-      <c r="V8" t="str">
+        <v>x3 3</v>
+      </c>
+      <c r="W8" t="str">
         <f t="shared" si="6"/>
-        <v>x10 3</v>
-      </c>
-      <c r="W8" t="str">
+        <v>x126 3</v>
+      </c>
+      <c r="X8" t="str">
         <f t="shared" si="7"/>
-        <v>x10 3</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="8"/>
-        <v>x10 3</v>
+        <v>x35 3</v>
       </c>
       <c r="AC8" t="b">
         <f>$AA$16&gt;=$AA$17</f>
@@ -2079,27 +2081,27 @@
       </c>
       <c r="AF8" s="23">
         <f>SUM(AH8:AL8)</f>
-        <v>2.0628522397436571E-6</v>
+        <v>5.4420783266876167E-2</v>
       </c>
       <c r="AH8" s="24">
         <f>PRODUCT($AG1:AG1,AI1:$AM1)*AH4</f>
-        <v>3.9817845557842688E-7</v>
+        <v>-1.289175556191088E-3</v>
       </c>
       <c r="AI8" s="24">
         <f>PRODUCT($AG1:AH1,AJ1:$AM1)*AI4</f>
-        <v>4.2216510952893456E-7</v>
+        <v>4.0236280035844873E-3</v>
       </c>
       <c r="AJ8" s="24">
         <f>PRODUCT($AG1:AI1,AK1:$AM1)*AJ4</f>
-        <v>4.2216510952893456E-7</v>
+        <v>3.8743136831389698E-3</v>
       </c>
       <c r="AK8" s="24">
         <f>PRODUCT($AG1:AJ1,AL1:$AM1)*AK4</f>
-        <v>4.2216510952893456E-7</v>
+        <v>2.8008223056201396E-2</v>
       </c>
       <c r="AL8" s="24">
         <f>PRODUCT($AG1:AK1,AM1:$AM1)*AL4</f>
-        <v>3.9817845557842688E-7</v>
+        <v>1.9803794080142399E-2</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2108,78 +2110,74 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(L22:P33)</f>
-        <v>61.957514841670267</v>
+        <v>35.529290394372524</v>
       </c>
       <c r="D9" s="12">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9" s="26">
+        <f>-SUM(I10:I$16,-I$18,I$5:I8)</f>
+        <v>68</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E7:E14" si="16">E8*H52/H53</f>
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K9" s="12">
+      <c r="L9" s="6">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="L9" s="6">
+        <v>1.2870012870012869E-2</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="11"/>
-        <v>2.932551319648094E-2</v>
-      </c>
-      <c r="M9" s="6">
+        <v>1.278772378516624E-2</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="12"/>
-        <v>2.7700831024930747E-2</v>
-      </c>
-      <c r="N9" s="6">
+        <v>3.9318479685452159E-3</v>
+      </c>
+      <c r="O9" s="6">
         <f t="shared" si="13"/>
-        <v>2.7700831024930747E-2</v>
-      </c>
-      <c r="O9" s="6">
+        <v>0.16431924882629109</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="14"/>
-        <v>2.7700831024930747E-2</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="15"/>
-        <v>2.932551319648094E-2</v>
+        <v>0.43870967741935485</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
       </c>
       <c r="T9" t="str">
+        <f t="shared" si="3"/>
+        <v>x10 4</v>
+      </c>
+      <c r="U9" t="str">
         <f t="shared" si="4"/>
         <v>x10 4</v>
       </c>
-      <c r="U9" t="str">
+      <c r="V9" t="str">
         <f t="shared" si="5"/>
-        <v>x10 4</v>
-      </c>
-      <c r="V9" t="str">
+        <v>x3 4</v>
+      </c>
+      <c r="W9" t="str">
         <f t="shared" si="6"/>
-        <v>x10 4</v>
-      </c>
-      <c r="W9" t="str">
+        <v>x35 4</v>
+      </c>
+      <c r="X9" t="str">
         <f t="shared" si="7"/>
-        <v>x10 4</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="8"/>
-        <v>x10 4</v>
+        <v>x68 4</v>
       </c>
       <c r="Z9" s="12" t="s">
         <v>52</v>
@@ -2196,7 +2194,7 @@
       </c>
       <c r="AF9" s="23">
         <f>PRODUCT(AH1:AL1)</f>
-        <v>1.079399427772844E-8</v>
+        <v>2.1218350800152569E-3</v>
       </c>
       <c r="AG9" s="5"/>
     </row>
@@ -2206,81 +2204,76 @@
       </c>
       <c r="B10" s="5">
         <f>100*(1-(1-SUMIF(T22:X33,"&lt;&gt;0",E22:I33)/100)^B6)</f>
-        <v>21.858439654432903</v>
+        <v>2.3388347812337895</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="12">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K10" s="12">
+      <c r="L10" s="6">
         <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
+        <v>6.4350064350064346E-3</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="11"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M10" s="6">
+        <v>6.3938618925831201E-3</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="12"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="N10" s="6">
+        <v>6.55307994757536E-3</v>
+      </c>
+      <c r="O10" s="6">
         <f t="shared" si="13"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="O10" s="6">
+        <v>2.3474178403755867E-2</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="14"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="15"/>
-        <v>0.17595307917888564</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
       </c>
       <c r="T10" t="str">
+        <f t="shared" si="3"/>
+        <v>x5 5</v>
+      </c>
+      <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>x60 5</v>
-      </c>
-      <c r="U10" t="str">
+        <v>x5 5</v>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="5"/>
-        <v>x60 5</v>
-      </c>
-      <c r="V10" t="str">
+        <v>x5 5</v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="6"/>
-        <v>x60 5</v>
-      </c>
-      <c r="W10" t="str">
+        <v>x5 5</v>
+      </c>
+      <c r="X10" t="str">
         <f t="shared" si="7"/>
-        <v>x60 5</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="8"/>
-        <v>x60 5</v>
+        <v>x5 5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>53</v>
@@ -2294,7 +2287,7 @@
       </c>
       <c r="AF10" s="22">
         <f>SUM(AF4:AF9)</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2303,88 +2296,83 @@
       </c>
       <c r="B11" s="5">
         <f>1/$B$6*(1/100*SUMPRODUCT(F22:I33,U22:X33,U22:X33)-(1/100*SUMPRODUCT(F22:I33,U22:X33))^2)</f>
-        <v>3.0170530828480664</v>
+        <v>7.095541396566631</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="12">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K11" s="12">
+      <c r="L11" s="6">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="L11" s="6">
+        <v>5.1480051480051478E-3</v>
+      </c>
+      <c r="M11" s="6">
         <f t="shared" si="11"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M11" s="6">
+        <v>5.1150895140664966E-3</v>
+      </c>
+      <c r="N11" s="6">
         <f t="shared" si="12"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="N11" s="6">
+        <v>5.2424639580602884E-3</v>
+      </c>
+      <c r="O11" s="6">
         <f t="shared" si="13"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="O11" s="6">
+        <v>1.8779342723004695E-2</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="14"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="15"/>
-        <v>0.17595307917888564</v>
+        <v>2.5806451612903226E-2</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
       </c>
       <c r="T11" t="str">
+        <f t="shared" si="3"/>
+        <v>x4 6</v>
+      </c>
+      <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>x60 6</v>
-      </c>
-      <c r="U11" t="str">
+        <v>x4 6</v>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="5"/>
-        <v>x60 6</v>
-      </c>
-      <c r="V11" t="str">
+        <v>x4 6</v>
+      </c>
+      <c r="W11" t="str">
         <f t="shared" si="6"/>
-        <v>x60 6</v>
-      </c>
-      <c r="W11" t="str">
+        <v>x4 6</v>
+      </c>
+      <c r="X11" t="str">
         <f t="shared" si="7"/>
-        <v>x60 6</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="8"/>
-        <v>x60 6</v>
+        <v>x4 6</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AA11" s="5">
         <f>B10-(AA9-AA10)</f>
-        <v>11.858439654432903</v>
+        <v>-7.6611652187662109</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>37</v>
@@ -2400,88 +2388,83 @@
       </c>
       <c r="B12" s="5">
         <f>SQRT(B11)</f>
-        <v>1.7369666326236859</v>
+        <v>2.663745745480719</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="12">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="12">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="L12" s="6">
         <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="L12" s="6">
+        <v>3.8610038610038611E-3</v>
+      </c>
+      <c r="M12" s="6">
         <f t="shared" si="11"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M12" s="6">
+        <v>3.8363171355498722E-3</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="12"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="N12" s="6">
+        <v>3.9318479685452159E-3</v>
+      </c>
+      <c r="O12" s="6">
         <f t="shared" si="13"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="O12" s="6">
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="14"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="15"/>
-        <v>0.17595307917888564</v>
+        <v>1.935483870967742E-2</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
       </c>
       <c r="T12" t="str">
+        <f t="shared" si="3"/>
+        <v>x3 7</v>
+      </c>
+      <c r="U12" t="str">
         <f t="shared" si="4"/>
-        <v>x60 7</v>
-      </c>
-      <c r="U12" t="str">
+        <v>x3 7</v>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="5"/>
-        <v>x60 7</v>
-      </c>
-      <c r="V12" t="str">
+        <v>x3 7</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="6"/>
-        <v>x60 7</v>
-      </c>
-      <c r="W12" t="str">
+        <v>x3 7</v>
+      </c>
+      <c r="X12" t="str">
         <f t="shared" si="7"/>
-        <v>x60 7</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="8"/>
-        <v>x60 7</v>
+        <v>x3 7</v>
       </c>
       <c r="Z12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="AA12" s="5">
         <f>(AA9+AA10)-B10</f>
-        <v>18.141560345567097</v>
+        <v>37.661165218766207</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>37</v>
@@ -2495,11 +2478,11 @@
       </c>
       <c r="AF12" s="23">
         <f>SUM(AF13:AF15)</f>
-        <v>1.5973525746693586E-4</v>
+        <v>0.46941847913052687</v>
       </c>
       <c r="AG12">
         <f>1/AF12</f>
-        <v>6260.358645034853</v>
+        <v>2.1302953429789016</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2507,75 +2490,70 @@
         <v>0</v>
       </c>
       <c r="D13" s="12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="L13" s="6">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="L13" s="6">
+        <v>2.5740025740025739E-3</v>
+      </c>
+      <c r="M13" s="6">
         <f t="shared" si="11"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M13" s="6">
+        <v>2.5575447570332483E-3</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="12"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="N13" s="6">
+        <v>2.6212319790301442E-3</v>
+      </c>
+      <c r="O13" s="6">
         <f t="shared" si="13"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="O13" s="6">
+        <v>9.3896713615023476E-3</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="14"/>
-        <v>0.16620498614958448</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="15"/>
-        <v>0.17595307917888564</v>
+        <v>1.2903225806451613E-2</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
       </c>
       <c r="T13" t="str">
+        <f t="shared" si="3"/>
+        <v>x2 8</v>
+      </c>
+      <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>x60 8</v>
-      </c>
-      <c r="U13" t="str">
+        <v>x2 8</v>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="5"/>
-        <v>x60 8</v>
-      </c>
-      <c r="V13" t="str">
+        <v>x2 8</v>
+      </c>
+      <c r="W13" t="str">
         <f t="shared" si="6"/>
-        <v>x60 8</v>
-      </c>
-      <c r="W13" t="str">
+        <v>x2 8</v>
+      </c>
+      <c r="X13" t="str">
         <f t="shared" si="7"/>
-        <v>x60 8</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="8"/>
-        <v>x60 8</v>
+        <v>x2 8</v>
       </c>
       <c r="AC13" t="b">
         <f>$E$9=INT($E$9)</f>
@@ -2586,96 +2564,91 @@
       </c>
       <c r="AF13" s="23">
         <f>AF7</f>
-        <v>1.5766161123291446E-4</v>
+        <v>0.41287586078363547</v>
       </c>
       <c r="AG13">
         <f>1/AF13</f>
-        <v>6342.6980872515242</v>
+        <v>2.4220355195917898</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" ref="AH13:AH15" si="17">AF13/AF$12*100</f>
-        <v>98.701823087210016</v>
+        <f t="shared" ref="AH13:AH15" si="15">AF13/AF$12*100</f>
+        <v>87.954752345578385</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="B14" s="5"/>
       <c r="D14" s="12">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="E14">
+      <c r="L14" s="6">
+        <f t="shared" ref="L14:P17" si="16">E14/E$17</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
         <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="10"/>
-        <v>9</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" ref="L14:P17" si="18">E14/E$17</f>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" si="18"/>
-        <v>0.16620498614958448</v>
+        <v>0</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="18"/>
-        <v>0.16620498614958448</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="18"/>
-        <v>0.16620498614958448</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="18"/>
-        <v>0.17595307917888564</v>
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
       </c>
       <c r="T14" t="str">
+        <f t="shared" si="3"/>
+        <v>x0 9</v>
+      </c>
+      <c r="U14" t="str">
         <f t="shared" si="4"/>
-        <v>x60 9</v>
-      </c>
-      <c r="U14" t="str">
+        <v>x0 9</v>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="5"/>
-        <v>x60 9</v>
-      </c>
-      <c r="V14" t="str">
+        <v>x0 9</v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="6"/>
-        <v>x60 9</v>
-      </c>
-      <c r="W14" t="str">
+        <v>x0 9</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="7"/>
-        <v>x60 9</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="8"/>
-        <v>x60 9</v>
+        <v>x0 9</v>
       </c>
       <c r="Z14" s="12" t="s">
         <v>56</v>
       </c>
       <c r="AA14" s="21">
         <f>MAX(N22:P33)-MIN(N22:P33)</f>
-        <v>21.884570205636042</v>
+        <v>15.186020502038712</v>
       </c>
       <c r="AC14" t="b">
         <f>$E$10=INT($E$10)</f>
@@ -2686,83 +2659,83 @@
       </c>
       <c r="AF14" s="23">
         <f>AF8</f>
-        <v>2.0628522397436571E-6</v>
+        <v>5.4420783266876167E-2</v>
       </c>
       <c r="AG14">
         <f>1/AF14</f>
-        <v>484765.69515432976</v>
+        <v>18.375332730807301</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="17"/>
-        <v>1.2914194852508714</v>
+        <f t="shared" si="15"/>
+        <v>11.593234115469041</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="D15" s="12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
       <c r="L15" s="6">
-        <f t="shared" si="18"/>
-        <v>1.466275659824047E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.8610038610038611E-3</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="18"/>
-        <v>1.3850415512465374E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.8363171355498722E-3</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="18"/>
-        <v>1.3850415512465374E-2</v>
+        <f t="shared" si="16"/>
+        <v>3.9318479685452159E-3</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="18"/>
-        <v>1.3850415512465374E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.8779342723004695E-2</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="18"/>
-        <v>1.466275659824047E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.5806451612903226E-2</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
       </c>
       <c r="T15" t="str">
+        <f t="shared" si="3"/>
+        <v>x3 10</v>
+      </c>
+      <c r="U15" t="str">
         <f t="shared" si="4"/>
-        <v>x5 10</v>
-      </c>
-      <c r="U15" t="str">
+        <v>x3 10</v>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="5"/>
-        <v>x5 10</v>
-      </c>
-      <c r="V15" t="str">
+        <v>x3 10</v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="6"/>
-        <v>x5 10</v>
-      </c>
-      <c r="W15" t="str">
+        <v>x4 10</v>
+      </c>
+      <c r="X15" t="str">
         <f t="shared" si="7"/>
-        <v>x5 10</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="8"/>
-        <v>x5 10</v>
+        <v>x4 10</v>
       </c>
       <c r="AC15" t="b">
         <f>$E$11=INT($E$11)</f>
@@ -2773,161 +2746,146 @@
       </c>
       <c r="AF15" s="23">
         <f>AF9</f>
-        <v>1.079399427772844E-8</v>
+        <v>2.1218350800152569E-3</v>
       </c>
       <c r="AG15">
         <f>1/AF15</f>
-        <v>92644110.629494116</v>
+        <v>471.29016266090275</v>
       </c>
       <c r="AH15" s="5">
-        <f t="shared" si="17"/>
-        <v>6.7574275391033981E-3</v>
+        <f t="shared" si="15"/>
+        <v>0.45201353895257662</v>
       </c>
     </row>
     <row r="16" spans="1:43">
+      <c r="A16">
+        <f>1-(1-4*E16/E17)^5</f>
+        <v>0.2927304858294153</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="D16" s="12">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="K16" s="12">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>20</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="10"/>
-        <v>11</v>
-      </c>
       <c r="L16" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>1.6731016731016731E-2</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="18"/>
-        <v>5.5401662049861494E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.5345268542199489E-2</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="18"/>
-        <v>5.5401662049861494E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.5727391874180863E-2</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="18"/>
-        <v>5.5401662049861494E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.2253521126760563E-2</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>5.8064516129032261E-2</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
       </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
       <c r="T16" t="str">
-        <f t="shared" si="4"/>
-        <v>x0 11</v>
+        <f t="shared" ref="T16" si="17">"x"&amp;E16&amp;" "&amp;$D16</f>
+        <v>x13 11</v>
       </c>
       <c r="U16" t="str">
-        <f>"x"&amp;$S16&amp;" "&amp;$D16&amp;" "&amp;$D16</f>
-        <v>x5 11 11</v>
+        <f t="shared" ref="U16" si="18">"x"&amp;F16&amp;" "&amp;$D16</f>
+        <v>x12 11</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" ref="V16:W16" si="19">"x"&amp;$S16&amp;" "&amp;$D16&amp;" "&amp;$D16</f>
-        <v>x5 11 11</v>
+        <f t="shared" ref="V16" si="19">"x"&amp;G16&amp;" "&amp;$D16</f>
+        <v>x12 11</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="19"/>
-        <v>x5 11 11</v>
+        <f t="shared" ref="W16" si="20">"x"&amp;H16&amp;" "&amp;$D16</f>
+        <v>x9 11</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="8"/>
-        <v>x0 11</v>
+        <f t="shared" ref="X16" si="21">"x"&amp;I16&amp;" "&amp;$D16</f>
+        <v>x9 11</v>
       </c>
       <c r="Z16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="AA16" s="21">
         <f>MAX(E5:I16)</f>
-        <v>60</v>
+        <v>660</v>
       </c>
       <c r="AC16" t="b">
         <f>$E$12=INT($E$12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:31">
+    <row r="17" spans="1:31">
+      <c r="A17">
+        <f>1/A16^3</f>
+        <v>39.865401229082131</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="E17" s="1">
         <f>SUM(E5:E16)</f>
-        <v>341</v>
+        <v>777</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(F5:F16)</f>
-        <v>361</v>
+        <v>782</v>
       </c>
       <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>361</v>
+        <v>763</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>361</v>
+        <v>213</v>
       </c>
       <c r="I17" s="1">
         <f>SUM($I$5:I16)</f>
-        <v>341</v>
+        <v>155</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T17" t="str">
-        <f>T16</f>
-        <v>x0 11</v>
-      </c>
-      <c r="U17" t="str">
-        <f>"x"&amp;(F16-$S16*2)&amp;" "&amp;$D16</f>
-        <v>x10 11</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" ref="V17:W17" si="20">"x"&amp;(G16-$S16*2)&amp;" "&amp;$D16</f>
-        <v>x10 11</v>
-      </c>
-      <c r="W17" t="str">
-        <f t="shared" si="20"/>
-        <v>x10 11</v>
-      </c>
-      <c r="X17" t="str">
-        <f>X16</f>
-        <v>x0 11</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="Z17" s="12" t="s">
         <v>59</v>
@@ -2944,8 +2902,23 @@
         <v>36.976999999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:31">
+    <row r="18" spans="1:31">
       <c r="B18" s="5"/>
+      <c r="E18">
+        <v>777</v>
+      </c>
+      <c r="F18">
+        <v>782</v>
+      </c>
+      <c r="G18">
+        <v>763</v>
+      </c>
+      <c r="H18">
+        <v>213</v>
+      </c>
+      <c r="I18">
+        <v>155</v>
+      </c>
       <c r="AC18" t="b">
         <f>$E$14=INT($E$14)</f>
         <v>1</v>
@@ -2954,10 +2927,10 @@
         <v>11.128</v>
       </c>
     </row>
-    <row r="19" spans="2:31">
+    <row r="19" spans="1:31">
       <c r="AA19">
         <f>_xlfn.STDEV.S(N22:P33)</f>
-        <v>4.1793561040281322</v>
+        <v>3.5209675902763093</v>
       </c>
       <c r="AC19" t="b">
         <f>$E$15=INT($E$15)</f>
@@ -2967,7 +2940,7 @@
         <v>8.7390000000000008</v>
       </c>
     </row>
-    <row r="20" spans="2:31">
+    <row r="20" spans="1:31">
       <c r="B20" s="5"/>
       <c r="D20" s="14" t="s">
         <v>16</v>
@@ -2977,14 +2950,14 @@
       </c>
       <c r="AA20" s="21">
         <f>SUMSQ(N22:P33)-SUM(N22:P33)*SUM(N22:P33)</f>
-        <v>-3120.7565446573171</v>
+        <v>-793.36329347305127</v>
       </c>
       <c r="AC20" t="b">
         <f>$E$16=INT($E$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:31">
+    <row r="21" spans="1:31">
       <c r="E21" s="12" t="s">
         <v>17</v>
       </c>
@@ -3032,59 +3005,59 @@
       </c>
       <c r="AA21">
         <f>_xlfn.VAR.S(N22:P33)</f>
-        <v>17.467017444277207</v>
+        <v>12.397212771776159</v>
       </c>
       <c r="AC21" t="b">
         <f>$F$5=INT($F$5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:31">
+    <row r="22" spans="1:31">
       <c r="B22" s="2"/>
       <c r="D22" s="12">
         <v>0</v>
       </c>
       <c r="E22" s="5">
         <f>L5*(1-M5)*100</f>
-        <v>0.87245432612245244</v>
+        <v>75.166141662305336</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:I24" si="21">E22/(1-M5)*M5*(1-N5)</f>
-        <v>7.2503129594663641E-3</v>
+        <f t="shared" ref="F22:I24" si="22">E22/(1-M5)*M5*(1-N5)</f>
+        <v>8.6228175980231541</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="21"/>
-        <v>6.0251908250412999E-5</v>
+        <f t="shared" si="22"/>
+        <v>1.1260570037809363</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="21"/>
-        <v>5.0046228612787551E-7</v>
+        <f t="shared" si="22"/>
+        <v>2.6195494815003172E-2</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="21"/>
-        <v>4.4419729537977126E-9</v>
+        <f t="shared" si="22"/>
+        <v>8.7318316050010575E-4</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:L33" si="22">E22*T22</f>
+        <f t="shared" ref="L22:L33" si="23">E22*T22</f>
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" ref="M22:M33" si="23">F22*U22</f>
+        <f t="shared" ref="M22:M33" si="24">F22*U22</f>
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" ref="N22:N33" si="24">G22*V22</f>
+        <f t="shared" ref="N22:N33" si="25">G22*V22</f>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" ref="O22:O33" si="25">H22*W22</f>
+        <f t="shared" ref="O22:O33" si="26">H22*W22</f>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" ref="P22:P33" si="26">I22*X22</f>
+        <f t="shared" ref="P22:P33" si="27">I22*X22</f>
         <v>0</v>
       </c>
       <c r="S22" s="12">
@@ -3107,65 +3080,65 @@
       </c>
       <c r="AA22" s="21">
         <f>SUM(N22:P33)</f>
-        <v>61.957514841670267</v>
+        <v>35.529290394372524</v>
       </c>
       <c r="AC22" t="b">
         <f>$F$6=INT($F$6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:31">
+    <row r="23" spans="1:31">
       <c r="B23" s="2"/>
       <c r="D23" s="12">
-        <f t="shared" ref="D23:D33" si="27">D22+1</f>
+        <f t="shared" ref="D23:D33" si="28">D22+1</f>
         <v>1</v>
       </c>
       <c r="E23" s="5">
         <f>L6*(1-M6)*100</f>
-        <v>1.7302865127009532</v>
+        <v>0.86897273598040858</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="21"/>
-        <v>2.8758224587827477E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.8743890100159772</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="21"/>
-        <v>4.7797603193065058E-4</v>
+        <f t="shared" si="22"/>
+        <v>0.11211901101651393</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="21"/>
-        <v>7.936325010785244E-6</v>
+        <f t="shared" si="22"/>
+        <v>5.16677470122184E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="21"/>
-        <v>1.4214313452152678E-7</v>
+        <f t="shared" si="22"/>
+        <v>3.5632928973943721E-4</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" ref="K23:K33" si="28">K22+1</f>
+        <f t="shared" ref="K23:K33" si="29">K22+1</f>
         <v>1</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="24"/>
-        <v>6.4526764310637835E-2</v>
+        <f t="shared" si="25"/>
+        <v>15.136066487229382</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="25"/>
-        <v>3.2142116293680236E-3</v>
+        <f t="shared" si="26"/>
+        <v>2.0925437539948453</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="26"/>
-        <v>1.9189323160406115E-4</v>
+        <f t="shared" si="27"/>
+        <v>0.48104454114824025</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" ref="S23:S33" si="29">S22+1</f>
+        <f t="shared" ref="S23:S33" si="30">S22+1</f>
         <v>1</v>
       </c>
       <c r="T23">
@@ -3185,66 +3158,66 @@
       </c>
       <c r="AA23">
         <f>SUMSQ(N22:P33)</f>
-        <v>717.97710069847415</v>
+        <v>468.96718245460033</v>
       </c>
       <c r="AC23" t="b">
         <f>$F$7=INT($F$7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:31">
+    <row r="24" spans="1:31">
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="E24" s="5">
         <f>L7*(1-M7)*100</f>
-        <v>2.0129812105506857</v>
+        <v>3.7128835082799272</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="21"/>
-        <v>3.9032876658877565E-2</v>
+        <f t="shared" si="22"/>
+        <v>3.0089979911152896E-2</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="21"/>
-        <v>7.5687018452117154E-4</v>
+        <f t="shared" si="22"/>
+        <v>0.11248904075584232</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="21"/>
-        <v>1.4659132258151491E-5</v>
+        <f t="shared" si="22"/>
+        <v>5.1838267629420428E-3</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="21"/>
-        <v>3.0722732277563003E-7</v>
+        <f t="shared" si="22"/>
+        <v>3.5750529399600293E-4</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="24"/>
-        <v>0.10217747491035815</v>
+        <f t="shared" si="25"/>
+        <v>15.186020502038712</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="25"/>
-        <v>5.9369485645513536E-3</v>
+        <f t="shared" si="26"/>
+        <v>2.0994498389915273</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="26"/>
-        <v>4.1475688574710057E-4</v>
+        <f t="shared" si="27"/>
+        <v>0.48263214689460393</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="T24">
@@ -3271,60 +3244,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:31">
+    <row r="25" spans="1:31">
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="12">
+        <f t="shared" si="28"/>
+        <v>3</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" ref="E25:E30" si="31">L8*(1-M8)*100</f>
+        <v>2.1403390968608358</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" ref="F25:I25" si="32">E25/(1-M8)*M8*(1-N8)</f>
+        <v>4.737608019846324E-2</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="32"/>
+        <v>7.6384710475654213E-5</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="32"/>
+        <v>8.5646037997174024E-5</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="32"/>
+        <v>2.4980094415842421E-5</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="25"/>
+        <v>6.8746239428088794E-3</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="26"/>
+        <v>1.9270358549364156E-2</v>
+      </c>
+      <c r="P25" s="8">
         <f t="shared" si="27"/>
-        <v>3</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" ref="E25:E30" si="30">L8*(1-M8)*100</f>
-        <v>2.8513172110705849</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" ref="F25:I25" si="31">E25/(1-M8)*M8*(1-N8)</f>
-        <v>7.8983856262343069E-2</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="31"/>
-        <v>2.1879184560205838E-3</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="31"/>
-        <v>6.0505886736915318E-5</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="31"/>
-        <v>1.8279724089702512E-6</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="16">
-        <f t="shared" si="24"/>
-        <v>0.19691266104185254</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="25"/>
-        <v>1.3613824515805947E-2</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" si="26"/>
-        <v>1.1516226176512582E-3</v>
+        <v>1.5737459481980725E-2</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="S25" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="T25">
@@ -3344,66 +3317,66 @@
       </c>
       <c r="AA25" s="21">
         <f>AA23/AA24-(AA22/AA24)^2</f>
-        <v>16.981822515269503</v>
+        <v>12.052845750337932</v>
       </c>
       <c r="AC25" t="b">
         <f>$F$9=INT($F$9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:31">
+    <row r="26" spans="1:31">
       <c r="B26" s="5"/>
       <c r="D26" s="12">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="30"/>
-        <v>2.8513172110705849</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" ref="F26:I26" si="32">E26/(1-M9)*M9*(1-N9)</f>
-        <v>7.8983856262343069E-2</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="32"/>
-        <v>2.1879184560205838E-3</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="32"/>
-        <v>6.0505886736915318E-5</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="32"/>
-        <v>1.8279724089702512E-6</v>
-      </c>
-      <c r="K26" s="12">
         <f t="shared" si="28"/>
         <v>4</v>
       </c>
+      <c r="E26" s="5">
+        <f t="shared" si="31"/>
+        <v>1.2705434700319609</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:I26" si="33">E26/(1-M9)*M9*(1-N9)</f>
+        <v>1.6393107335108386E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="33"/>
+        <v>5.4076595731083992E-5</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="33"/>
+        <v>5.9682216020714304E-6</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="33"/>
+        <v>4.6648168843776704E-6</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
       <c r="L26" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="24"/>
-        <v>0.15753012883348202</v>
+        <f t="shared" si="25"/>
+        <v>3.8935148926380475E-3</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="25"/>
-        <v>8.1682947094835687E-3</v>
+        <f t="shared" si="26"/>
+        <v>8.0570991627964314E-4</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="26"/>
-        <v>6.5807006722929046E-4</v>
+        <f t="shared" si="27"/>
+        <v>1.6793340783759613E-3</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="S26" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="T26">
@@ -3426,60 +3399,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:31">
+    <row r="27" spans="1:31">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="31"/>
+        <v>0.63938618925831192</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:I27" si="34">E27/(1-M10)*M10*(1-N10)</f>
+        <v>4.0874918947408408E-3</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="34"/>
+        <v>2.6329428633112058E-5</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="34"/>
+        <v>6.1250221696135376E-7</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="34"/>
+        <v>2.0416740565378455E-8</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="25"/>
+        <v>1.4217891461880512E-3</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="26"/>
+        <v>5.5125199526521836E-5</v>
+      </c>
+      <c r="P27" s="8">
         <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="30"/>
-        <v>14.670880009098223</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27:I27" si="33">E27/(1-M10)*M10*(1-N10)</f>
-        <v>2.4383734087143858</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="33"/>
-        <v>0.40526981862288963</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="33"/>
-        <v>6.6570368000915009E-2</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="33"/>
-        <v>1.4214313452152674E-2</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" si="24"/>
-        <v>21.884570205636042</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="25"/>
-        <v>5.9913331200823512</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="26"/>
-        <v>2.5585764213874813</v>
+        <v>3.6750133017681219E-6</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="S27" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="T27">
@@ -3502,59 +3475,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:31">
+    <row r="28" spans="1:31">
       <c r="C28" s="5"/>
       <c r="D28" s="12">
-        <f t="shared" si="27"/>
-        <v>6</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="30"/>
-        <v>14.670880009098223</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28:I28" si="34">E28/(1-M11)*M11*(1-N11)</f>
-        <v>2.4383734087143858</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="34"/>
-        <v>0.40526981862288963</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="34"/>
-        <v>6.6570368000915009E-2</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="34"/>
-        <v>1.4214313452152674E-2</v>
-      </c>
-      <c r="K28" s="12">
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
+      <c r="E28" s="5">
+        <f t="shared" si="31"/>
+        <v>0.51216726408542268</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:I28" si="35">E28/(1-M11)*M11*(1-N11)</f>
+        <v>2.6194459931257407E-3</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="35"/>
+        <v>1.3545478361404114E-5</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="35"/>
+        <v>2.5255344745448636E-7</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="35"/>
+        <v>6.6901575484632147E-9</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
       <c r="L28" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M28" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="24"/>
-        <v>10.942285102818021</v>
+        <f t="shared" si="25"/>
+        <v>3.6572791575791106E-4</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="25"/>
-        <v>2.9956665600411756</v>
+        <f t="shared" si="26"/>
+        <v>1.1364905135451887E-5</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="26"/>
-        <v>1.2792882106937407</v>
+        <f t="shared" si="27"/>
+        <v>6.0211417936168932E-7</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="S28" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="T28">
@@ -3577,58 +3550,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:31">
+    <row r="29" spans="1:31">
       <c r="D29" s="12">
-        <f t="shared" si="27"/>
-        <v>7</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="30"/>
-        <v>14.670880009098223</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" ref="F29:I29" si="35">E29/(1-M12)*M12*(1-N12)</f>
-        <v>2.4383734087143858</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="35"/>
-        <v>0.40526981862288963</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="35"/>
-        <v>6.6570368000915009E-2</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="35"/>
-        <v>1.4214313452152674E-2</v>
-      </c>
-      <c r="K29" s="12">
         <f t="shared" si="28"/>
         <v>7</v>
       </c>
+      <c r="E29" s="5">
+        <f t="shared" si="31"/>
+        <v>0.38461918257314676</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29:I29" si="36">E29/(1-M12)*M12*(1-N12)</f>
+        <v>1.475379660159755E-3</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="36"/>
+        <v>5.7418407826825143E-6</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="36"/>
+        <v>8.0438691149100656E-8</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="36"/>
+        <v>1.587605746363829E-9</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="29"/>
+        <v>7</v>
+      </c>
       <c r="L29" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="24"/>
-        <v>7.2948567352120133</v>
+        <f t="shared" si="25"/>
+        <v>1.0335313408828526E-4</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="25"/>
-        <v>1.7973999360247053</v>
+        <f t="shared" si="26"/>
+        <v>2.1718446610257178E-6</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="26"/>
-        <v>0.76757292641624442</v>
+        <f t="shared" si="27"/>
+        <v>8.5730710303646762E-8</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="S29" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="T29">
@@ -3651,59 +3624,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:31">
+    <row r="30" spans="1:31">
       <c r="D30" s="12">
-        <f t="shared" si="27"/>
-        <v>8</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="30"/>
-        <v>14.670880009098223</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ref="F30:I30" si="36">E30/(1-M13)*M13*(1-N13)</f>
-        <v>2.4383734087143858</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="36"/>
-        <v>0.40526981862288963</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="36"/>
-        <v>6.6570368000915009E-2</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="36"/>
-        <v>1.4214313452152674E-2</v>
-      </c>
-      <c r="K30" s="12">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="L30" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" si="24"/>
-        <v>2.0263490931144483</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="25"/>
-        <v>0.59913331200823505</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="26"/>
-        <v>0.38378646320812221</v>
-      </c>
-      <c r="S30" s="12">
+      <c r="E30" s="5">
+        <f t="shared" si="31"/>
+        <v>0.25674194472148432</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:I30" si="37">E30/(1-M13)*M13*(1-N13)</f>
+        <v>6.5658708852723582E-4</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="37"/>
+        <v>1.7093875204881984E-6</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="37"/>
+        <v>1.5993657889294869E-8</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="37"/>
+        <v>2.0906742338947541E-10</v>
+      </c>
+      <c r="K30" s="12">
         <f t="shared" si="29"/>
         <v>8</v>
       </c>
+      <c r="L30" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="25"/>
+        <v>8.5469376024409917E-6</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="26"/>
+        <v>1.4394292100365382E-7</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="27"/>
+        <v>5.6448204315158362E-9</v>
+      </c>
+      <c r="S30" s="12">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
       <c r="T30">
         <v>0</v>
       </c>
@@ -3724,59 +3697,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:31">
+    <row r="31" spans="1:31">
       <c r="D31" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="E31" s="5">
         <f>L14*(1-M14)*100</f>
-        <v>14.670880009098223</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ref="F31:I33" si="37">E31/(1-M14)*M14*(1-N14)</f>
-        <v>2.4383734087143858</v>
+        <f t="shared" ref="F31:I33" si="38">E31/(1-M14)*M14*(1-N14)</f>
+        <v>0</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="37"/>
-        <v>0.40526981862288963</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="37"/>
-        <v>6.6570368000915009E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="37"/>
-        <v>1.4214313452152674E-2</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="28"/>
-        <v>9</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" si="24"/>
-        <v>2.0263490931144483</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="25"/>
-        <v>0.59913331200823505</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="26"/>
-        <v>0.25585764213874812</v>
-      </c>
-      <c r="S31" s="12">
         <f t="shared" si="29"/>
         <v>9</v>
       </c>
+      <c r="L31" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <f t="shared" si="30"/>
+        <v>9</v>
+      </c>
       <c r="T31">
         <v>0</v>
       </c>
@@ -3797,59 +3770,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:31">
+    <row r="32" spans="1:31">
       <c r="D32" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="E32" s="5">
         <f>L15*(1-M15)*100</f>
-        <v>1.4459671326796697</v>
+        <v>0.38461918257314676</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="37"/>
-        <v>2.0027245604981574E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.475379660159755E-3</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="37"/>
-        <v>2.7738567319919073E-4</v>
+        <f t="shared" si="38"/>
+        <v>5.7144986837173595E-6</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="37"/>
-        <v>3.8387420588375276E-6</v>
+        <f t="shared" si="38"/>
+        <v>1.0654598564486141E-7</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="37"/>
-        <v>5.7124137780320351E-8</v>
+        <f t="shared" si="38"/>
+        <v>2.8224102157579181E-9</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
-        <f t="shared" si="24"/>
-        <v>8.3215701959757219E-4</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="25"/>
-        <v>2.6871194411862694E-5</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="26"/>
-        <v>1.0282344800457663E-6</v>
-      </c>
-      <c r="S32" s="12">
         <f t="shared" si="29"/>
         <v>10</v>
       </c>
+      <c r="L32" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="25"/>
+        <v>1.7143496051152078E-5</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="26"/>
+        <v>7.4582189951402983E-7</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="27"/>
+        <v>5.0803383883642527E-8</v>
+      </c>
+      <c r="S32" s="12">
+        <f t="shared" si="30"/>
+        <v>10</v>
+      </c>
       <c r="T32">
         <v>0</v>
       </c>
@@ -3872,55 +3845,55 @@
     </row>
     <row r="33" spans="2:29">
       <c r="D33" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="E33" s="5">
         <f>L16*(1-M16)*100</f>
-        <v>0</v>
+        <v>1.6474274786295244</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>2.5270406354631032E-2</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>3.8672664776314992E-4</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.6070803768525584E-5</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>9.906659857310291E-7</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.1601799432894497E-3</v>
       </c>
       <c r="O33" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>1.1249562637967908E-4</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="27"/>
+        <v>8.9159938715792623E-6</v>
       </c>
       <c r="S33" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="T33">
@@ -4814,23 +4787,23 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:I59" si="38">E15-TRUNC(E15)</f>
+        <f t="shared" ref="E59:I59" si="39">E15-TRUNC(E15)</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AC59" t="b">
@@ -4849,8 +4822,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:X17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -4881,45 +4854,36 @@
       </c>
       <c r="AC1">
         <f>MIN($AA$14)</f>
-        <v>18.940474445331922</v>
+        <v>86.087894641279703</v>
       </c>
       <c r="AG1">
         <v>1</v>
       </c>
       <c r="AH1" s="6">
         <f t="shared" ref="AH1:AL1" si="0">3*L5</f>
-        <v>2.6392961876832849E-2</v>
+        <v>1.4563106796116505</v>
       </c>
       <c r="AI1" s="6">
         <f t="shared" si="0"/>
-        <v>2.3017902813299233E-2</v>
+        <v>1.0150375939849623</v>
       </c>
       <c r="AJ1" s="6">
         <f t="shared" si="0"/>
-        <v>2.3017902813299233E-2</v>
+        <v>1.1020408163265307</v>
       </c>
       <c r="AK1" s="6">
         <f t="shared" si="0"/>
-        <v>2.3017902813299233E-2</v>
+        <v>7.3170731707317083E-2</v>
       </c>
       <c r="AL1" s="6">
         <f t="shared" si="0"/>
-        <v>2.6392961876832849E-2</v>
+        <v>0.10204081632653061</v>
       </c>
       <c r="AM1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="24" customHeight="1">
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
       <c r="Z2" s="12" t="s">
         <v>47</v>
       </c>
@@ -5038,30 +5002,30 @@
       </c>
       <c r="AF4" s="22">
         <f>PRODUCT(AH4:AL4)</f>
-        <v>0.88394903486827325</v>
+        <v>-5.8273251136394943E-4</v>
       </c>
       <c r="AG4" s="5">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>1-AH1</f>
-        <v>0.97360703812316718</v>
+        <v>-0.4563106796116505</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AL4" si="1">1-AI1</f>
-        <v>0.97698209718670082</v>
+        <v>-1.5037593984962294E-2</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97698209718670082</v>
+        <v>-0.10204081632653073</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97698209718670082</v>
+        <v>0.92682926829268286</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" si="1"/>
-        <v>0.97360703812316718</v>
+        <v>0.89795918367346939</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
@@ -5078,69 +5042,69 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:I14" si="2">E5</f>
-        <v>3</v>
+        <f>Base!F5</f>
+        <v>90</v>
       </c>
       <c r="G5">
+        <f>Base!G5</f>
+        <v>90</v>
+      </c>
+      <c r="H5">
+        <f>Base!H5</f>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f>Base!I5</f>
+        <v>5</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:P16" si="2">E5/E$17</f>
+        <v>0.4854368932038835</v>
+      </c>
+      <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H5">
+        <v>0.33834586466165412</v>
+      </c>
+      <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="I5">
+        <v>0.36734693877551022</v>
+      </c>
+      <c r="O5" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:P17" si="3">E5/E$17</f>
-        <v>8.7976539589442824E-3</v>
-      </c>
-      <c r="M5" s="6">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4013605442176874E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" ref="T5:X16" si="3">"x"&amp;E5&amp;" "&amp;$D5</f>
+        <v>x100 0</v>
+      </c>
+      <c r="U5" t="str">
         <f t="shared" si="3"/>
-        <v>7.6726342710997444E-3</v>
-      </c>
-      <c r="N5" s="6">
+        <v>x90 0</v>
+      </c>
+      <c r="V5" t="str">
         <f t="shared" si="3"/>
-        <v>7.6726342710997444E-3</v>
-      </c>
-      <c r="O5" s="6">
+        <v>x90 0</v>
+      </c>
+      <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>7.6726342710997444E-3</v>
-      </c>
-      <c r="P5" s="6">
+        <v>x5 0</v>
+      </c>
+      <c r="X5" t="str">
         <f t="shared" si="3"/>
-        <v>8.7976539589442824E-3</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" ref="T5:X16" si="4">"x"&amp;E5&amp;" "&amp;$D5</f>
-        <v>x3 0</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" si="4"/>
-        <v>x3 0</v>
-      </c>
-      <c r="V5" t="str">
-        <f t="shared" si="4"/>
-        <v>x3 0</v>
-      </c>
-      <c r="W5" t="str">
-        <f t="shared" si="4"/>
-        <v>x3 0</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="4"/>
-        <v>x3 0</v>
+        <v>x5 0</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>48</v>
@@ -5157,28 +5121,28 @@
       </c>
       <c r="AF5" s="22">
         <f>SUM(AH5:AL5)</f>
-        <v>0.1104030208187208</v>
+        <v>4.7375515448703873E-2</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6">
         <f>PRODUCT($AG4:AG4,AI4:$AM4)*AH1</f>
-        <v>2.3962473836790545E-2</v>
+        <v>1.859784610736009E-3</v>
       </c>
       <c r="AI5" s="6">
         <f>PRODUCT($AG4:AH4,AJ4:$AM4)*AI1</f>
-        <v>2.0826024381713243E-2</v>
+        <v>3.9334444517066879E-2</v>
       </c>
       <c r="AJ5" s="6">
         <f>PRODUCT($AG4:AI4,AK4:$AM4)*AJ1</f>
-        <v>2.0826024381713243E-2</v>
+        <v>6.2935111227306485E-3</v>
       </c>
       <c r="AK5" s="6">
         <f>PRODUCT($AG4:AJ4,AL4:$AM4)*AK1</f>
-        <v>2.0826024381713243E-2</v>
+        <v>-4.6005198265574969E-5</v>
       </c>
       <c r="AL5" s="6">
         <f>PRODUCT($AG4:AK4,AM4:$AM4)*AL1</f>
-        <v>2.3962473836790545E-2</v>
+        <v>-6.6219603564085169E-5</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -5189,137 +5153,136 @@
         <v>10</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" ref="D6:D16" si="5">D5+1</f>
+        <f t="shared" ref="D6:D16" si="4">D5+1</f>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>E5*H49/H50</f>
-        <v>6</v>
+        <f>Base!E6</f>
+        <v>30</v>
       </c>
       <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <f>Base!G6</f>
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f>Base!H6</f>
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <f>Base!I6</f>
+        <v>10</v>
+      </c>
+      <c r="K6" s="12">
+        <f t="shared" ref="K6:K16" si="5">K5+1</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G6">
+        <v>0.14563106796116504</v>
+      </c>
+      <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H6">
+        <v>0.37593984962406013</v>
+      </c>
+      <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="I6">
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K6" s="12">
-        <f t="shared" ref="K6:K16" si="6">K5+1</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>6.8027210884353748E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>1.7595307917888565E-2</v>
-      </c>
-      <c r="M6" s="6">
+        <v>x30 1</v>
+      </c>
+      <c r="U6" t="str">
         <f t="shared" si="3"/>
-        <v>1.5345268542199489E-2</v>
-      </c>
-      <c r="N6" s="6">
+        <v>x100 1</v>
+      </c>
+      <c r="V6" t="str">
         <f t="shared" si="3"/>
-        <v>1.5345268542199489E-2</v>
-      </c>
-      <c r="O6" s="6">
+        <v>x30 1</v>
+      </c>
+      <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>1.5345268542199489E-2</v>
-      </c>
-      <c r="P6" s="6">
+        <v>x10 1</v>
+      </c>
+      <c r="X6" t="str">
         <f t="shared" si="3"/>
-        <v>1.7595307917888565E-2</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="4"/>
-        <v>x6 1</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="4"/>
-        <v>x6 1</v>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="4"/>
-        <v>x6 1</v>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="4"/>
-        <v>x6 1</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="4"/>
-        <v>x6 1</v>
+        <v>x10 1</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="5">
         <f>B9-(AA4-AA5)</f>
-        <v>22.262541044350584</v>
+        <v>174.66445843642995</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="AC6" t="b">
         <f>$AA$7&gt;=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="23">
         <f>SUM(AH6:AQ6)</f>
-        <v>5.5089470333260608E-3</v>
+        <v>-0.56129299742397065</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6">
         <f>PRODUCT(AH4:AJ4)*PRODUCT(AK1,AL1)</f>
-        <v>5.6456090191391332E-4</v>
+        <v>-5.2278634392698829E-6</v>
       </c>
       <c r="AI6" s="6">
         <f>PRODUCT(AH4:AI4,AK4)*PRODUCT(AJ1,AL1)</f>
-        <v>5.6456090191391332E-4</v>
+        <v>7.1517171849211922E-4</v>
       </c>
       <c r="AJ6" s="6">
         <f>PRODUCT(AH4:AI4,AL4)*PRODUCT(AJ1,AK1)</f>
-        <v>4.9066549590423873E-4</v>
+        <v>4.968561412682091E-4</v>
       </c>
       <c r="AK6" s="6">
         <f>PRODUCT(AH4,AJ4,AK4)*PRODUCT(AI1,AL1)</f>
-        <v>5.6456090191391332E-4</v>
+        <v>4.4698232405757828E-3</v>
       </c>
       <c r="AL6" s="6">
         <f>PRODUCT(AH4,AJ4,AL4)*PRODUCT(AI1,AK1)</f>
-        <v>4.9066549590423873E-4</v>
+        <v>3.105350882926333E-3</v>
       </c>
       <c r="AM6" s="6">
         <f>PRODUCT(AH4,AK4,AL4)*PRODUCT(AI1,AJ1)</f>
-        <v>4.9066549590423873E-4</v>
+        <v>-0.42481200078432185</v>
       </c>
       <c r="AN6" s="6">
         <f>PRODUCT(AI4,AJ4,AK4)*PRODUCT(AH1,AL1)</f>
-        <v>6.4958513412986427E-4</v>
+        <v>2.1133916031091009E-4</v>
       </c>
       <c r="AO6" s="6">
         <f>PRODUCT(AI4,AJ4,AL4)*PRODUCT(AH1,AK1)</f>
-        <v>5.6456090191391343E-4</v>
+        <v>1.4682510084757969E-4</v>
       </c>
       <c r="AP6" s="6">
         <f>PRODUCT(AI4,AK4,AL4)*PRODUCT(AH1,AJ1)</f>
-        <v>5.6456090191391343E-4</v>
+        <v>-2.0085673795948878E-2</v>
       </c>
       <c r="AQ6" s="6">
         <f>PRODUCT(AJ4,AK4,AL4)*PRODUCT(AH1,AI1)</f>
-        <v>5.6456090191391343E-4</v>
+        <v>-0.12553546122468154</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -5331,81 +5294,81 @@
         <v>10</v>
       </c>
       <c r="D7" s="12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f>Base!E7</f>
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <f>Base!F7</f>
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <f>Base!H7</f>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f>Base!I7</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
+      <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G7">
+        <v>0.14563106796116504</v>
+      </c>
+      <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H7">
+        <v>0.11278195488721804</v>
+      </c>
+      <c r="N7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="I7">
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="K7" s="12">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>6.8027210884353748E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>0</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>2.0527859237536656E-2</v>
-      </c>
-      <c r="M7" s="6">
+        <v>x30 2</v>
+      </c>
+      <c r="U7" t="str">
         <f t="shared" si="3"/>
-        <v>1.7902813299232736E-2</v>
-      </c>
-      <c r="N7" s="6">
+        <v>x30 2</v>
+      </c>
+      <c r="V7" t="str">
         <f t="shared" si="3"/>
-        <v>1.7902813299232736E-2</v>
-      </c>
-      <c r="O7" s="6">
+        <v>x100 2</v>
+      </c>
+      <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>1.7902813299232736E-2</v>
-      </c>
-      <c r="P7" s="6">
+        <v>x10 2</v>
+      </c>
+      <c r="X7" t="str">
         <f t="shared" si="3"/>
-        <v>2.0527859237536656E-2</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="4"/>
-        <v>x7 2</v>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="4"/>
-        <v>x7 2</v>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="4"/>
-        <v>x7 2</v>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="4"/>
-        <v>x7 2</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="4"/>
-        <v>x7 2</v>
+        <v>x10 2</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AA7" s="5">
         <f>(AA4+AA5)-B9</f>
-        <v>17.737458955649416</v>
+        <v>-134.66445843642995</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>37</v>
@@ -5419,48 +5382,48 @@
       </c>
       <c r="AF7" s="23">
         <f>SUM(AH7:AQ7)</f>
-        <v>1.3728030572773771E-4</v>
+        <v>1.2463528654218718</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6">
         <f>PRODUCT(AH1:AJ1)*PRODUCT(AK4,AL4)</f>
-        <v>1.3301173081741414E-5</v>
+        <v>1.3557829812265592</v>
       </c>
       <c r="AI7" s="6">
         <f>PRODUCT(AH1:AI1,AK1)*PRODUCT(AJ4,AL4)</f>
-        <v>1.3301173081741414E-5</v>
+        <v>-9.9106943072117017E-3</v>
       </c>
       <c r="AJ7" s="6">
         <f>PRODUCT(AH1:AI1,AL1)*PRODUCT(AJ4,AK4)</f>
-        <v>1.5304361798871147E-5</v>
+        <v>-1.4265393320986537E-2</v>
       </c>
       <c r="AK7" s="6">
         <f>PRODUCT(AH1,AJ1,AK1)*PRODUCT(AI4,AL4)</f>
-        <v>1.3301173081741414E-5</v>
+        <v>-1.5857110891538591E-3</v>
       </c>
       <c r="AL7" s="6">
         <f>PRODUCT(AH1,AJ1,AL1)*PRODUCT(AI4,AK4)</f>
-        <v>1.5304361798871147E-5</v>
+        <v>-2.2824629313578271E-3</v>
       </c>
       <c r="AM7" s="6">
         <f>PRODUCT(AH1,AK1,AL1)*PRODUCT(AI4,AJ4)</f>
-        <v>1.5304361798871147E-5</v>
+        <v>1.6684670550861329E-5</v>
       </c>
       <c r="AN7" s="6">
         <f>PRODUCT(AI1,AJ1,AK1)*PRODUCT(AH4,AL4)</f>
-        <v>1.156018184067578E-5</v>
+        <v>-3.3537789535604358E-2</v>
       </c>
       <c r="AO7" s="6">
         <f>PRODUCT(AI1,AJ1,AL1)*PRODUCT(AH4,AK4)</f>
-        <v>1.3301173081741412E-5</v>
+        <v>-4.8274090998218389E-2</v>
       </c>
       <c r="AP7" s="6">
         <f>PRODUCT(AI1,AK1,AL1)*PRODUCT(AH4,AJ4)</f>
-        <v>1.3301173081741412E-5</v>
+        <v>3.528807821507197E-4</v>
       </c>
       <c r="AQ7" s="6">
         <f>PRODUCT(AJ1,AK1,AL1)*PRODUCT(AH4,AI4)</f>
-        <v>1.3301173081741412E-5</v>
+        <v>5.6460925144114675E-5</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -5471,74 +5434,75 @@
         <v>0</v>
       </c>
       <c r="D8" s="12">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f>Base!E8</f>
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <f>Base!F8</f>
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <f>Base!G8</f>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f>Base!H8</f>
+        <v>126</v>
+      </c>
+      <c r="I8">
+        <f>Base!I8</f>
+        <v>35</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
+      <c r="L8" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G8">
+        <v>8.2524271844660199E-2</v>
+      </c>
+      <c r="M8" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H8">
+        <v>6.3909774436090222E-2</v>
+      </c>
+      <c r="N8" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I8">
+        <v>1.2244897959183673E-2</v>
+      </c>
+      <c r="O8" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="L8" s="6">
+        <v>0.61463414634146341</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>2.932551319648094E-2</v>
-      </c>
-      <c r="M8" s="6">
+        <v>x17 3</v>
+      </c>
+      <c r="U8" t="str">
         <f t="shared" si="3"/>
-        <v>2.557544757033248E-2</v>
-      </c>
-      <c r="N8" s="6">
+        <v>x17 3</v>
+      </c>
+      <c r="V8" t="str">
         <f t="shared" si="3"/>
-        <v>2.557544757033248E-2</v>
-      </c>
-      <c r="O8" s="6">
+        <v>x3 3</v>
+      </c>
+      <c r="W8" t="str">
         <f t="shared" si="3"/>
-        <v>2.557544757033248E-2</v>
-      </c>
-      <c r="P8" s="6">
+        <v>x126 3</v>
+      </c>
+      <c r="X8" t="str">
         <f t="shared" si="3"/>
-        <v>2.932551319648094E-2</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 3</v>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 3</v>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 3</v>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 3</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 3</v>
+        <v>x35 3</v>
       </c>
       <c r="AC8" t="b">
         <f>$AA$16&gt;=$AA$17</f>
@@ -5549,27 +5513,27 @@
       </c>
       <c r="AF8" s="23">
         <f>SUM(AH8:AL8)</f>
-        <v>1.7084787540336819E-6</v>
+        <v>0.25598422423318046</v>
       </c>
       <c r="AH8" s="24">
         <f>PRODUCT($AG1:AG1,AI1:$AM1)*AH4</f>
-        <v>3.1337842339181342E-7</v>
+        <v>-3.8111124472277685E-3</v>
       </c>
       <c r="AI8" s="24">
         <f>PRODUCT($AG1:AH1,AJ1:$AM1)*AI4</f>
-        <v>3.6057396908335165E-7</v>
+        <v>-1.8019444194930216E-4</v>
       </c>
       <c r="AJ8" s="24">
         <f>PRODUCT($AG1:AI1,AK1:$AM1)*AJ4</f>
-        <v>3.6057396908335165E-7</v>
+        <v>-1.1262152621831479E-3</v>
       </c>
       <c r="AK8" s="24">
         <f>PRODUCT($AG1:AJ1,AL1:$AM1)*AK4</f>
-        <v>3.6057396908335165E-7</v>
+        <v>0.15406624786665443</v>
       </c>
       <c r="AL8" s="24">
         <f>PRODUCT($AG1:AK1,AM1:$AM1)*AL4</f>
-        <v>3.1337842339181342E-7</v>
+        <v>0.10703549851788627</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -5578,78 +5542,78 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(L22:P33)</f>
-        <v>52.262541044350584</v>
+        <v>204.66445843642995</v>
       </c>
       <c r="D9" s="12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f>Base!E9</f>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f>Base!F9</f>
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f>Base!G9</f>
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f>Base!H9</f>
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <f>Base!I9</f>
+        <v>68</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E14" si="7">E8*H52/H53</f>
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="L9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G9">
+        <v>4.8543689320388349E-2</v>
+      </c>
+      <c r="M9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="H9">
+        <v>3.7593984962406013E-2</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I9">
+        <v>1.2244897959183673E-2</v>
+      </c>
+      <c r="O9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K9" s="12">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="L9" s="6">
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.46258503401360546</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>2.932551319648094E-2</v>
-      </c>
-      <c r="M9" s="6">
+        <v>x10 4</v>
+      </c>
+      <c r="U9" t="str">
         <f t="shared" si="3"/>
-        <v>2.557544757033248E-2</v>
-      </c>
-      <c r="N9" s="6">
+        <v>x10 4</v>
+      </c>
+      <c r="V9" t="str">
         <f t="shared" si="3"/>
-        <v>2.557544757033248E-2</v>
-      </c>
-      <c r="O9" s="6">
+        <v>x3 4</v>
+      </c>
+      <c r="W9" t="str">
         <f t="shared" si="3"/>
-        <v>2.557544757033248E-2</v>
-      </c>
-      <c r="P9" s="6">
+        <v>x35 4</v>
+      </c>
+      <c r="X9" t="str">
         <f t="shared" si="3"/>
-        <v>2.932551319648094E-2</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 4</v>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 4</v>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 4</v>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 4</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="4"/>
-        <v>x10 4</v>
+        <v>x68 4</v>
       </c>
       <c r="Z9" s="12" t="s">
         <v>52</v>
@@ -5666,7 +5630,7 @@
       </c>
       <c r="AF9" s="23">
         <f>PRODUCT(AH1:AL1)</f>
-        <v>8.4951982244768712E-9</v>
+        <v>1.2163124831577984E-2</v>
       </c>
       <c r="AG9" s="5"/>
     </row>
@@ -5676,81 +5640,81 @@
       </c>
       <c r="B10" s="5">
         <f>100*(1-(1-SUMIF(T22:X33,"&lt;&gt;0",E22:I33)/100)^B6)</f>
-        <v>18.930750547183838</v>
+        <v>12.727049881970276</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="12">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f>Base!E10</f>
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <f>Base!F10</f>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f>Base!G10</f>
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <f>Base!H10</f>
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f>Base!I10</f>
+        <v>5</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="F10">
+      <c r="L10" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G10">
+        <v>2.4271844660194174E-2</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H10">
+        <v>1.8796992481203006E-2</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I10">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="O10" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K10" s="12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4013605442176874E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M10" s="6">
+        <v>x5 5</v>
+      </c>
+      <c r="U10" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="N10" s="6">
+        <v>x5 5</v>
+      </c>
+      <c r="V10" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="O10" s="6">
+        <v>x5 5</v>
+      </c>
+      <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="P10" s="6">
+        <v>x5 5</v>
+      </c>
+      <c r="X10" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 5</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 5</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 5</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 5</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 5</v>
+        <v>x5 5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>53</v>
@@ -5764,7 +5728,7 @@
       </c>
       <c r="AF10" s="22">
         <f>SUM(AF4:AF9)</f>
-        <v>1</v>
+        <v>0.99999999999999956</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -5773,88 +5737,88 @@
       </c>
       <c r="B11" s="5">
         <f>1/$B$6*(1/100*SUMPRODUCT(F22:I33,U22:X33,U22:X33)-(1/100*SUMPRODUCT(F22:I33,U22:X33))^2)</f>
-        <v>2.508628401739998</v>
+        <v>41.519568377514553</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="12">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>Base!E11</f>
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>Base!F11</f>
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <f>Base!G11</f>
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f>Base!H11</f>
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f>Base!I11</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="F11">
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G11">
+        <v>1.9417475728155338E-2</v>
+      </c>
+      <c r="M11" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H11">
+        <v>1.5037593984962405E-2</v>
+      </c>
+      <c r="N11" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I11">
+        <v>1.6326530612244899E-2</v>
+      </c>
+      <c r="O11" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="L11" s="6">
+        <v>1.9512195121951219E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7210884353741496E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M11" s="6">
+        <v>x4 6</v>
+      </c>
+      <c r="U11" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="N11" s="6">
+        <v>x4 6</v>
+      </c>
+      <c r="V11" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="O11" s="6">
+        <v>x4 6</v>
+      </c>
+      <c r="W11" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="P11" s="6">
+        <v>x4 6</v>
+      </c>
+      <c r="X11" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 6</v>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 6</v>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 6</v>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 6</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 6</v>
+        <v>x4 6</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AA11" s="5">
         <f>B10-(AA9-AA10)</f>
-        <v>8.9307505471838375</v>
+        <v>2.7270498819702755</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>37</v>
@@ -5870,88 +5834,88 @@
       </c>
       <c r="B12" s="5">
         <f>SQRT(B11)</f>
-        <v>1.5838650200506348</v>
+        <v>6.4435679850153322</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="12">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <f>Base!E12</f>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>Base!F12</f>
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <f>Base!G12</f>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f>Base!H12</f>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <f>Base!I12</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="F12">
+      <c r="L12" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G12">
+        <v>1.4563106796116505E-2</v>
+      </c>
+      <c r="M12" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H12">
+        <v>1.1278195488721804E-2</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I12">
+        <v>1.2244897959183673E-2</v>
+      </c>
+      <c r="O12" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K12" s="12">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="L12" s="6">
+        <v>1.4634146341463415E-2</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M12" s="6">
+        <v>x3 7</v>
+      </c>
+      <c r="U12" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="N12" s="6">
+        <v>x3 7</v>
+      </c>
+      <c r="V12" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="O12" s="6">
+        <v>x3 7</v>
+      </c>
+      <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="P12" s="6">
+        <v>x3 7</v>
+      </c>
+      <c r="X12" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 7</v>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 7</v>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 7</v>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 7</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 7</v>
+        <v>x3 7</v>
       </c>
       <c r="Z12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="AA12" s="5">
         <f>(AA9+AA10)-B10</f>
-        <v>21.069249452816162</v>
+        <v>27.272950118029726</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>37</v>
@@ -5965,11 +5929,11 @@
       </c>
       <c r="AF12" s="23">
         <f>SUM(AF13:AF15)</f>
-        <v>1.3899727967999588E-4</v>
+        <v>1.5145002144866302</v>
       </c>
       <c r="AG12">
         <f>1/AF12</f>
-        <v>7194.3854030973343</v>
+        <v>0.66028382857573231</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -5977,75 +5941,75 @@
         <v>0</v>
       </c>
       <c r="D13" s="12">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f>Base!E13</f>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>Base!F13</f>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>Base!G13</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>Base!H13</f>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f>Base!I13</f>
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="F13">
+      <c r="L13" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G13">
+        <v>9.7087378640776691E-3</v>
+      </c>
+      <c r="M13" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H13">
+        <v>7.5187969924812026E-3</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I13">
+        <v>8.1632653061224497E-3</v>
+      </c>
+      <c r="O13" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K13" s="12">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="L13" s="6">
+        <v>9.7560975609756097E-3</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.3605442176870748E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M13" s="6">
+        <v>x2 8</v>
+      </c>
+      <c r="U13" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="N13" s="6">
+        <v>x2 8</v>
+      </c>
+      <c r="V13" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="O13" s="6">
+        <v>x2 8</v>
+      </c>
+      <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="P13" s="6">
+        <v>x2 8</v>
+      </c>
+      <c r="X13" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 8</v>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 8</v>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 8</v>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 8</v>
-      </c>
-      <c r="X13" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 8</v>
+        <v>x2 8</v>
       </c>
       <c r="AC13" t="b">
         <f>$E$9=INT($E$9)</f>
@@ -6056,96 +6020,91 @@
       </c>
       <c r="AF13" s="23">
         <f>AF7</f>
-        <v>1.3728030572773771E-4</v>
+        <v>1.2463528654218718</v>
       </c>
       <c r="AG13">
         <f>1/AF13</f>
-        <v>7284.3660618243248</v>
+        <v>0.80234099647335022</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" ref="AH13:AH15" si="8">AF13/AF$12*100</f>
-        <v>98.764742766037557</v>
+        <f t="shared" ref="AH13:AH15" si="6">AF13/AF$12*100</f>
+        <v>82.29466417370881</v>
       </c>
     </row>
     <row r="14" spans="1:43">
       <c r="B14" s="5"/>
       <c r="D14" s="12">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="12">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-      <c r="F14">
+      <c r="L14" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>0</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="M14" s="6">
+        <v>x0 9</v>
+      </c>
+      <c r="U14" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="N14" s="6">
+        <v>x0 9</v>
+      </c>
+      <c r="V14" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="O14" s="6">
+        <v>x0 9</v>
+      </c>
+      <c r="W14" t="str">
         <f t="shared" si="3"/>
-        <v>0.15345268542199489</v>
-      </c>
-      <c r="P14" s="6">
+        <v>x0 9</v>
+      </c>
+      <c r="X14" t="str">
         <f t="shared" si="3"/>
-        <v>0.17595307917888564</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 9</v>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 9</v>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 9</v>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 9</v>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="4"/>
-        <v>x60 9</v>
+        <v>x0 9</v>
       </c>
       <c r="Z14" s="12" t="s">
         <v>56</v>
       </c>
       <c r="AA14" s="21">
         <f>MAX(N22:P33)-MIN(N22:P33)</f>
-        <v>18.940474445331922</v>
+        <v>86.087894641279703</v>
       </c>
       <c r="AC14" t="b">
         <f>$E$10=INT($E$10)</f>
@@ -6156,82 +6115,82 @@
       </c>
       <c r="AF14" s="23">
         <f>AF8</f>
-        <v>1.7084787540336819E-6</v>
+        <v>0.25598422423318046</v>
       </c>
       <c r="AG14">
         <f>1/AF14</f>
-        <v>585316.02903402888</v>
+        <v>3.9064907339332078</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="8"/>
-        <v>1.2291454609521841</v>
+        <f t="shared" si="6"/>
+        <v>16.902224363167313</v>
       </c>
     </row>
     <row r="15" spans="1:43">
       <c r="D15" s="12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="12">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
       <c r="L15" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4271844660194174E-2</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8796992481203006E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4013605442176874E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>1.466275659824047E-2</v>
-      </c>
-      <c r="M15" s="6">
+        <v>x5 10</v>
+      </c>
+      <c r="U15" t="str">
         <f t="shared" si="3"/>
-        <v>1.278772378516624E-2</v>
-      </c>
-      <c r="N15" s="6">
+        <v>x5 10</v>
+      </c>
+      <c r="V15" t="str">
         <f t="shared" si="3"/>
-        <v>1.278772378516624E-2</v>
-      </c>
-      <c r="O15" s="6">
+        <v>x5 10</v>
+      </c>
+      <c r="W15" t="str">
         <f t="shared" si="3"/>
-        <v>1.278772378516624E-2</v>
-      </c>
-      <c r="P15" s="6">
+        <v>x5 10</v>
+      </c>
+      <c r="X15" t="str">
         <f t="shared" si="3"/>
-        <v>1.466275659824047E-2</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="4"/>
-        <v>x5 10</v>
-      </c>
-      <c r="U15" t="str">
-        <f t="shared" si="4"/>
-        <v>x5 10</v>
-      </c>
-      <c r="V15" t="str">
-        <f t="shared" si="4"/>
-        <v>x5 10</v>
-      </c>
-      <c r="W15" t="str">
-        <f t="shared" si="4"/>
-        <v>x5 10</v>
-      </c>
-      <c r="X15" t="str">
-        <f t="shared" si="4"/>
         <v>x5 10</v>
       </c>
       <c r="AC15" t="b">
@@ -6243,86 +6202,83 @@
       </c>
       <c r="AF15" s="23">
         <f>AF9</f>
-        <v>8.4951982244768712E-9</v>
+        <v>1.2163124831577984E-2</v>
       </c>
       <c r="AG15">
         <f>1/AF15</f>
-        <v>117713556.95017691</v>
+        <v>82.215714616674276</v>
       </c>
       <c r="AH15" s="5">
-        <f t="shared" si="8"/>
-        <v>6.1117730102594791E-3</v>
+        <f t="shared" si="6"/>
+        <v>0.80311146312388704</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="B16" s="5"/>
       <c r="D16" s="12">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16">
-        <v>50</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
       <c r="L16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
+        <v>x0 11</v>
+      </c>
+      <c r="U16" t="str">
         <f t="shared" si="3"/>
-        <v>0.12787723785166241</v>
-      </c>
-      <c r="N16" s="6">
+        <v>x0 11</v>
+      </c>
+      <c r="V16" t="str">
         <f t="shared" si="3"/>
-        <v>0.12787723785166241</v>
-      </c>
-      <c r="O16" s="6">
+        <v>x0 11</v>
+      </c>
+      <c r="W16" t="str">
         <f t="shared" si="3"/>
-        <v>0.12787723785166241</v>
-      </c>
-      <c r="P16" s="6">
+        <v>x0 11</v>
+      </c>
+      <c r="X16" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16" t="str">
-        <f t="shared" si="4"/>
-        <v>x0 11</v>
-      </c>
-      <c r="U16" t="str">
-        <f>"x"&amp;$S16&amp;" "&amp;$D16&amp;" "&amp;$D16</f>
-        <v>x5 11 11</v>
-      </c>
-      <c r="V16" t="str">
-        <f t="shared" ref="V16:W16" si="9">"x"&amp;$S16&amp;" "&amp;$D16&amp;" "&amp;$D16</f>
-        <v>x5 11 11</v>
-      </c>
-      <c r="W16" t="str">
-        <f t="shared" si="9"/>
-        <v>x5 11 11</v>
-      </c>
-      <c r="X16" t="str">
-        <f t="shared" si="4"/>
         <v>x0 11</v>
       </c>
       <c r="Z16" s="12" t="s">
@@ -6330,7 +6286,7 @@
       </c>
       <c r="AA16" s="21">
         <f>MAX(E5:I16)</f>
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="AC16" t="b">
         <f>$E$12=INT($E$12)</f>
@@ -6341,63 +6297,43 @@
       <c r="B17" s="5"/>
       <c r="E17" s="1">
         <f>SUM(E5:E16)</f>
-        <v>341</v>
+        <v>206</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(F5:F16)</f>
-        <v>391</v>
+        <v>266</v>
       </c>
       <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>391</v>
+        <v>245</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>391</v>
+        <v>205</v>
       </c>
       <c r="I17" s="1">
         <f>SUM($I$5:I16)</f>
-        <v>341</v>
+        <v>147</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L5:P17" si="7">E17/E$17</f>
         <v>1</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T17" t="str">
-        <f>T16</f>
-        <v>x0 11</v>
-      </c>
-      <c r="U17" t="str">
-        <f>"x"&amp;(F16-$S16*2)&amp;" "&amp;$D16</f>
-        <v>x40 11</v>
-      </c>
-      <c r="V17" t="str">
-        <f t="shared" ref="V17:W17" si="10">"x"&amp;(G16-$S16*2)&amp;" "&amp;$D16</f>
-        <v>x40 11</v>
-      </c>
-      <c r="W17" t="str">
-        <f t="shared" si="10"/>
-        <v>x40 11</v>
-      </c>
-      <c r="X17" t="str">
-        <f>X16</f>
-        <v>x0 11</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Z17" s="12" t="s">
         <v>59</v>
@@ -6427,7 +6363,7 @@
     <row r="19" spans="2:31">
       <c r="AA19">
         <f>_xlfn.STDEV.S(N22:P33)</f>
-        <v>3.603286512963825</v>
+        <v>19.987392658442115</v>
       </c>
       <c r="AC19" t="b">
         <f>$E$15=INT($E$15)</f>
@@ -6447,7 +6383,7 @@
       </c>
       <c r="AA20" s="21">
         <f>SUMSQ(N22:P33)-SUM(N22:P33)*SUM(N22:P33)</f>
-        <v>-2201.0731394265613</v>
+        <v>-26741.642469206701</v>
       </c>
       <c r="AC20" t="b">
         <f>$E$16=INT($E$16)</f>
@@ -6502,7 +6438,7 @@
       </c>
       <c r="AA21">
         <f>_xlfn.VAR.S(N22:P33)</f>
-        <v>12.983673694507001</v>
+        <v>399.49586528274574</v>
       </c>
       <c r="AC21" t="b">
         <f>$F$5=INT($F$5)</f>
@@ -6516,45 +6452,45 @@
       </c>
       <c r="E22" s="5">
         <f>L5*(1-M5)*100</f>
-        <v>0.87301527776736088</v>
+        <v>32.119132783414841</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:I33" si="11">E22/(1-M5)*M5*(1-N5)</f>
-        <v>6.6983269393915161E-3</v>
+        <f t="shared" ref="F22:I33" si="8">E22/(1-M5)*M5*(1-N5)</f>
+        <v>10.391045972370989</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="11"/>
-        <v>5.1393812834206011E-5</v>
+        <f t="shared" si="8"/>
+        <v>5.8863517703439117</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="11"/>
-        <v>3.9387887515407151E-7</v>
+        <f t="shared" si="8"/>
+        <v>0.14215339309333935</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="11"/>
-        <v>3.495966347521345E-9</v>
+        <f t="shared" si="8"/>
+        <v>5.0054011652584289E-3</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:P33" si="12">E22*T22</f>
+        <f t="shared" ref="L22:P33" si="9">E22*T22</f>
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S22" s="12">
@@ -6577,7 +6513,7 @@
       </c>
       <c r="AA22" s="21">
         <f>SUM(N22:P33)</f>
-        <v>52.262541044350584</v>
+        <v>204.66445843642995</v>
       </c>
       <c r="AC22" t="b">
         <f>$F$6=INT($F$6)</f>
@@ -6587,55 +6523,55 @@
     <row r="23" spans="2:31">
       <c r="B23" s="2"/>
       <c r="D23" s="12">
-        <f t="shared" ref="D23:D33" si="13">D22+1</f>
+        <f t="shared" ref="D23:D33" si="10">D22+1</f>
         <v>1</v>
       </c>
       <c r="E23" s="5">
         <f>L6*(1-M6)*100</f>
-        <v>1.7325303192805876</v>
+        <v>9.0882546171253367</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="11"/>
-        <v>2.6586143006863239E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.8044621162575538</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="11"/>
-        <v>4.0797150394163536E-4</v>
+        <f t="shared" si="8"/>
+        <v>0.63768810845392365</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="11"/>
-        <v>6.2461265409048035E-6</v>
+        <f t="shared" si="8"/>
+        <v>3.0477331539573538E-2</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1187092312068305E-7</v>
+        <f t="shared" si="8"/>
+        <v>2.2246227401148569E-3</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" ref="K23:K33" si="14">K22+1</f>
+        <f t="shared" ref="K23:K33" si="11">K22+1</f>
         <v>1</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="12"/>
-        <v>5.5076153032120774E-2</v>
+        <f t="shared" si="9"/>
+        <v>86.087894641279689</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="12"/>
-        <v>2.5296812490664456E-3</v>
+        <f t="shared" si="9"/>
+        <v>12.343319273527284</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="12"/>
-        <v>1.5102574621292213E-4</v>
+        <f t="shared" si="9"/>
+        <v>3.0032406991550569</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" ref="S23:S33" si="15">S22+1</f>
+        <f t="shared" ref="S23:S33" si="12">S22+1</f>
         <v>1</v>
       </c>
       <c r="T23">
@@ -6655,7 +6591,7 @@
       </c>
       <c r="AA23">
         <f>SUMSQ(N22:P33)</f>
-        <v>530.30005698586808</v>
+        <v>15145.898077870466</v>
       </c>
       <c r="AC23" t="b">
         <f>$F$7=INT($F$7)</f>
@@ -6666,55 +6602,55 @@
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E24" s="5">
         <f>L7*(1-M7)*100</f>
-        <v>2.0160352806174107</v>
+        <v>12.920651142419153</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.97206559096373757</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="8"/>
+        <v>0.63768810845392376</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="8"/>
+        <v>3.0477331539573545E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="8"/>
+        <v>2.2246227401148577E-3</v>
+      </c>
+      <c r="K24" s="12">
         <f t="shared" si="11"/>
-        <v>3.6092703233559779E-2</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="11"/>
-        <v>6.4616092745503444E-4</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1537178094375232E-5</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="11"/>
-        <v>2.4179714569049885E-7</v>
-      </c>
-      <c r="K24" s="12">
-        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="L24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="9"/>
+        <v>86.087894641279703</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="9"/>
+        <v>12.343319273527285</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="9"/>
+        <v>3.0032406991550578</v>
+      </c>
+      <c r="S24" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="16">
-        <f t="shared" si="12"/>
-        <v>8.7231725206429647E-2</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="12"/>
-        <v>4.6725571282219686E-3</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="12"/>
-        <v>3.2642614668217346E-4</v>
-      </c>
-      <c r="S24" s="12">
-        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="T24">
@@ -6745,56 +6681,56 @@
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:E30" si="16">L8*(1-M8)*100</f>
-        <v>2.8575500071251247</v>
+        <f t="shared" ref="E25:E30" si="13">L8*(1-M8)*100</f>
+        <v>7.7250164245565367</v>
       </c>
       <c r="F25" s="5">
+        <f t="shared" si="8"/>
+        <v>0.52095266897181536</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="8"/>
+        <v>2.4887277271985532E-3</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="8"/>
+        <v>3.0242767317855833E-3</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="8"/>
+        <v>9.4508647868299476E-4</v>
+      </c>
+      <c r="K25" s="12">
         <f t="shared" si="11"/>
-        <v>7.3083120386831832E-2</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="11"/>
-        <v>1.8691335137297144E-3</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="11"/>
-        <v>4.7619953128788683E-5</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="11"/>
-        <v>1.4386692788153681E-6</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="12"/>
-        <v>0.16822201623567429</v>
+        <f t="shared" si="9"/>
+        <v>0.22398549544786978</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="12"/>
-        <v>1.0714489453977454E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.6804622646517563</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="12"/>
-        <v>9.0636164565368195E-4</v>
+        <f t="shared" si="9"/>
+        <v>0.59540448157028669</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="S25" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="T25">
@@ -6814,7 +6750,7 @@
       </c>
       <c r="AA25" s="21">
         <f>AA23/AA24-(AA22/AA24)^2</f>
-        <v>12.623016091881807</v>
+        <v>388.39875791378057</v>
       </c>
       <c r="AC25" t="b">
         <f>$F$9=INT($F$9)</f>
@@ -6824,56 +6760,56 @@
     <row r="26" spans="2:31">
       <c r="B26" s="5"/>
       <c r="D26" s="12">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="13"/>
+        <v>4.671873859405796</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="8"/>
+        <v>0.18026043909059353</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="8"/>
+        <v>1.8531107425156762E-3</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="8"/>
+        <v>2.0503606254725269E-4</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="8"/>
+        <v>1.7648673738244536E-4</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="E26" s="5">
-        <f t="shared" si="16"/>
-        <v>2.8575500071251247</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="11"/>
-        <v>7.3083120386831832E-2</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="11"/>
-        <v>1.8691335137297144E-3</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="11"/>
-        <v>4.7619953128788683E-5</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="11"/>
-        <v>1.4386692788153681E-6</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
       <c r="L26" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="12"/>
-        <v>0.13457761298853943</v>
+        <f t="shared" si="9"/>
+        <v>0.13342397346112869</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="12"/>
-        <v>6.4286936723864721E-3</v>
+        <f t="shared" si="9"/>
+        <v>2.7679868443879114E-2</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="12"/>
-        <v>5.1792094037353257E-4</v>
+        <f t="shared" si="9"/>
+        <v>6.3535225457680325E-2</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="S26" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="T26">
@@ -6900,56 +6836,56 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="16"/>
-        <v>14.895260667061674</v>
+        <v>2.3815606978611576</v>
       </c>
       <c r="F27" s="5">
+        <f t="shared" si="8"/>
+        <v>4.4692670848907483E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="8"/>
+        <v>9.0838761888023328E-4</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="8"/>
+        <v>2.1937252020577062E-5</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="8"/>
+        <v>7.7243845142876992E-7</v>
+      </c>
+      <c r="K27" s="12">
         <f t="shared" si="11"/>
-        <v>2.2857177494212286</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="11"/>
-        <v>0.35074952676540594</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="11"/>
-        <v>5.2392882328186542E-2</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1187092312068303E-2</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="12"/>
-        <v>18.940474445331922</v>
+        <f t="shared" si="9"/>
+        <v>4.9052931419532597E-2</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="12"/>
-        <v>4.7153594095367888</v>
+        <f t="shared" si="9"/>
+        <v>1.9743526818519356E-3</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="12"/>
-        <v>2.0136766161722943</v>
+        <f t="shared" si="9"/>
+        <v>1.3903892125717858E-4</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="S27" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="T27">
@@ -6975,56 +6911,56 @@
     <row r="28" spans="2:31">
       <c r="C28" s="5"/>
       <c r="D28" s="12">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="13"/>
+        <v>1.9125483611942475</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="8"/>
+        <v>2.8722489798897875E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="8"/>
+        <v>4.6741993317101291E-4</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="8"/>
+        <v>9.0487765855694109E-6</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="8"/>
+        <v>2.5311263176417934E-7</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" si="16"/>
-        <v>14.895260667061674</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" si="11"/>
-        <v>2.2857177494212286</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="11"/>
-        <v>0.35074952676540594</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="11"/>
-        <v>5.2392882328186542E-2</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1187092312068303E-2</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
       <c r="L28" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M28" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="12"/>
-        <v>9.4702372226659612</v>
+        <f t="shared" si="9"/>
+        <v>1.2620338195617349E-2</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="12"/>
-        <v>2.3576797047683944</v>
+        <f t="shared" si="9"/>
+        <v>4.0719494635062351E-4</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="12"/>
-        <v>1.0068383080861472</v>
+        <f t="shared" si="9"/>
+        <v>2.2780136858776142E-5</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="S28" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="T28">
@@ -7049,56 +6985,56 @@
     </row>
     <row r="29" spans="2:31">
       <c r="D29" s="12">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="13"/>
+        <v>1.4398861230746771</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6223439518153415E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="8"/>
+        <v>1.9817384293491171E-4</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="8"/>
+        <v>2.8831110711888549E-6</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="8"/>
+        <v>6.0064813983101139E-8</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="E29" s="5">
-        <f t="shared" si="16"/>
-        <v>14.895260667061674</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="11"/>
-        <v>2.2857177494212286</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="11"/>
-        <v>0.35074952676540594</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="11"/>
-        <v>5.2392882328186542E-2</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1187092312068303E-2</v>
-      </c>
-      <c r="K29" s="12">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
       <c r="L29" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="12"/>
-        <v>6.3134914817773069</v>
+        <f t="shared" si="9"/>
+        <v>3.5671291728284109E-3</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="12"/>
-        <v>1.4146078228610366</v>
+        <f t="shared" si="9"/>
+        <v>7.7843998922099084E-5</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="12"/>
-        <v>0.60410298485168834</v>
+        <f t="shared" si="9"/>
+        <v>3.2434999550874615E-6</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="S29" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T29">
@@ -7123,55 +7059,55 @@
     </row>
     <row r="30" spans="2:31">
       <c r="D30" s="12">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="13"/>
+        <v>0.96357398350244527</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="8"/>
+        <v>7.2402126775230119E-3</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="8"/>
+        <v>5.9008859722459959E-5</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="8"/>
+        <v>5.7345830634071874E-7</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="8"/>
+        <v>7.9097697426306045E-9</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="E30" s="5">
-        <f t="shared" si="16"/>
-        <v>14.895260667061674</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="11"/>
-        <v>2.2857177494212286</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="11"/>
-        <v>0.35074952676540594</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="11"/>
-        <v>5.2392882328186542E-2</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1187092312068303E-2</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
       <c r="L30" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="9"/>
+        <v>2.9504429861229977E-4</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="9"/>
+        <v>5.1611247570664687E-6</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="9"/>
+        <v>2.1356378305102632E-7</v>
+      </c>
+      <c r="S30" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" si="12"/>
-        <v>1.7537476338270297</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="12"/>
-        <v>0.4715359409536789</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="12"/>
-        <v>0.30205149242584417</v>
-      </c>
-      <c r="S30" s="12">
-        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="T30">
@@ -7196,55 +7132,55 @@
     </row>
     <row r="31" spans="2:31">
       <c r="D31" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="E31" s="5">
         <f>L14*(1-M14)*100</f>
-        <v>14.895260667061674</v>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
         <f t="shared" si="11"/>
-        <v>2.2857177494212286</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="11"/>
-        <v>0.35074952676540594</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="11"/>
-        <v>5.2392882328186542E-2</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="11"/>
-        <v>1.1187092312068303E-2</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="L31" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" si="12"/>
-        <v>1.7537476338270297</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="12"/>
-        <v>0.4715359409536789</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="12"/>
-        <v>0.20136766161722944</v>
-      </c>
-      <c r="S31" s="12">
-        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="T31">
@@ -7269,55 +7205,55 @@
     </row>
     <row r="32" spans="2:31">
       <c r="D32" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E32" s="5">
         <f>L15*(1-M15)*100</f>
-        <v>1.4475253316933048</v>
+        <v>2.3815606978611576</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="8"/>
+        <v>4.4692670848907483E-2</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="8"/>
+        <v>9.0838761888023328E-4</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="8"/>
+        <v>2.1937252020577062E-5</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="8"/>
+        <v>7.7243845142876992E-7</v>
+      </c>
+      <c r="K32" s="12">
         <f t="shared" si="11"/>
-        <v>1.8510554113725125E-2</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="11"/>
-        <v>2.3670785311668955E-4</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="11"/>
-        <v>3.0212054855122731E-6</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="11"/>
-        <v>4.4958414962980254E-8</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="L32" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="9"/>
+        <v>2.7251628566406999E-3</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="9"/>
+        <v>1.5356076414403943E-4</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="9"/>
+        <v>1.3903892125717859E-5</v>
+      </c>
+      <c r="S32" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
-        <f t="shared" si="12"/>
-        <v>7.1012355935006865E-4</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="12"/>
-        <v>2.1148438398585912E-5</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="12"/>
-        <v>8.0925146933364454E-7</v>
-      </c>
-      <c r="S32" s="12">
-        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="T32">
@@ -7342,7 +7278,7 @@
     </row>
     <row r="33" spans="2:29">
       <c r="D33" s="12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="E33" s="5">
@@ -7350,47 +7286,47 @@
         <v>0</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="L33" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="12">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="16">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="12">
-        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="T33">
@@ -8284,23 +8220,23 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:I59" si="17">E15-TRUNC(E15)</f>
+        <f t="shared" ref="E59:I59" si="14">E15-TRUNC(E15)</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC59" t="b">

--- a/Math/Valiant-1.0Math.xlsx
+++ b/Math/Valiant-1.0Math.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="17655" windowHeight="10920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="17655" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="30" r:id="rId1"/>
@@ -970,7 +970,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +1007,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1023,7 +1029,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1055,6 +1061,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1393,7 +1400,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T5" sqref="T5:X16"/>
     </sheetView>
   </sheetViews>
@@ -1425,30 +1432,30 @@
       </c>
       <c r="AC1">
         <f>MIN($AA$14)</f>
-        <v>15.186020502038712</v>
+        <v>5.9308497139790699</v>
       </c>
       <c r="AG1">
         <v>1</v>
       </c>
       <c r="AH1" s="6">
         <f t="shared" ref="AH1:AL1" si="0">3*L5</f>
-        <v>2.5482625482625481</v>
+        <v>1.5271966527196654</v>
       </c>
       <c r="AI1" s="6">
         <f t="shared" si="0"/>
-        <v>0.34526854219948849</v>
+        <v>8.9955022488755615E-2</v>
       </c>
       <c r="AJ1" s="6">
         <f t="shared" si="0"/>
-        <v>0.35386631716906947</v>
+        <v>9.7402597402597393E-2</v>
       </c>
       <c r="AK1" s="6">
         <f t="shared" si="0"/>
-        <v>7.0422535211267595E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AL1" s="6">
         <f t="shared" si="0"/>
-        <v>9.6774193548387094E-2</v>
+        <v>0.34682080924855491</v>
       </c>
       <c r="AM1">
         <v>1</v>
@@ -1582,30 +1589,30 @@
       </c>
       <c r="AF4" s="22">
         <f>PRODUCT(AH4:AL4)</f>
-        <v>-0.54993596408774281</v>
+        <v>-0.14142686856023637</v>
       </c>
       <c r="AG4" s="5">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>1-AH1</f>
-        <v>-1.5482625482625481</v>
+        <v>-0.52719665271966543</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AL4" si="1">1-AI1</f>
-        <v>0.65473145780051145</v>
+        <v>0.91004497751124436</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>0.64613368283093053</v>
+        <v>0.90259740259740262</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="1"/>
-        <v>0.92957746478873238</v>
+        <v>0.5</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" si="1"/>
-        <v>0.90322580645161288</v>
+        <v>0.65317919075144504</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
@@ -1622,67 +1629,67 @@
         <v>0</v>
       </c>
       <c r="E5" s="26">
-        <f>-SUM(E6:E$16,-E$18)</f>
-        <v>660</v>
+        <v>365</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <f>E6</f>
+        <v>20</v>
       </c>
       <c r="G5">
         <f>F5</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:P7" si="2">E5/E$17</f>
-        <v>0.84942084942084939</v>
+        <v>0.50906555090655514</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>0.11508951406649616</v>
+        <v>2.9985007496251874E-2</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>0.11795543905635648</v>
+        <v>3.2467532467532464E-2</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="2"/>
-        <v>2.3474178403755867E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="2"/>
-        <v>3.2258064516129031E-2</v>
+        <v>0.11560693641618497</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
       </c>
       <c r="T5" t="str">
-        <f t="shared" ref="T5:T16" si="3">"x"&amp;E5&amp;" "&amp;$D5</f>
-        <v>x660 0</v>
+        <f t="shared" ref="T5:T15" si="3">"x"&amp;E5&amp;" "&amp;$D5</f>
+        <v>x365 0</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U15" si="4">"x"&amp;F5&amp;" "&amp;$D5</f>
-        <v>x90 0</v>
+        <v>x20 0</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" ref="V5:V15" si="5">"x"&amp;G5&amp;" "&amp;$D5</f>
-        <v>x90 0</v>
+        <v>x20 0</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" ref="W5:W15" si="6">"x"&amp;H5&amp;" "&amp;$D5</f>
-        <v>x5 0</v>
+        <v>x30 0</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" ref="X5:X16" si="7">"x"&amp;I5&amp;" "&amp;$D5</f>
-        <v>x5 0</v>
+        <f t="shared" ref="X5:X15" si="7">"x"&amp;I5&amp;" "&amp;$D5</f>
+        <v>x20 0</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>48</v>
@@ -1692,35 +1699,35 @@
       </c>
       <c r="AC5" t="b">
         <f>$AA$6&gt;=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>1</v>
       </c>
       <c r="AF5" s="22">
         <f>SUM(AH5:AL5)</f>
-        <v>0.21336072434215875</v>
+        <v>0.16392667965755889</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6">
         <f>PRODUCT($AG4:AG4,AI4:$AM4)*AH1</f>
-        <v>0.90513151196486363</v>
+        <v>0.40968894463877997</v>
       </c>
       <c r="AI5" s="6">
         <f>PRODUCT($AG4:AH4,AJ4:$AM4)*AI1</f>
-        <v>-0.29000529356189569</v>
+        <v>-1.3979591620451702E-2</v>
       </c>
       <c r="AJ5" s="6">
         <f>PRODUCT($AG4:AI4,AK4:$AM4)*AJ1</f>
-        <v>-0.30118196816164416</v>
+        <v>-1.526189229067299E-2</v>
       </c>
       <c r="AK5" s="6">
         <f>PRODUCT($AG4:AJ4,AL4:$AM4)*AK1</f>
-        <v>-4.1661815461192638E-2</v>
+        <v>-0.14142686856023637</v>
       </c>
       <c r="AL5" s="6">
         <f>PRODUCT($AG4:AK4,AM4:$AM4)*AL1</f>
-        <v>-5.8921710437972445E-2</v>
+        <v>-7.5093912509860028E-2</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1735,20 +1742,22 @@
         <v>1</v>
       </c>
       <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="26">
+        <f>E5</f>
+        <v>365</v>
+      </c>
+      <c r="G6">
+        <f>F7</f>
+        <v>20</v>
+      </c>
+      <c r="H6">
         <v>30</v>
       </c>
-      <c r="F6" s="26">
-        <f>-SUM(F7:F$16,-F$18,F5)</f>
-        <v>606</v>
-      </c>
-      <c r="G6">
+      <c r="I6">
+        <f>H5</f>
         <v>30</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ref="K6:K16" si="9">K5+1</f>
@@ -1756,53 +1765,53 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>3.8610038610038609E-2</v>
+        <v>2.7894002789400279E-2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>0.77493606138107418</v>
+        <v>0.54722638680659674</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>3.9318479685452164E-2</v>
+        <v>3.2467532467532464E-2</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>4.6948356807511735E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="2"/>
-        <v>6.4516129032258063E-2</v>
+        <v>0.17341040462427745</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>x30 1</v>
+        <v>x20 1</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>x606 1</v>
+        <v>x365 1</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="5"/>
-        <v>x30 1</v>
+        <v>x20 1</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="6"/>
-        <v>x10 1</v>
+        <v>x30 1</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="7"/>
-        <v>x10 1</v>
+        <v>x30 1</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="5">
         <f>B9-(AA4-AA5)</f>
-        <v>5.5292903943725236</v>
+        <v>-8.3103936219211541</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>37</v>
@@ -1816,48 +1825,48 @@
       </c>
       <c r="AF6" s="23">
         <f>SUM(AH6:AQ6)</f>
-        <v>0.86715676061505731</v>
+        <v>0.59055993369993409</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6">
         <f>PRODUCT(AH4:AJ4)*PRODUCT(AK1,AL1)</f>
-        <v>-4.4637659422706397E-3</v>
+        <v>-7.5093912509860028E-2</v>
       </c>
       <c r="AI6" s="6">
         <f>PRODUCT(AH4:AI4,AK4)*PRODUCT(AJ1,AL1)</f>
-        <v>-3.2269496588747594E-2</v>
+        <v>-8.1036596233661894E-3</v>
       </c>
       <c r="AJ6" s="6">
         <f>PRODUCT(AH4:AI4,AL4)*PRODUCT(AJ1,AK1)</f>
-        <v>-2.2816815769821523E-2</v>
+        <v>-1.526189229067299E-2</v>
       </c>
       <c r="AK6" s="6">
         <f>PRODUCT(AH4,AJ4,AK4)*PRODUCT(AI1,AL1)</f>
-        <v>-3.107199573877454E-2</v>
+        <v>-7.422792010859311E-3</v>
       </c>
       <c r="AL6" s="6">
         <f>PRODUCT(AH4,AJ4,AL4)*PRODUCT(AI1,AK1)</f>
-        <v>-2.1970097997113306E-2</v>
+        <v>-1.3979591620451702E-2</v>
       </c>
       <c r="AM6" s="6">
         <f>PRODUCT(AH4,AK4,AL4)*PRODUCT(AI1,AJ1)</f>
-        <v>-0.15882642852274206</v>
+        <v>-1.5085890237897519E-3</v>
       </c>
       <c r="AN6" s="6">
         <f>PRODUCT(AI4,AJ4,AK4)*PRODUCT(AH1,AL1)</f>
-        <v>9.6978376281949677E-2</v>
+        <v>0.21753395290554689</v>
       </c>
       <c r="AO6" s="6">
         <f>PRODUCT(AI4,AJ4,AL4)*PRODUCT(AH1,AK1)</f>
-        <v>6.8570569088247227E-2</v>
+        <v>0.40968894463877997</v>
       </c>
       <c r="AP6" s="6">
         <f>PRODUCT(AI4,AK4,AL4)*PRODUCT(AH1,AJ1)</f>
-        <v>0.49571097004160897</v>
+        <v>4.4211037191235245E-2</v>
       </c>
       <c r="AQ6" s="6">
         <f>PRODUCT(AJ4,AK4,AL4)*PRODUCT(AH1,AI1)</f>
-        <v>0.47731544576272111</v>
+        <v>4.0496436043371983E-2</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -1873,20 +1882,23 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <f>E6</f>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <f t="shared" ref="F7:F8" si="10">E7</f>
+        <v>20</v>
       </c>
       <c r="G7" s="26">
-        <f>-SUM(G8:G$16,-G$18,G$5:G6)</f>
-        <v>608</v>
+        <f>F6-1</f>
+        <v>364</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <f t="shared" ref="I5:I7" si="11">H7</f>
+        <v>20</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="9"/>
@@ -1894,53 +1906,53 @@
       </c>
       <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>3.8610038610038609E-2</v>
+        <v>2.7894002789400279E-2</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>3.8363171355498722E-2</v>
+        <v>2.9985007496251874E-2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="2"/>
-        <v>0.79685452162516379</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>4.6948356807511735E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="2"/>
-        <v>6.4516129032258063E-2</v>
+        <v>0.11560693641618497</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>x30 2</v>
+        <v>x20 2</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>x30 2</v>
+        <v>x20 2</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="5"/>
-        <v>x608 2</v>
+        <v>x364 2</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="6"/>
-        <v>x10 2</v>
+        <v>x20 2</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="7"/>
-        <v>x10 2</v>
+        <v>x20 2</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AA7" s="5">
         <f>(AA4+AA5)-B9</f>
-        <v>34.470709605627476</v>
+        <v>48.31039362192115</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>37</v>
@@ -1954,48 +1966,48 @@
       </c>
       <c r="AF7" s="23">
         <f>SUM(AH7:AQ7)</f>
-        <v>0.41287586078363547</v>
+        <v>0.33375290317563433</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6">
         <f>PRODUCT(AH1:AJ1)*PRODUCT(AK4,AL4)</f>
-        <v>0.26141008185787973</v>
+        <v>4.3701189974861858E-3</v>
       </c>
       <c r="AI7" s="6">
         <f>PRODUCT(AH1:AI1,AK1)*PRODUCT(AJ4,AL4)</f>
-        <v>3.6160261042630384E-2</v>
+        <v>4.0496436043371983E-2</v>
       </c>
       <c r="AJ7" s="6">
         <f>PRODUCT(AH1:AI1,AL1)*PRODUCT(AJ4,AK4)</f>
-        <v>5.1140940617434405E-2</v>
+        <v>2.1502532412409906E-2</v>
       </c>
       <c r="AK7" s="6">
         <f>PRODUCT(AH1,AJ1,AK1)*PRODUCT(AI4,AL4)</f>
-        <v>3.7553861366788545E-2</v>
+        <v>4.4211037191235245E-2</v>
       </c>
       <c r="AL7" s="6">
         <f>PRODUCT(AH1,AJ1,AL1)*PRODUCT(AI4,AK4)</f>
-        <v>5.3111889647315239E-2</v>
+        <v>2.3474887004195706E-2</v>
       </c>
       <c r="AM7" s="6">
         <f>PRODUCT(AH1,AK1,AL1)*PRODUCT(AI4,AJ4)</f>
-        <v>7.3468466880264888E-3</v>
+        <v>0.21753395290554689</v>
       </c>
       <c r="AN7" s="6">
         <f>PRODUCT(AI1,AJ1,AK1)*PRODUCT(AH4,AL4)</f>
-        <v>-1.203230519111682E-2</v>
+        <v>-1.5085890237897519E-3</v>
       </c>
       <c r="AO7" s="6">
         <f>PRODUCT(AI1,AJ1,AL1)*PRODUCT(AH4,AK4)</f>
-        <v>-1.7017117341722364E-2</v>
+        <v>-8.0102072059632843E-4</v>
       </c>
       <c r="AP7" s="6">
         <f>PRODUCT(AI1,AK1,AL1)*PRODUCT(AH4,AJ4)</f>
-        <v>-2.3539390711192825E-3</v>
+        <v>-7.422792010859311E-3</v>
       </c>
       <c r="AQ7" s="6">
         <f>PRODUCT(AJ1,AK1,AL1)*PRODUCT(AH4,AI4)</f>
-        <v>-2.4446588324808778E-3</v>
+        <v>-8.1036596233661894E-3</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -2009,68 +2021,68 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>17</v>
+      <c r="E8" s="27">
+        <v>250</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="26">
-        <f>-SUM(H9:H$16,-H$18,H$5:H7)</f>
-        <v>126</v>
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <f>H9</f>
+        <v>25</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L13" si="10">E8/E$17</f>
-        <v>2.1879021879021878E-2</v>
+        <f t="shared" ref="L8:L13" si="12">E8/E$17</f>
+        <v>0.34867503486750351</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8:M13" si="11">F8/F$17</f>
-        <v>2.1739130434782608E-2</v>
+        <f t="shared" ref="M8:M13" si="13">F8/F$17</f>
+        <v>1.7991004497751123E-2</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" ref="N8:N13" si="12">G8/G$17</f>
-        <v>3.9318479685452159E-3</v>
+        <f t="shared" ref="N8:N13" si="14">G8/G$17</f>
+        <v>1.948051948051948E-2</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O13" si="13">H8/H$17</f>
-        <v>0.59154929577464788</v>
+        <f t="shared" ref="O8:O13" si="15">H8/H$17</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P13" si="14">I8/I$17</f>
-        <v>0.22580645161290322</v>
+        <f t="shared" ref="P8:P13" si="16">I8/I$17</f>
+        <v>0.14450867052023122</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>x17 3</v>
+        <v>x250 3</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
-        <v>x17 3</v>
+        <v>x12 3</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="5"/>
-        <v>x3 3</v>
+        <v>x12 3</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="6"/>
-        <v>x126 3</v>
+        <v>x20 3</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="7"/>
-        <v>x35 3</v>
+        <v>x25 3</v>
       </c>
       <c r="AC8" t="b">
         <f>$AA$16&gt;=$AA$17</f>
@@ -2081,27 +2093,27 @@
       </c>
       <c r="AF8" s="23">
         <f>SUM(AH8:AL8)</f>
-        <v>5.4420783266876167E-2</v>
+        <v>5.086693486030229E-2</v>
       </c>
       <c r="AH8" s="24">
         <f>PRODUCT($AG1:AG1,AI1:$AM1)*AH4</f>
-        <v>-1.289175556191088E-3</v>
+        <v>-8.0102072059632843E-4</v>
       </c>
       <c r="AI8" s="24">
         <f>PRODUCT($AG1:AH1,AJ1:$AM1)*AI4</f>
-        <v>4.0236280035844873E-3</v>
+        <v>2.3474887004195706E-2</v>
       </c>
       <c r="AJ8" s="24">
         <f>PRODUCT($AG1:AI1,AK1:$AM1)*AJ4</f>
-        <v>3.8743136831389698E-3</v>
+        <v>2.1502532412409906E-2</v>
       </c>
       <c r="AK8" s="24">
         <f>PRODUCT($AG1:AJ1,AL1:$AM1)*AK4</f>
-        <v>2.8008223056201396E-2</v>
+        <v>2.3204171668068244E-3</v>
       </c>
       <c r="AL8" s="24">
         <f>PRODUCT($AG1:AK1,AM1:$AM1)*AL4</f>
-        <v>1.9803794080142399E-2</v>
+        <v>4.3701189974861858E-3</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -2110,74 +2122,75 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(L22:P33)</f>
-        <v>35.529290394372524</v>
+        <v>21.689606378078846</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="27">
+        <v>200</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <f>G8</f>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="I9" s="26">
-        <f>-SUM(I10:I$16,-I$18,I$5:I8)</f>
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <f>H10</f>
+        <v>24</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="10"/>
-        <v>1.2870012870012869E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.6736401673640166E-2</v>
       </c>
       <c r="M9" s="6">
-        <f t="shared" si="11"/>
-        <v>1.278772378516624E-2</v>
+        <f t="shared" si="13"/>
+        <v>0.29985007496251875</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" si="12"/>
-        <v>3.9318479685452159E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.948051948051948E-2</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="13"/>
-        <v>0.16431924882629109</v>
+        <f t="shared" si="15"/>
+        <v>0.1388888888888889</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="14"/>
-        <v>0.43870967741935485</v>
+        <f t="shared" si="16"/>
+        <v>0.13872832369942195</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>x10 4</v>
+        <v>x12 4</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>x10 4</v>
+        <v>x200 4</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="5"/>
-        <v>x3 4</v>
+        <v>x12 4</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="6"/>
-        <v>x35 4</v>
+        <v>x25 4</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="7"/>
-        <v>x68 4</v>
+        <v>x24 4</v>
       </c>
       <c r="Z9" s="12" t="s">
         <v>52</v>
@@ -2194,7 +2207,7 @@
       </c>
       <c r="AF9" s="23">
         <f>PRODUCT(AH1:AL1)</f>
-        <v>2.1218350800152569E-3</v>
+        <v>2.3204171668068244E-3</v>
       </c>
       <c r="AG9" s="5"/>
     </row>
@@ -2204,7 +2217,7 @@
       </c>
       <c r="B10" s="5">
         <f>100*(1-(1-SUMIF(T22:X33,"&lt;&gt;0",E22:I33)/100)^B6)</f>
-        <v>2.3388347812337895</v>
+        <v>1.2859064428135558</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2214,66 +2227,68 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
+        <f t="shared" ref="F10:I10" si="17">E10</f>
+        <v>12</v>
+      </c>
+      <c r="G10" s="27">
+        <v>150</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <f t="shared" si="17"/>
+        <v>24</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="10"/>
-        <v>6.4350064350064346E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.6736401673640166E-2</v>
       </c>
       <c r="M10" s="6">
-        <f t="shared" si="11"/>
-        <v>6.3938618925831201E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.7991004497751123E-2</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="12"/>
-        <v>6.55307994757536E-3</v>
+        <f t="shared" si="14"/>
+        <v>0.2435064935064935</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="13"/>
-        <v>2.3474178403755867E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.13333333333333333</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="14"/>
-        <v>3.2258064516129031E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.13872832369942195</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>x5 5</v>
+        <v>x12 5</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="4"/>
-        <v>x5 5</v>
+        <v>x12 5</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="5"/>
-        <v>x5 5</v>
+        <v>x150 5</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="6"/>
-        <v>x5 5</v>
+        <v>x24 5</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="7"/>
-        <v>x5 5</v>
+        <v>x24 5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>53</v>
@@ -2287,7 +2302,7 @@
       </c>
       <c r="AF10" s="22">
         <f>SUM(AF4:AF9)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2296,7 +2311,7 @@
       </c>
       <c r="B11" s="5">
         <f>1/$B$6*(1/100*SUMPRODUCT(F22:I33,U22:X33,U22:X33)-(1/100*SUMPRODUCT(F22:I33,U22:X33))^2)</f>
-        <v>7.095541396566631</v>
+        <v>7.576995615248606</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2306,73 +2321,76 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <f t="shared" ref="F10:I13" si="18">E11</f>
+        <v>12</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <f>F11</f>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <f t="shared" ref="H11:I11" si="19">H11</f>
+        <v>5</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="10"/>
-        <v>5.1480051480051478E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.6736401673640166E-2</v>
       </c>
       <c r="M11" s="6">
-        <f t="shared" si="11"/>
-        <v>5.1150895140664966E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.7991004497751123E-2</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="12"/>
-        <v>5.2424639580602884E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.948051948051948E-2</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="13"/>
-        <v>1.8779342723004695E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="14"/>
-        <v>2.5806451612903226E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.8901734104046242E-2</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>x4 6</v>
+        <v>x12 6</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="4"/>
-        <v>x4 6</v>
+        <v>x12 6</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="5"/>
-        <v>x4 6</v>
+        <v>x12 6</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="6"/>
-        <v>x4 6</v>
+        <v>x5 6</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="7"/>
-        <v>x4 6</v>
+        <v>x5 6</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AA11" s="5">
         <f>B10-(AA9-AA10)</f>
-        <v>-7.6611652187662109</v>
+        <v>-8.7140935571864446</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>37</v>
@@ -2388,7 +2406,7 @@
       </c>
       <c r="B12" s="5">
         <f>SQRT(B11)</f>
-        <v>2.663745745480719</v>
+        <v>2.752634304670456</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2398,73 +2416,76 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <f>F12</f>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <f t="shared" ref="H12:I12" si="20">H12</f>
+        <v>5</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="10"/>
-        <v>3.8610038610038611E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.3947001394700139E-2</v>
       </c>
       <c r="M12" s="6">
-        <f t="shared" si="11"/>
-        <v>3.8363171355498722E-3</v>
+        <f t="shared" si="13"/>
+        <v>1.4992503748125937E-2</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="12"/>
-        <v>3.9318479685452159E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.6233766233766232E-2</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="13"/>
-        <v>1.4084507042253521E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="14"/>
-        <v>1.935483870967742E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.8901734104046242E-2</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>x3 7</v>
+        <v>x10 7</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="4"/>
-        <v>x3 7</v>
+        <v>x10 7</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="5"/>
-        <v>x3 7</v>
+        <v>x10 7</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="6"/>
-        <v>x3 7</v>
+        <v>x5 7</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="7"/>
-        <v>x3 7</v>
+        <v>x5 7</v>
       </c>
       <c r="Z12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="AA12" s="5">
         <f>(AA9+AA10)-B10</f>
-        <v>37.661165218766207</v>
+        <v>38.714093557186445</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>37</v>
@@ -2478,11 +2499,11 @@
       </c>
       <c r="AF12" s="23">
         <f>SUM(AF13:AF15)</f>
-        <v>0.46941847913052687</v>
+        <v>0.38694025520274344</v>
       </c>
       <c r="AG12">
         <f>1/AF12</f>
-        <v>2.1302953429789016</v>
+        <v>2.5843783027331551</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -2494,66 +2515,69 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <f>F13</f>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <f t="shared" si="18"/>
+        <v>5</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="10"/>
-        <v>2.5740025740025739E-3</v>
+        <f t="shared" si="12"/>
+        <v>6.9735006973500697E-3</v>
       </c>
       <c r="M13" s="6">
-        <f t="shared" si="11"/>
-        <v>2.5575447570332483E-3</v>
+        <f t="shared" si="13"/>
+        <v>7.4962518740629685E-3</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="12"/>
-        <v>2.6212319790301442E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.87012987012987E-3</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="13"/>
-        <v>9.3896713615023476E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="14"/>
-        <v>1.2903225806451613E-2</v>
+        <f t="shared" si="16"/>
+        <v>2.8901734104046242E-2</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="4"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="5"/>
-        <v>x2 8</v>
+        <v>x3 8</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="6"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="7"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="AC13" t="b">
         <f>$E$9=INT($E$9)</f>
@@ -2564,15 +2588,15 @@
       </c>
       <c r="AF13" s="23">
         <f>AF7</f>
-        <v>0.41287586078363547</v>
+        <v>0.33375290317563433</v>
       </c>
       <c r="AG13">
         <f>1/AF13</f>
-        <v>2.4220355195917898</v>
+        <v>2.9962286184931233</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" ref="AH13:AH15" si="15">AF13/AF$12*100</f>
-        <v>87.954752345578385</v>
+        <f t="shared" ref="AH13:AH15" si="21">AF13/AF$12*100</f>
+        <v>86.254376144130902</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2581,74 +2605,74 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
       </c>
       <c r="K14" s="12">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" ref="L14:P17" si="16">E14/E$17</f>
-        <v>0</v>
+        <f t="shared" ref="L14:P17" si="22">E14/E$17</f>
+        <v>2.7894002789400278E-3</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>2.9985007496251873E-3</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>3.246753246753247E-3</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>1.1560693641618497E-2</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>x0 9</v>
+        <v>x2 9</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="4"/>
-        <v>x0 9</v>
+        <v>x2 9</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="5"/>
-        <v>x0 9</v>
+        <v>x2 9</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="6"/>
-        <v>x0 9</v>
+        <v>x2 9</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="7"/>
-        <v>x0 9</v>
+        <v>x2 9</v>
       </c>
       <c r="Z14" s="12" t="s">
         <v>56</v>
       </c>
       <c r="AA14" s="21">
         <f>MAX(N22:P33)-MIN(N22:P33)</f>
-        <v>15.186020502038712</v>
+        <v>5.9308497139790699</v>
       </c>
       <c r="AC14" t="b">
         <f>$E$10=INT($E$10)</f>
@@ -2659,15 +2683,15 @@
       </c>
       <c r="AF14" s="23">
         <f>AF8</f>
-        <v>5.4420783266876167E-2</v>
+        <v>5.086693486030229E-2</v>
       </c>
       <c r="AG14">
         <f>1/AF14</f>
-        <v>18.375332730807301</v>
+        <v>19.659136190264586</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="15"/>
-        <v>11.593234115469041</v>
+        <f t="shared" si="21"/>
+        <v>13.145940277950599</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2676,58 +2700,62 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <f>ROUND(E18*4/350,0)</f>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <f t="shared" ref="F15:I15" si="23">ROUND(F18*4/350,0)</f>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>4</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <f>ROUND(I18*4/230,0)</f>
+        <v>3</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="16"/>
-        <v>3.8610038610038611E-3</v>
+        <f t="shared" si="22"/>
+        <v>6.9735006973500697E-3</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="16"/>
-        <v>3.8363171355498722E-3</v>
+        <f t="shared" si="22"/>
+        <v>7.4962518740629685E-3</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="16"/>
-        <v>3.9318479685452159E-3</v>
+        <f t="shared" si="22"/>
+        <v>8.1168831168831161E-3</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="16"/>
-        <v>1.8779342723004695E-2</v>
+        <f t="shared" si="22"/>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="16"/>
-        <v>2.5806451612903226E-2</v>
+        <f t="shared" si="22"/>
+        <v>1.7341040462427744E-2</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>x3 10</v>
+        <v>x5 10</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
-        <v>x3 10</v>
+        <v>x5 10</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="5"/>
-        <v>x3 10</v>
+        <v>x5 10</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="6"/>
@@ -2735,7 +2763,7 @@
       </c>
       <c r="X15" t="str">
         <f t="shared" si="7"/>
-        <v>x4 10</v>
+        <v>x3 10</v>
       </c>
       <c r="AC15" t="b">
         <f>$E$11=INT($E$11)</f>
@@ -2746,21 +2774,21 @@
       </c>
       <c r="AF15" s="23">
         <f>AF9</f>
-        <v>2.1218350800152569E-3</v>
+        <v>2.3204171668068244E-3</v>
       </c>
       <c r="AG15">
         <f>1/AF15</f>
-        <v>471.29016266090275</v>
+        <v>430.95699096905122</v>
       </c>
       <c r="AH15" s="5">
-        <f t="shared" si="15"/>
-        <v>0.45201353895257662</v>
+        <f t="shared" si="21"/>
+        <v>0.59968357791850968</v>
       </c>
     </row>
     <row r="16" spans="1:43">
       <c r="A16">
         <f>1-(1-4*E16/E17)^5</f>
-        <v>0.2927304858294153</v>
+        <v>0.10670621694510263</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="12">
@@ -2768,73 +2796,73 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="16"/>
-        <v>1.6731016731016731E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.5788005578800556E-3</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="16"/>
-        <v>1.5345268542199489E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.9970014992503746E-3</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="16"/>
-        <v>1.5727391874180863E-2</v>
+        <f t="shared" si="22"/>
+        <v>9.74025974025974E-3</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="16"/>
-        <v>4.2253521126760563E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="16"/>
-        <v>5.8064516129032261E-2</v>
+        <f t="shared" si="22"/>
+        <v>5.7803468208092484E-2</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" ref="T16" si="17">"x"&amp;E16&amp;" "&amp;$D16</f>
-        <v>x13 11</v>
+        <f t="shared" ref="T16" si="24">"x"&amp;E16&amp;" "&amp;$D16</f>
+        <v>x4 11</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" ref="U16" si="18">"x"&amp;F16&amp;" "&amp;$D16</f>
-        <v>x12 11</v>
+        <f t="shared" ref="U16" si="25">"x"&amp;F16&amp;" "&amp;$D16</f>
+        <v>x4 11</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" ref="V16" si="19">"x"&amp;G16&amp;" "&amp;$D16</f>
-        <v>x12 11</v>
+        <f t="shared" ref="V16" si="26">"x"&amp;G16&amp;" "&amp;$D16</f>
+        <v>x6 11</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" ref="W16" si="20">"x"&amp;H16&amp;" "&amp;$D16</f>
-        <v>x9 11</v>
+        <f t="shared" ref="W16" si="27">"x"&amp;H16&amp;" "&amp;$D16</f>
+        <v>x10 11</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" ref="X16" si="21">"x"&amp;I16&amp;" "&amp;$D16</f>
-        <v>x9 11</v>
+        <f t="shared" ref="X16" si="28">"x"&amp;I16&amp;" "&amp;$D16</f>
+        <v>x10 11</v>
       </c>
       <c r="Z16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="AA16" s="21">
         <f>MAX(E5:I16)</f>
-        <v>660</v>
+        <v>365</v>
       </c>
       <c r="AC16" t="b">
         <f>$E$12=INT($E$12)</f>
@@ -2844,47 +2872,47 @@
     <row r="17" spans="1:31">
       <c r="A17">
         <f>1/A16^3</f>
-        <v>39.865401229082131</v>
+        <v>823.05873917924941</v>
       </c>
       <c r="B17" s="5"/>
       <c r="E17" s="1">
         <f>SUM(E5:E16)</f>
-        <v>777</v>
+        <v>717</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(F5:F16)</f>
-        <v>782</v>
+        <v>667</v>
       </c>
       <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>763</v>
+        <v>616</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="I17" s="1">
         <f>SUM($I$5:I16)</f>
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Z17" s="12" t="s">
@@ -2892,7 +2920,7 @@
       </c>
       <c r="AA17" s="21">
         <f>MIN(E5:I16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC17" t="b">
         <f>$E$13=INT($E$13)</f>
@@ -2905,19 +2933,22 @@
     <row r="18" spans="1:31">
       <c r="B18" s="5"/>
       <c r="E18">
-        <v>777</v>
+        <v>400</v>
       </c>
       <c r="F18">
-        <v>782</v>
+        <f t="shared" ref="F18:I18" si="29">E18</f>
+        <v>400</v>
       </c>
       <c r="G18">
-        <v>763</v>
+        <f t="shared" si="29"/>
+        <v>400</v>
       </c>
       <c r="H18">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="I18">
-        <v>155</v>
+        <f>H18</f>
+        <v>200</v>
       </c>
       <c r="AC18" t="b">
         <f>$E$14=INT($E$14)</f>
@@ -2930,7 +2961,7 @@
     <row r="19" spans="1:31">
       <c r="AA19">
         <f>_xlfn.STDEV.S(N22:P33)</f>
-        <v>3.5209675902763093</v>
+        <v>1.4216902316312305</v>
       </c>
       <c r="AC19" t="b">
         <f>$E$15=INT($E$15)</f>
@@ -2950,7 +2981,7 @@
       </c>
       <c r="AA20" s="21">
         <f>SUMSQ(N22:P33)-SUM(N22:P33)*SUM(N22:P33)</f>
-        <v>-793.36329347305127</v>
+        <v>-386.62916513106154</v>
       </c>
       <c r="AC20" t="b">
         <f>$E$16=INT($E$16)</f>
@@ -3005,7 +3036,7 @@
       </c>
       <c r="AA21">
         <f>_xlfn.VAR.S(N22:P33)</f>
-        <v>12.397212771776159</v>
+        <v>2.0212031147156622</v>
       </c>
       <c r="AC21" t="b">
         <f>$F$5=INT($F$5)</f>
@@ -3019,45 +3050,45 @@
       </c>
       <c r="E22" s="5">
         <f>L5*(1-M5)*100</f>
-        <v>75.166141662305336</v>
+        <v>49.380121654653848</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:I24" si="22">E22/(1-M5)*M5*(1-N5)</f>
-        <v>8.6228175980231541</v>
+        <f t="shared" ref="F22:I24" si="30">E22/(1-M5)*M5*(1-N5)</f>
+        <v>1.4768739088587535</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="22"/>
-        <v>1.1260570037809363</v>
+        <f t="shared" si="30"/>
+        <v>4.1299605952425995E-2</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="22"/>
-        <v>2.6195494815003172E-2</v>
+        <f t="shared" si="30"/>
+        <v>7.3050170066140761E-3</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="22"/>
-        <v>8.7318316050010575E-4</v>
+        <f t="shared" si="30"/>
+        <v>9.5490418387112104E-4</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:L33" si="23">E22*T22</f>
+        <f t="shared" ref="L22:L33" si="31">E22*T22</f>
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" ref="M22:M33" si="24">F22*U22</f>
+        <f t="shared" ref="M22:M33" si="32">F22*U22</f>
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" ref="N22:N33" si="25">G22*V22</f>
+        <f t="shared" ref="N22:N33" si="33">G22*V22</f>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" ref="O22:O33" si="26">H22*W22</f>
+        <f t="shared" ref="O22:O33" si="34">H22*W22</f>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" ref="P22:P33" si="27">I22*X22</f>
+        <f t="shared" ref="P22:P33" si="35">I22*X22</f>
         <v>0</v>
       </c>
       <c r="S22" s="12">
@@ -3080,7 +3111,7 @@
       </c>
       <c r="AA22" s="21">
         <f>SUM(N22:P33)</f>
-        <v>35.529290394372524</v>
+        <v>21.689606378078846</v>
       </c>
       <c r="AC22" t="b">
         <f>$F$6=INT($F$6)</f>
@@ -3090,55 +3121,55 @@
     <row r="23" spans="1:31">
       <c r="B23" s="2"/>
       <c r="D23" s="12">
-        <f t="shared" ref="D23:D33" si="28">D22+1</f>
+        <f t="shared" ref="D23:D33" si="36">D22+1</f>
         <v>1</v>
       </c>
       <c r="E23" s="5">
         <f>L6*(1-M6)*100</f>
-        <v>0.86897273598040858</v>
+        <v>1.2629668429383634</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="22"/>
-        <v>2.8743890100159772</v>
+        <f t="shared" si="30"/>
+        <v>1.4768739088587535</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="22"/>
-        <v>0.11211901101651393</v>
+        <f t="shared" si="30"/>
+        <v>4.1299605952425995E-2</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="22"/>
-        <v>5.16677470122184E-3</v>
+        <f t="shared" si="30"/>
+        <v>6.8275649146785156E-3</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="22"/>
-        <v>3.5632928973943721E-4</v>
+        <f t="shared" si="30"/>
+        <v>1.4323562758066816E-3</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" ref="K23:K33" si="29">K22+1</f>
+        <f t="shared" ref="K23:K33" si="37">K22+1</f>
         <v>1</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="25"/>
-        <v>15.136066487229382</v>
+        <f t="shared" si="33"/>
+        <v>5.5754468035775098</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="26"/>
-        <v>2.0925437539948453</v>
+        <f t="shared" si="34"/>
+        <v>2.7651637904447988</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="27"/>
-        <v>0.48104454114824025</v>
+        <f t="shared" si="35"/>
+        <v>1.9336809723390203</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" ref="S23:S33" si="30">S22+1</f>
+        <f t="shared" ref="S23:S33" si="38">S22+1</f>
         <v>1</v>
       </c>
       <c r="T23">
@@ -3158,7 +3189,7 @@
       </c>
       <c r="AA23">
         <f>SUMSQ(N22:P33)</f>
-        <v>468.96718245460033</v>
+        <v>83.809859704937026</v>
       </c>
       <c r="AC23" t="b">
         <f>$F$7=INT($F$7)</f>
@@ -3169,55 +3200,55 @@
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="E24" s="5">
         <f>L7*(1-M7)*100</f>
-        <v>3.7128835082799272</v>
+        <v>2.7057600906659642</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="22"/>
-        <v>3.0089979911152896E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.4216440657571554E-2</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="22"/>
-        <v>0.11248904075584232</v>
+        <f t="shared" si="30"/>
+        <v>4.3932220103548664E-2</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="22"/>
-        <v>5.1838267629420428E-3</v>
+        <f t="shared" si="30"/>
+        <v>4.856668840926984E-3</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="22"/>
-        <v>3.5750529399600293E-4</v>
+        <f t="shared" si="30"/>
+        <v>6.3485867201659913E-4</v>
       </c>
       <c r="K24" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M24" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N24" s="16">
-        <f t="shared" si="25"/>
-        <v>15.186020502038712</v>
+        <f t="shared" si="33"/>
+        <v>5.9308497139790699</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="26"/>
-        <v>2.0994498389915273</v>
+        <f t="shared" si="34"/>
+        <v>1.9669508805754286</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="27"/>
-        <v>0.48263214689460393</v>
+        <f t="shared" si="35"/>
+        <v>0.8570592072224088</v>
       </c>
       <c r="S24" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="T24">
@@ -3248,56 +3279,56 @@
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:E30" si="31">L8*(1-M8)*100</f>
-        <v>2.1403390968608358</v>
+        <f t="shared" ref="E25:E30" si="39">L8*(1-M8)*100</f>
+        <v>34.240202074694871</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ref="F25:I25" si="32">E25/(1-M8)*M8*(1-N8)</f>
-        <v>4.737608019846324E-2</v>
+        <f t="shared" ref="F25:I25" si="40">E25/(1-M8)*M8*(1-N8)</f>
+        <v>0.61508125467777441</v>
       </c>
       <c r="G25" s="5">
+        <f t="shared" si="40"/>
+        <v>1.086236211351478E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="40"/>
+        <v>1.1615820757226788E-3</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="40"/>
+        <v>1.9621318846666872E-4</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
         <f t="shared" si="32"/>
-        <v>7.6384710475654213E-5</v>
-      </c>
-      <c r="H25" s="9">
-        <f t="shared" si="32"/>
-        <v>8.5646037997174024E-5</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="32"/>
-        <v>2.4980094415842421E-5</v>
-      </c>
-      <c r="K25" s="12">
-        <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="16">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="25"/>
-        <v>6.8746239428088794E-3</v>
+        <f t="shared" si="33"/>
+        <v>0.97761259021633018</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="26"/>
-        <v>1.9270358549364156E-2</v>
+        <f t="shared" si="34"/>
+        <v>0.26135596703760272</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="27"/>
-        <v>1.5737459481980725E-2</v>
+        <f t="shared" si="35"/>
+        <v>0.1236143087340013</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="S25" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="T25">
@@ -3317,7 +3348,7 @@
       </c>
       <c r="AA25" s="21">
         <f>AA23/AA24-(AA22/AA24)^2</f>
-        <v>12.052845750337932</v>
+        <v>1.9650585837513384</v>
       </c>
       <c r="AC25" t="b">
         <f>$F$9=INT($F$9)</f>
@@ -3327,56 +3358,56 @@
     <row r="26" spans="1:31">
       <c r="B26" s="5"/>
       <c r="D26" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="E26" s="5">
+        <f t="shared" si="39"/>
+        <v>1.1717990377196337</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:I26" si="41">E26/(1-M9)*M9*(1-N9)</f>
+        <v>0.49206500374221962</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="41"/>
+        <v>8.4183306379739548E-3</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="41"/>
+        <v>1.1694306032613458E-3</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="41"/>
+        <v>1.8836466092800197E-4</v>
+      </c>
+      <c r="K26" s="12">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="16">
         <f t="shared" si="31"/>
-        <v>1.2705434700319609</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" ref="F26:I26" si="33">E26/(1-M9)*M9*(1-N9)</f>
-        <v>1.6393107335108386E-2</v>
-      </c>
-      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
         <f t="shared" si="33"/>
-        <v>5.4076595731083992E-5</v>
-      </c>
-      <c r="H26" s="9">
-        <f t="shared" si="33"/>
-        <v>5.9682216020714304E-6</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="33"/>
-        <v>4.6648168843776704E-6</v>
-      </c>
-      <c r="K26" s="12">
-        <f t="shared" si="29"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" si="25"/>
-        <v>3.8935148926380475E-3</v>
+        <v>0.60611980593412473</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="26"/>
-        <v>8.0570991627964314E-4</v>
+        <f t="shared" si="34"/>
+        <v>0.15787313144028167</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="27"/>
-        <v>1.6793340783759613E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.7811277934080705E-2</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="S26" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="T26">
@@ -3403,56 +3434,56 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="E27" s="5">
+        <f t="shared" si="39"/>
+        <v>1.6435296995853537</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" ref="F27:I27" si="42">E27/(1-M10)*M10*(1-N10)</f>
+        <v>2.2778373352040492E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="42"/>
+        <v>6.3544818364061452E-3</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="42"/>
+        <v>8.4199003434816855E-4</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="42"/>
+        <v>1.3562255586816135E-4</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="31"/>
-        <v>0.63938618925831192</v>
-      </c>
-      <c r="F27" s="5">
-        <f t="shared" ref="F27:I27" si="34">E27/(1-M10)*M10*(1-N10)</f>
-        <v>4.0874918947408408E-3</v>
-      </c>
-      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="33"/>
+        <v>0.34314201916593184</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="34"/>
-        <v>2.6329428633112058E-5</v>
-      </c>
-      <c r="H27" s="9">
-        <f t="shared" si="34"/>
-        <v>6.1250221696135376E-7</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="34"/>
-        <v>2.0416740565378455E-8</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="29"/>
-        <v>5</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" si="25"/>
-        <v>1.4217891461880512E-3</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="26"/>
-        <v>5.5125199526521836E-5</v>
+        <v>7.5779103091335176E-2</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="27"/>
-        <v>3.6750133017681219E-6</v>
+        <f t="shared" si="35"/>
+        <v>2.4412060056269044E-2</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="S27" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="T27">
@@ -3478,56 +3509,56 @@
     <row r="28" spans="1:31">
       <c r="C28" s="5"/>
       <c r="D28" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="E28" s="5">
+        <f t="shared" si="39"/>
+        <v>1.6435296995853537</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:I28" si="43">E28/(1-M11)*M11*(1-N11)</f>
+        <v>2.9523900224533169E-2</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="43"/>
+        <v>5.7027401095952588E-4</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="43"/>
+        <v>1.5822631517952161E-5</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="43"/>
+        <v>4.709116523200048E-7</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="L28" s="16">
         <f t="shared" si="31"/>
-        <v>0.51216726408542268</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28:I28" si="35">E28/(1-M11)*M11*(1-N11)</f>
-        <v>2.6194459931257407E-3</v>
-      </c>
-      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="33"/>
+        <v>1.5397398295907199E-2</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="34"/>
+        <v>7.1201841830784726E-4</v>
+      </c>
+      <c r="P28" s="8">
         <f t="shared" si="35"/>
-        <v>1.3545478361404114E-5</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="35"/>
-        <v>2.5255344745448636E-7</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="35"/>
-        <v>6.6901575484632147E-9</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="29"/>
-        <v>6</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="16">
-        <f t="shared" si="25"/>
-        <v>3.6572791575791106E-4</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="26"/>
-        <v>1.1364905135451887E-5</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="27"/>
-        <v>6.0211417936168932E-7</v>
+        <v>4.2382048708800429E-5</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="S28" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="T28">
@@ -3552,56 +3583,56 @@
     </row>
     <row r="29" spans="1:31">
       <c r="D29" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="E29" s="5">
+        <f t="shared" si="39"/>
+        <v>1.3737900924014981</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" ref="F29:I29" si="44">E29/(1-M12)*M12*(1-N12)</f>
+        <v>2.0570598252468614E-2</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="44"/>
+        <v>3.300196822682441E-4</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="44"/>
+        <v>9.1566154617778708E-6</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="44"/>
+        <v>2.7251831731481757E-7</v>
+      </c>
+      <c r="K29" s="12">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="L29" s="16">
         <f t="shared" si="31"/>
-        <v>0.38461918257314676</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" ref="F29:I29" si="36">E29/(1-M12)*M12*(1-N12)</f>
-        <v>1.475379660159755E-3</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="36"/>
-        <v>5.7418407826825143E-6</v>
-      </c>
-      <c r="H29" s="9">
-        <f t="shared" si="36"/>
-        <v>8.0438691149100656E-8</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="36"/>
-        <v>1.587605746363829E-9</v>
-      </c>
-      <c r="K29" s="12">
-        <f t="shared" si="29"/>
-        <v>7</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="25"/>
-        <v>1.0335313408828526E-4</v>
+        <f t="shared" si="33"/>
+        <v>5.9403542808283936E-3</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="26"/>
-        <v>2.1718446610257178E-6</v>
+        <f t="shared" si="34"/>
+        <v>2.4722861746800251E-4</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="27"/>
-        <v>8.5730710303646762E-8</v>
+        <f t="shared" si="35"/>
+        <v>1.4715989135000149E-5</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="S29" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="T29">
@@ -3626,55 +3657,55 @@
     </row>
     <row r="30" spans="1:31">
       <c r="D30" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="E30" s="5">
+        <f t="shared" si="39"/>
+        <v>0.69212255796787792</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" ref="F30:I30" si="45">E30/(1-M13)*M13*(1-N13)</f>
+        <v>5.2020531059254367E-3</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="45"/>
+        <v>2.475147617011831E-5</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="45"/>
+        <v>6.8674615963334027E-7</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="45"/>
+        <v>2.0438873798611321E-8</v>
+      </c>
+      <c r="K30" s="12">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="L30" s="16">
         <f t="shared" si="31"/>
-        <v>0.25674194472148432</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" ref="F30:I30" si="37">E30/(1-M13)*M13*(1-N13)</f>
-        <v>6.5658708852723582E-4</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="37"/>
-        <v>1.7093875204881984E-6</v>
-      </c>
-      <c r="H30" s="9">
-        <f t="shared" si="37"/>
-        <v>1.5993657889294869E-8</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="37"/>
-        <v>2.0906742338947541E-10</v>
-      </c>
-      <c r="K30" s="12">
-        <f t="shared" si="29"/>
-        <v>8</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M30" s="16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N30" s="16">
-        <f t="shared" si="25"/>
-        <v>8.5469376024409917E-6</v>
+        <f t="shared" si="33"/>
+        <v>1.2375738085059154E-4</v>
       </c>
       <c r="O30" s="8">
-        <f t="shared" si="26"/>
-        <v>1.4394292100365382E-7</v>
+        <f t="shared" si="34"/>
+        <v>6.1807154367000622E-6</v>
       </c>
       <c r="P30" s="8">
-        <f t="shared" si="27"/>
-        <v>5.6448204315158362E-9</v>
+        <f t="shared" si="35"/>
+        <v>5.5184959256250564E-7</v>
       </c>
       <c r="S30" s="12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="T30">
@@ -3699,55 +3730,55 @@
     </row>
     <row r="31" spans="1:31">
       <c r="D31" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="E31" s="5">
         <f>L14*(1-M14)*100</f>
-        <v>0</v>
+        <v>0.27810362601126215</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ref="F31:I33" si="38">E31/(1-M14)*M14*(1-N14)</f>
-        <v>0</v>
+        <f t="shared" ref="F31:I33" si="46">E31/(1-M14)*M14*(1-N14)</f>
+        <v>8.3368629221225931E-4</v>
       </c>
       <c r="G31" s="5">
+        <f t="shared" si="46"/>
+        <v>2.6854173002855986E-6</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="46"/>
+        <v>2.9824404646933648E-8</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="46"/>
+        <v>3.488234461629666E-10</v>
+      </c>
+      <c r="K31" s="12">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="L31" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="33"/>
+        <v>1.3427086501427993E-5</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="34"/>
+        <v>2.6841964182240286E-7</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="35"/>
+        <v>6.2788220309333991E-9</v>
+      </c>
+      <c r="S31" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="12">
-        <f t="shared" si="29"/>
-        <v>9</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="12">
-        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="T31">
@@ -3772,55 +3803,55 @@
     </row>
     <row r="32" spans="1:31">
       <c r="D32" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="E32" s="5">
         <f>L15*(1-M15)*100</f>
-        <v>0.38461918257314676</v>
+        <v>0.69212255796787792</v>
       </c>
       <c r="F32" s="5">
+        <f t="shared" si="46"/>
+        <v>5.1850806651230702E-3</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="46"/>
+        <v>4.1488188628007826E-5</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="46"/>
+        <v>9.2656227887037973E-7</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="46"/>
+        <v>1.6351099038889053E-8</v>
+      </c>
+      <c r="K32" s="12">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="L32" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="33"/>
+        <v>1.2446456588402347E-4</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="34"/>
+        <v>6.4859359520926578E-6</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="35"/>
+        <v>2.9431978270000296E-7</v>
+      </c>
+      <c r="S32" s="12">
         <f t="shared" si="38"/>
-        <v>1.475379660159755E-3</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="38"/>
-        <v>5.7144986837173595E-6</v>
-      </c>
-      <c r="H32" s="9">
-        <f t="shared" si="38"/>
-        <v>1.0654598564486141E-7</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" si="38"/>
-        <v>2.8224102157579181E-9</v>
-      </c>
-      <c r="K32" s="12">
-        <f t="shared" si="29"/>
-        <v>10</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
-        <f t="shared" si="25"/>
-        <v>1.7143496051152078E-5</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="26"/>
-        <v>7.4582189951402983E-7</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="27"/>
-        <v>5.0803383883642527E-8</v>
-      </c>
-      <c r="S32" s="12">
-        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="T32">
@@ -3845,55 +3876,55 @@
     </row>
     <row r="33" spans="2:29">
       <c r="D33" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="E33" s="5">
         <f>L16*(1-M16)*100</f>
-        <v>1.6474274786295244</v>
+        <v>0.55453444825704301</v>
       </c>
       <c r="F33" s="5">
+        <f t="shared" si="46"/>
+        <v>3.3130204446220079E-3</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="46"/>
+        <v>3.0776692654958541E-5</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="46"/>
+        <v>1.7057466517369066E-6</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="46"/>
+        <v>1.0464703384888997E-7</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
+      <c r="L33" s="16">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="33"/>
+        <v>9.2330077964875623E-5</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="34"/>
+        <v>1.1940226562158346E-5</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="35"/>
+        <v>9.418233046400097E-7</v>
+      </c>
+      <c r="S33" s="12">
         <f t="shared" si="38"/>
-        <v>2.5270406354631032E-2</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="38"/>
-        <v>3.8672664776314992E-4</v>
-      </c>
-      <c r="H33" s="9">
-        <f t="shared" si="38"/>
-        <v>1.6070803768525584E-5</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" si="38"/>
-        <v>9.906659857310291E-7</v>
-      </c>
-      <c r="K33" s="12">
-        <f t="shared" si="29"/>
-        <v>11</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="16">
-        <f t="shared" si="25"/>
-        <v>1.1601799432894497E-3</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="26"/>
-        <v>1.1249562637967908E-4</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="27"/>
-        <v>8.9159938715792623E-6</v>
-      </c>
-      <c r="S33" s="12">
-        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="T33">
@@ -4787,23 +4818,23 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:I59" si="39">E15-TRUNC(E15)</f>
+        <f t="shared" ref="E59:I59" si="47">E15-TRUNC(E15)</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AC59" t="b">
@@ -4822,8 +4853,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:X16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -4854,30 +4885,30 @@
       </c>
       <c r="AC1">
         <f>MIN($AA$14)</f>
-        <v>86.087894641279703</v>
+        <v>7.8361878140470598</v>
       </c>
       <c r="AG1">
         <v>1</v>
       </c>
       <c r="AH1" s="6">
         <f t="shared" ref="AH1:AL1" si="0">3*L5</f>
-        <v>1.4563106796116505</v>
+        <v>0.67264573991031396</v>
       </c>
       <c r="AI1" s="6">
         <f t="shared" si="0"/>
-        <v>1.0150375939849623</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="AJ1" s="6">
         <f t="shared" si="0"/>
-        <v>1.1020408163265307</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="AK1" s="6">
         <f t="shared" si="0"/>
-        <v>7.3170731707317083E-2</v>
+        <v>0.5325443786982248</v>
       </c>
       <c r="AL1" s="6">
         <f t="shared" si="0"/>
-        <v>0.10204081632653061</v>
+        <v>0.36809815950920244</v>
       </c>
       <c r="AM1">
         <v>1</v>
@@ -4915,7 +4946,7 @@
       </c>
       <c r="AC3" t="b">
         <f>$AA$11&gt;=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="12" t="s">
         <v>61</v>
@@ -5002,30 +5033,30 @@
       </c>
       <c r="AF4" s="22">
         <f>PRODUCT(AH4:AL4)</f>
-        <v>-5.8273251136394943E-4</v>
+        <v>6.773482186402971E-2</v>
       </c>
       <c r="AG4" s="5">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>1-AH1</f>
-        <v>-0.4563106796116505</v>
+        <v>0.32735426008968604</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AL4" si="1">1-AI1</f>
-        <v>-1.5037593984962294E-2</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>-0.10204081632653073</v>
+        <v>0.82558139534883723</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="1"/>
-        <v>0.92682926829268286</v>
+        <v>0.4674556213017752</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" si="1"/>
-        <v>0.89795918367346939</v>
+        <v>0.63190184049079756</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
@@ -5046,42 +5077,42 @@
       </c>
       <c r="F5">
         <f>Base!F5</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <f>Base!G5</f>
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <f>Base!H5</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5">
         <f>Base!I5</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:P16" si="2">E5/E$17</f>
-        <v>0.4854368932038835</v>
+        <v>0.22421524663677131</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>0.33834586466165412</v>
+        <v>5.0505050505050504E-2</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>0.36734693877551022</v>
+        <v>5.8139534883720929E-2</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
+        <v>0.17751479289940827</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="2"/>
-        <v>3.4013605442176874E-2</v>
+        <v>0.12269938650306748</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
@@ -5092,19 +5123,19 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" si="3"/>
-        <v>x90 0</v>
+        <v>x20 0</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="3"/>
-        <v>x90 0</v>
+        <v>x20 0</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>x5 0</v>
+        <v>x30 0</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="3"/>
-        <v>x5 0</v>
+        <v>x20 0</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>48</v>
@@ -5121,28 +5152,28 @@
       </c>
       <c r="AF5" s="22">
         <f>SUM(AH5:AL5)</f>
-        <v>4.7375515448703873E-2</v>
+        <v>0.28221024889539736</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6">
         <f>PRODUCT($AG4:AG4,AI4:$AM4)*AH1</f>
-        <v>1.859784610736009E-3</v>
+        <v>0.13918114081649946</v>
       </c>
       <c r="AI5" s="6">
         <f>PRODUCT($AG4:AH4,AJ4:$AM4)*AI1</f>
-        <v>3.9334444517066879E-2</v>
+        <v>1.2095503904291023E-2</v>
       </c>
       <c r="AJ5" s="6">
         <f>PRODUCT($AG4:AI4,AK4:$AM4)*AJ1</f>
-        <v>6.2935111227306485E-3</v>
+        <v>1.4310173633245713E-2</v>
       </c>
       <c r="AK5" s="6">
         <f>PRODUCT($AG4:AJ4,AL4:$AM4)*AK1</f>
-        <v>-4.6005198265574969E-5</v>
+        <v>7.7166252756489528E-2</v>
       </c>
       <c r="AL5" s="6">
         <f>PRODUCT($AG4:AK4,AM4:$AM4)*AL1</f>
-        <v>-6.6219603564085169E-5</v>
+        <v>3.9457177784871678E-2</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -5158,22 +5189,22 @@
       </c>
       <c r="E6">
         <f>Base!E6</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
         <f>Base!G6</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <f>Base!H6</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I6">
         <f>Base!I6</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ref="K6:K16" si="5">K5+1</f>
@@ -5181,30 +5212,30 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>0.14563106796116504</v>
+        <v>4.4843049327354258E-2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>0.37593984962406013</v>
+        <v>0.25252525252525254</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>0.12244897959183673</v>
+        <v>5.8139534883720929E-2</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>4.878048780487805E-2</v>
+        <v>0.17751479289940827</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="2"/>
-        <v>6.8027210884353748E-2</v>
+        <v>0.18404907975460122</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>x30 1</v>
+        <v>x20 1</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="3"/>
@@ -5212,77 +5243,77 @@
       </c>
       <c r="V6" t="str">
         <f t="shared" si="3"/>
-        <v>x30 1</v>
+        <v>x20 1</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>x10 1</v>
+        <v>x30 1</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="3"/>
-        <v>x10 1</v>
+        <v>x30 1</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="5">
         <f>B9-(AA4-AA5)</f>
-        <v>174.66445843642995</v>
+        <v>9.0517548906732515</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="AC6" t="b">
         <f>$AA$7&gt;=0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="23">
         <f>SUM(AH6:AQ6)</f>
-        <v>-0.56129299742397065</v>
+        <v>0.38686639643407339</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6">
         <f>PRODUCT(AH4:AJ4)*PRODUCT(AK1,AL1)</f>
-        <v>-5.2278634392698829E-6</v>
+        <v>4.4951215197955058E-2</v>
       </c>
       <c r="AI6" s="6">
         <f>PRODUCT(AH4:AI4,AK4)*PRODUCT(AJ1,AL1)</f>
-        <v>7.1517171849211922E-4</v>
+        <v>8.3360234756771137E-3</v>
       </c>
       <c r="AJ6" s="6">
         <f>PRODUCT(AH4:AI4,AL4)*PRODUCT(AJ1,AK1)</f>
-        <v>4.968561412682091E-4</v>
+        <v>1.6302729455596375E-2</v>
       </c>
       <c r="AK6" s="6">
         <f>PRODUCT(AH4,AJ4,AK4)*PRODUCT(AI1,AL1)</f>
-        <v>4.4698232405757828E-3</v>
+        <v>7.0459246044413714E-3</v>
       </c>
       <c r="AL6" s="6">
         <f>PRODUCT(AH4,AJ4,AL4)*PRODUCT(AI1,AK1)</f>
-        <v>3.105350882926333E-3</v>
+        <v>1.3779687992230274E-2</v>
       </c>
       <c r="AM6" s="6">
         <f>PRODUCT(AH4,AK4,AL4)*PRODUCT(AI1,AJ1)</f>
-        <v>-0.42481200078432185</v>
+        <v>2.5553881487938774E-3</v>
       </c>
       <c r="AN6" s="6">
         <f>PRODUCT(AI4,AJ4,AK4)*PRODUCT(AH1,AL1)</f>
-        <v>2.1133916031091009E-4</v>
+        <v>8.1076392708640449E-2</v>
       </c>
       <c r="AO6" s="6">
         <f>PRODUCT(AI4,AJ4,AL4)*PRODUCT(AH1,AK1)</f>
-        <v>1.4682510084757969E-4</v>
+        <v>0.1585607933352525</v>
       </c>
       <c r="AP6" s="6">
         <f>PRODUCT(AI4,AK4,AL4)*PRODUCT(AH1,AJ1)</f>
-        <v>-2.0085673795948878E-2</v>
+        <v>2.9404466369682979E-2</v>
       </c>
       <c r="AQ6" s="6">
         <f>PRODUCT(AJ4,AK4,AL4)*PRODUCT(AH1,AI1)</f>
-        <v>-0.12553546122468154</v>
+        <v>2.4853775145803472E-2</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -5299,22 +5330,22 @@
       </c>
       <c r="E7">
         <f>Base!E7</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <f>Base!F7</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
         <f>Base!H7</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <f>Base!I7</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="5"/>
@@ -5322,34 +5353,34 @@
       </c>
       <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>0.14563106796116504</v>
+        <v>4.4843049327354258E-2</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>0.11278195488721804</v>
+        <v>5.0505050505050504E-2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="2"/>
-        <v>0.40816326530612246</v>
+        <v>0.29069767441860467</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>4.878048780487805E-2</v>
+        <v>0.11834319526627218</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="2"/>
-        <v>6.8027210884353748E-2</v>
+        <v>0.12269938650306748</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>x30 2</v>
+        <v>x20 2</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="3"/>
-        <v>x30 2</v>
+        <v>x20 2</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="3"/>
@@ -5357,18 +5388,18 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>x10 2</v>
+        <v>x20 2</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="3"/>
-        <v>x10 2</v>
+        <v>x20 2</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AA7" s="5">
         <f>(AA4+AA5)-B9</f>
-        <v>-134.66445843642995</v>
+        <v>30.948245109326749</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>37</v>
@@ -5382,48 +5413,48 @@
       </c>
       <c r="AF7" s="23">
         <f>SUM(AH7:AQ7)</f>
-        <v>1.2463528654218718</v>
+        <v>0.21295975304203327</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6">
         <f>PRODUCT(AH1:AJ1)*PRODUCT(AK4,AL4)</f>
-        <v>1.3557829812265592</v>
+        <v>5.250797566014819E-3</v>
       </c>
       <c r="AI7" s="6">
         <f>PRODUCT(AH1:AI1,AK1)*PRODUCT(AJ4,AL4)</f>
-        <v>-9.9106943072117017E-3</v>
+        <v>2.8314427381295085E-2</v>
       </c>
       <c r="AJ7" s="6">
         <f>PRODUCT(AH1:AI1,AL1)*PRODUCT(AJ4,AK4)</f>
-        <v>-1.4265393320986537E-2</v>
+        <v>1.4477927269400078E-2</v>
       </c>
       <c r="AK7" s="6">
         <f>PRODUCT(AH1,AJ1,AK1)*PRODUCT(AI4,AL4)</f>
-        <v>-1.5857110891538591E-3</v>
+        <v>3.3498759155335033E-2</v>
       </c>
       <c r="AL7" s="6">
         <f>PRODUCT(AH1,AJ1,AL1)*PRODUCT(AI4,AK4)</f>
-        <v>-2.2824629313578271E-3</v>
+        <v>1.7128815360980376E-2</v>
       </c>
       <c r="AM7" s="6">
         <f>PRODUCT(AH1,AK1,AL1)*PRODUCT(AI4,AJ4)</f>
-        <v>1.6684670550861329E-5</v>
+        <v>9.2365510680729596E-2</v>
       </c>
       <c r="AN7" s="6">
         <f>PRODUCT(AI1,AJ1,AK1)*PRODUCT(AH4,AL4)</f>
-        <v>-3.3537789535604358E-2</v>
+        <v>2.9112016884993539E-3</v>
       </c>
       <c r="AO7" s="6">
         <f>PRODUCT(AI1,AJ1,AL1)*PRODUCT(AH4,AK4)</f>
-        <v>-4.8274090998218389E-2</v>
+        <v>1.4885756206566274E-3</v>
       </c>
       <c r="AP7" s="6">
         <f>PRODUCT(AI1,AK1,AL1)*PRODUCT(AH4,AJ4)</f>
-        <v>3.528807821507197E-4</v>
+        <v>8.0270027139205478E-3</v>
       </c>
       <c r="AQ7" s="6">
         <f>PRODUCT(AJ1,AK1,AL1)*PRODUCT(AH4,AI4)</f>
-        <v>5.6460925144114675E-5</v>
+        <v>9.4967356052017733E-3</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -5439,23 +5470,23 @@
       </c>
       <c r="E8">
         <f>Base!E8</f>
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="F8">
         <f>Base!F8</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G8">
         <f>Base!G8</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <f>Base!H8</f>
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <f>Base!I8</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="5"/>
@@ -5463,46 +5494,46 @@
       </c>
       <c r="L8" s="6">
         <f t="shared" si="2"/>
-        <v>8.2524271844660199E-2</v>
+        <v>0.5605381165919282</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="2"/>
-        <v>6.3909774436090222E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="2"/>
-        <v>1.2244897959183673E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="2"/>
-        <v>0.61463414634146341</v>
+        <v>0.11834319526627218</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>0.23809523809523808</v>
+        <v>0.15337423312883436</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>x17 3</v>
+        <v>x250 3</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="3"/>
-        <v>x17 3</v>
+        <v>x12 3</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" si="3"/>
-        <v>x3 3</v>
+        <v>x12 3</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="3"/>
-        <v>x126 3</v>
+        <v>x20 3</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="3"/>
-        <v>x35 3</v>
+        <v>x25 3</v>
       </c>
       <c r="AC8" t="b">
         <f>$AA$16&gt;=$AA$17</f>
@@ -5513,27 +5544,27 @@
       </c>
       <c r="AF8" s="23">
         <f>SUM(AH8:AL8)</f>
-        <v>0.25598422423318046</v>
+        <v>4.6744165427919537E-2</v>
       </c>
       <c r="AH8" s="24">
         <f>PRODUCT($AG1:AG1,AI1:$AM1)*AH4</f>
-        <v>-3.8111124472277685E-3</v>
+        <v>1.6958456437860311E-3</v>
       </c>
       <c r="AI8" s="24">
         <f>PRODUCT($AG1:AH1,AJ1:$AM1)*AI4</f>
-        <v>-1.8019444194930216E-4</v>
+        <v>1.9513840284661185E-2</v>
       </c>
       <c r="AJ8" s="24">
         <f>PRODUCT($AG1:AI1,AK1:$AM1)*AJ4</f>
-        <v>-1.1262152621831479E-3</v>
+        <v>1.649384119298743E-2</v>
       </c>
       <c r="AK8" s="24">
         <f>PRODUCT($AG1:AJ1,AL1:$AM1)*AK4</f>
-        <v>0.15406624786665443</v>
+        <v>3.0587170287464959E-3</v>
       </c>
       <c r="AL8" s="24">
         <f>PRODUCT($AG1:AK1,AM1:$AM1)*AL4</f>
-        <v>0.10703549851788627</v>
+        <v>5.9819212777383994E-3</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -5542,7 +5573,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(L22:P33)</f>
-        <v>204.66445843642995</v>
+        <v>39.051754890673251</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="4"/>
@@ -5550,23 +5581,23 @@
       </c>
       <c r="E9">
         <f>Base!E9</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <f>Base!F9</f>
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="G9">
         <f>Base!G9</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <f>Base!H9</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <f>Base!I9</f>
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="5"/>
@@ -5574,46 +5605,46 @@
       </c>
       <c r="L9" s="6">
         <f t="shared" si="2"/>
-        <v>4.8543689320388349E-2</v>
+        <v>2.6905829596412557E-2</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
-        <v>3.7593984962406013E-2</v>
+        <v>0.50505050505050508</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="2"/>
-        <v>1.2244897959183673E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="2"/>
-        <v>0.17073170731707318</v>
+        <v>0.14792899408284024</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>0.46258503401360546</v>
+        <v>0.14723926380368099</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="3"/>
-        <v>x10 4</v>
+        <v>x12 4</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="3"/>
-        <v>x10 4</v>
+        <v>x200 4</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="3"/>
-        <v>x3 4</v>
+        <v>x12 4</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="3"/>
-        <v>x35 4</v>
+        <v>x25 4</v>
       </c>
       <c r="X9" t="str">
         <f t="shared" si="3"/>
-        <v>x68 4</v>
+        <v>x24 4</v>
       </c>
       <c r="Z9" s="12" t="s">
         <v>52</v>
@@ -5630,7 +5661,7 @@
       </c>
       <c r="AF9" s="23">
         <f>PRODUCT(AH1:AL1)</f>
-        <v>1.2163124831577984E-2</v>
+        <v>3.48461433654664E-3</v>
       </c>
       <c r="AG9" s="5"/>
     </row>
@@ -5640,7 +5671,7 @@
       </c>
       <c r="B10" s="5">
         <f>100*(1-(1-SUMIF(T22:X33,"&lt;&gt;0",E22:I33)/100)^B6)</f>
-        <v>12.727049881970276</v>
+        <v>2.7523261435854041</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -5651,23 +5682,23 @@
       </c>
       <c r="E10">
         <f>Base!E10</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <f>Base!F10</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <f>Base!G10</f>
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="H10">
         <f>Base!H10</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I10">
         <f>Base!I10</f>
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
@@ -5675,46 +5706,46 @@
       </c>
       <c r="L10" s="6">
         <f t="shared" si="2"/>
-        <v>2.4271844660194174E-2</v>
+        <v>2.6905829596412557E-2</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="2"/>
-        <v>1.8796992481203006E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="2"/>
-        <v>2.0408163265306121E-2</v>
+        <v>0.43604651162790697</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
+        <v>0.14201183431952663</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>3.4013605442176874E-2</v>
+        <v>0.14723926380368099</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>x5 5</v>
+        <v>x12 5</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="3"/>
-        <v>x5 5</v>
+        <v>x12 5</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" si="3"/>
-        <v>x5 5</v>
+        <v>x150 5</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>x5 5</v>
+        <v>x24 5</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="3"/>
-        <v>x5 5</v>
+        <v>x24 5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>53</v>
@@ -5728,7 +5759,7 @@
       </c>
       <c r="AF10" s="22">
         <f>SUM(AF4:AF9)</f>
-        <v>0.99999999999999956</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -5737,7 +5768,7 @@
       </c>
       <c r="B11" s="5">
         <f>1/$B$6*(1/100*SUMPRODUCT(F22:I33,U22:X33,U22:X33)-(1/100*SUMPRODUCT(F22:I33,U22:X33))^2)</f>
-        <v>41.519568377514553</v>
+        <v>12.130760183996218</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -5748,23 +5779,23 @@
       </c>
       <c r="E11">
         <f>Base!E11</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <f>Base!F11</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <f>Base!G11</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <f>Base!H11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <f>Base!I11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="5"/>
@@ -5772,53 +5803,53 @@
       </c>
       <c r="L11" s="6">
         <f t="shared" si="2"/>
-        <v>1.9417475728155338E-2</v>
+        <v>2.6905829596412557E-2</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
-        <v>1.5037593984962405E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="2"/>
-        <v>1.6326530612244899E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="2"/>
-        <v>1.9512195121951219E-2</v>
+        <v>2.9585798816568046E-2</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>2.7210884353741496E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>x4 6</v>
+        <v>x12 6</v>
       </c>
       <c r="U11" t="str">
         <f t="shared" si="3"/>
-        <v>x4 6</v>
+        <v>x12 6</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="3"/>
-        <v>x4 6</v>
+        <v>x12 6</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="3"/>
-        <v>x4 6</v>
+        <v>x5 6</v>
       </c>
       <c r="X11" t="str">
         <f t="shared" si="3"/>
-        <v>x4 6</v>
+        <v>x5 6</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>54</v>
       </c>
       <c r="AA11" s="5">
         <f>B10-(AA9-AA10)</f>
-        <v>2.7270498819702755</v>
+        <v>-7.2476738564145959</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>37</v>
@@ -5834,7 +5865,7 @@
       </c>
       <c r="B12" s="5">
         <f>SQRT(B11)</f>
-        <v>6.4435679850153322</v>
+        <v>3.4829240853047914</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -5845,23 +5876,23 @@
       </c>
       <c r="E12">
         <f>Base!E12</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <f>Base!F12</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <f>Base!G12</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <f>Base!H12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f>Base!I12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="5"/>
@@ -5869,53 +5900,53 @@
       </c>
       <c r="L12" s="6">
         <f t="shared" si="2"/>
-        <v>1.4563106796116505E-2</v>
+        <v>2.2421524663677129E-2</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="2"/>
-        <v>1.1278195488721804E-2</v>
+        <v>2.5252525252525252E-2</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="2"/>
-        <v>1.2244897959183673E-2</v>
+        <v>2.9069767441860465E-2</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="2"/>
-        <v>1.4634146341463415E-2</v>
+        <v>2.9585798816568046E-2</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="2"/>
-        <v>2.0408163265306121E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="3"/>
-        <v>x3 7</v>
+        <v>x10 7</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="3"/>
-        <v>x3 7</v>
+        <v>x10 7</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="3"/>
-        <v>x3 7</v>
+        <v>x10 7</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="3"/>
-        <v>x3 7</v>
+        <v>x5 7</v>
       </c>
       <c r="X12" t="str">
         <f t="shared" si="3"/>
-        <v>x3 7</v>
+        <v>x5 7</v>
       </c>
       <c r="Z12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="AA12" s="5">
         <f>(AA9+AA10)-B10</f>
-        <v>27.272950118029726</v>
+        <v>37.247673856414593</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>37</v>
@@ -5929,11 +5960,11 @@
       </c>
       <c r="AF12" s="23">
         <f>SUM(AF13:AF15)</f>
-        <v>1.5145002144866302</v>
+        <v>0.2631885328064994</v>
       </c>
       <c r="AG12">
         <f>1/AF12</f>
-        <v>0.66028382857573231</v>
+        <v>3.7995576377760223</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -5946,23 +5977,23 @@
       </c>
       <c r="E13">
         <f>Base!E13</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <f>Base!F13</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <f>Base!G13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f>Base!H13</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <f>Base!I13</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="5"/>
@@ -5970,46 +6001,46 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="2"/>
-        <v>9.7087378640776691E-3</v>
+        <v>1.1210762331838564E-2</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
-        <v>7.5187969924812026E-3</v>
+        <v>1.2626262626262626E-2</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="2"/>
-        <v>8.1632653061224497E-3</v>
+        <v>8.7209302325581394E-3</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="2"/>
-        <v>9.7560975609756097E-3</v>
+        <v>2.9585798816568046E-2</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="2"/>
-        <v>1.3605442176870748E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="3"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="3"/>
-        <v>x2 8</v>
+        <v>x3 8</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="3"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="X13" t="str">
         <f t="shared" si="3"/>
-        <v>x2 8</v>
+        <v>x5 8</v>
       </c>
       <c r="AC13" t="b">
         <f>$E$9=INT($E$9)</f>
@@ -6020,15 +6051,15 @@
       </c>
       <c r="AF13" s="23">
         <f>AF7</f>
-        <v>1.2463528654218718</v>
+        <v>0.21295975304203327</v>
       </c>
       <c r="AG13">
         <f>1/AF13</f>
-        <v>0.80234099647335022</v>
+        <v>4.695722951005787</v>
       </c>
       <c r="AH13" s="5">
         <f t="shared" ref="AH13:AH15" si="6">AF13/AF$12*100</f>
-        <v>82.29466417370881</v>
+        <v>80.915285620975297</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -6104,7 +6135,7 @@
       </c>
       <c r="AA14" s="21">
         <f>MAX(N22:P33)-MIN(N22:P33)</f>
-        <v>86.087894641279703</v>
+        <v>7.8361878140470598</v>
       </c>
       <c r="AC14" t="b">
         <f>$E$10=INT($E$10)</f>
@@ -6115,15 +6146,15 @@
       </c>
       <c r="AF14" s="23">
         <f>AF8</f>
-        <v>0.25598422423318046</v>
+        <v>4.6744165427919537E-2</v>
       </c>
       <c r="AG14">
         <f>1/AF14</f>
-        <v>3.9064907339332078</v>
+        <v>21.393044262219647</v>
       </c>
       <c r="AH14" s="5">
         <f t="shared" si="6"/>
-        <v>16.902224363167313</v>
+        <v>17.760715077311755</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -6152,23 +6183,23 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>2.4271844660194174E-2</v>
+        <v>1.1210762331838564E-2</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="2"/>
-        <v>1.8796992481203006E-2</v>
+        <v>1.2626262626262626E-2</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="2"/>
-        <v>2.0408163265306121E-2</v>
+        <v>1.4534883720930232E-2</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
+        <v>2.9585798816568046E-2</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
-        <v>3.4013605442176874E-2</v>
+        <v>3.0674846625766871E-2</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
@@ -6202,15 +6233,15 @@
       </c>
       <c r="AF15" s="23">
         <f>AF9</f>
-        <v>1.2163124831577984E-2</v>
+        <v>3.48461433654664E-3</v>
       </c>
       <c r="AG15">
         <f>1/AF15</f>
-        <v>82.215714616674276</v>
+        <v>286.97580375308644</v>
       </c>
       <c r="AH15" s="5">
         <f t="shared" si="6"/>
-        <v>0.80311146312388704</v>
+        <v>1.3239993017129612</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -6286,7 +6317,7 @@
       </c>
       <c r="AA16" s="21">
         <f>MAX(E5:I16)</f>
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="AC16" t="b">
         <f>$E$12=INT($E$12)</f>
@@ -6297,26 +6328,26 @@
       <c r="B17" s="5"/>
       <c r="E17" s="1">
         <f>SUM(E5:E16)</f>
-        <v>206</v>
+        <v>446</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(F5:F16)</f>
-        <v>266</v>
+        <v>396</v>
       </c>
       <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>245</v>
+        <v>344</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="I17" s="1">
         <f>SUM($I$5:I16)</f>
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" ref="L5:P17" si="7">E17/E$17</f>
+        <f t="shared" ref="L17:P17" si="7">E17/E$17</f>
         <v>1</v>
       </c>
       <c r="M17" s="6">
@@ -6363,7 +6394,7 @@
     <row r="19" spans="2:31">
       <c r="AA19">
         <f>_xlfn.STDEV.S(N22:P33)</f>
-        <v>19.987392658442115</v>
+        <v>2.011718026102649</v>
       </c>
       <c r="AC19" t="b">
         <f>$E$15=INT($E$15)</f>
@@ -6383,7 +6414,7 @@
       </c>
       <c r="AA20" s="21">
         <f>SUMSQ(N22:P33)-SUM(N22:P33)*SUM(N22:P33)</f>
-        <v>-26741.642469206701</v>
+        <v>-1341.0320204609552</v>
       </c>
       <c r="AC20" t="b">
         <f>$E$16=INT($E$16)</f>
@@ -6438,7 +6469,7 @@
       </c>
       <c r="AA21">
         <f>_xlfn.VAR.S(N22:P33)</f>
-        <v>399.49586528274574</v>
+        <v>4.0470094165463379</v>
       </c>
       <c r="AC21" t="b">
         <f>$F$5=INT($F$5)</f>
@@ -6452,23 +6483,23 @@
       </c>
       <c r="E22" s="5">
         <f>L5*(1-M5)*100</f>
-        <v>32.119132783414841</v>
+        <v>21.289124428137882</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:I33" si="8">E22/(1-M5)*M5*(1-N5)</f>
-        <v>10.391045972370989</v>
+        <v>1.066563012542781</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="8"/>
-        <v>5.8863517703439117</v>
+        <v>5.4150141991177778E-2</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="8"/>
-        <v>0.14215339309333935</v>
+        <v>1.0253083335929411E-2</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="8"/>
-        <v>5.0054011652584289E-3</v>
+        <v>1.4339976693607565E-3</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
@@ -6513,7 +6544,7 @@
       </c>
       <c r="AA22" s="21">
         <f>SUM(N22:P33)</f>
-        <v>204.66445843642995</v>
+        <v>39.051754890673251</v>
       </c>
       <c r="AC22" t="b">
         <f>$F$6=INT($F$6)</f>
@@ -6528,23 +6559,23 @@
       </c>
       <c r="E23" s="5">
         <f>L6*(1-M6)*100</f>
-        <v>9.0882546171253367</v>
+        <v>3.3519046971961766</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="8"/>
-        <v>4.8044621162575538</v>
+        <v>1.0665630125427812</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="8"/>
-        <v>0.63768810845392365</v>
+        <v>5.4150141991177791E-2</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="8"/>
-        <v>3.0477331539573538E-2</v>
+        <v>9.5360845012490356E-3</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="8"/>
-        <v>2.2246227401148569E-3</v>
+        <v>2.1509965040411357E-3</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" ref="K23:K33" si="11">K22+1</f>
@@ -6560,15 +6591,15 @@
       </c>
       <c r="N23" s="16">
         <f t="shared" si="9"/>
-        <v>86.087894641279689</v>
+        <v>7.3102691688090022</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="9"/>
-        <v>12.343319273527284</v>
+        <v>3.8621142230058596</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="9"/>
-        <v>3.0032406991550569</v>
+        <v>2.903845280455533</v>
       </c>
       <c r="S23" s="12">
         <f t="shared" ref="S23:S33" si="12">S22+1</f>
@@ -6591,7 +6622,7 @@
       </c>
       <c r="AA23">
         <f>SUMSQ(N22:P33)</f>
-        <v>15145.898077870466</v>
+        <v>184.00753958026689</v>
       </c>
       <c r="AC23" t="b">
         <f>$F$7=INT($F$7)</f>
@@ -6607,23 +6638,23 @@
       </c>
       <c r="E24" s="5">
         <f>L7*(1-M7)*100</f>
-        <v>12.920651142419153</v>
+        <v>4.257824885627576</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="8"/>
-        <v>0.97206559096373757</v>
+        <v>0.16064282411138181</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="8"/>
-        <v>0.63768810845392376</v>
+        <v>5.8045835659607851E-2</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="8"/>
-        <v>3.0477331539573545E-2</v>
+        <v>6.8353888906196097E-3</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>2.2246227401148577E-3</v>
+        <v>9.5599844624050473E-4</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="11"/>
@@ -6639,15 +6670,15 @@
       </c>
       <c r="N24" s="16">
         <f t="shared" si="9"/>
-        <v>86.087894641279703</v>
+        <v>7.8361878140470598</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="9"/>
-        <v>12.343319273527285</v>
+        <v>2.7683325007009421</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="9"/>
-        <v>3.0032406991550578</v>
+        <v>1.2905979024246814</v>
       </c>
       <c r="S24" s="12">
         <f t="shared" si="12"/>
@@ -6686,23 +6717,23 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E30" si="13">L8*(1-M8)*100</f>
-        <v>7.7250164245565367</v>
+        <v>54.355211305883941</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="8"/>
-        <v>0.52095266897181536</v>
+        <v>1.639346852612052</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="8"/>
-        <v>2.4887277271985532E-3</v>
+        <v>5.2241252093647057E-2</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="8"/>
-        <v>3.0242767317855833E-3</v>
+        <v>5.9367503511535335E-3</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>9.4508647868299476E-4</v>
+        <v>1.0754982520205676E-3</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="11"/>
@@ -6718,15 +6749,15 @@
       </c>
       <c r="N25" s="16">
         <f t="shared" si="9"/>
-        <v>0.22398549544786978</v>
+        <v>4.701712688428235</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="9"/>
-        <v>0.6804622646517563</v>
+        <v>1.3357688290095451</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="9"/>
-        <v>0.59540448157028669</v>
+        <v>0.67756389877295764</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="S25" s="12">
@@ -6750,7 +6781,7 @@
       </c>
       <c r="AA25" s="21">
         <f>AA23/AA24-(AA22/AA24)^2</f>
-        <v>388.39875791378057</v>
+        <v>3.9345924883089394</v>
       </c>
       <c r="AC25" t="b">
         <f>$F$9=INT($F$9)</f>
@@ -6765,23 +6796,23 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="13"/>
-        <v>4.671873859405796</v>
+        <v>1.3317026769941569</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="8"/>
-        <v>0.18026043909059353</v>
+        <v>1.311477482089642</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="8"/>
-        <v>1.8531107425156762E-3</v>
+        <v>4.0390551954282837E-2</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="8"/>
-        <v>2.0503606254725269E-4</v>
+        <v>5.9797702812343576E-3</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
-        <v>1.7648673738244536E-4</v>
+        <v>1.0324783219397453E-3</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="11"/>
@@ -6797,15 +6828,15 @@
       </c>
       <c r="N26" s="16">
         <f t="shared" si="9"/>
-        <v>0.13342397346112869</v>
+        <v>2.9081197407083641</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="9"/>
-        <v>2.7679868443879114E-2</v>
+        <v>0.80726898796663826</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="9"/>
-        <v>6.3535225457680325E-2</v>
+        <v>0.37169219589830832</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="S26" s="12">
@@ -6841,23 +6872,23 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="13"/>
-        <v>2.3815606978611576</v>
+        <v>2.6090501426824302</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="8"/>
-        <v>4.4692670848907483E-2</v>
+        <v>4.5980716540733234E-2</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="8"/>
-        <v>9.0838761888023328E-4</v>
+        <v>3.050328142380735E-2</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="8"/>
-        <v>2.1937252020577062E-5</v>
+        <v>4.3054346024887389E-3</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
-        <v>7.7243845142876992E-7</v>
+        <v>7.4338439179661689E-4</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="11"/>
@@ -6873,15 +6904,15 @@
       </c>
       <c r="N27" s="16">
         <f t="shared" si="9"/>
-        <v>4.9052931419532597E-2</v>
+        <v>1.6471771968855968</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="9"/>
-        <v>1.9743526818519356E-3</v>
+        <v>0.38748911422398652</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="9"/>
-        <v>1.3903892125717858E-4</v>
+        <v>0.13380919052339105</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="S27" s="12">
@@ -6916,23 +6947,23 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="13"/>
-        <v>1.9125483611942475</v>
+        <v>2.6090501426824302</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="8"/>
-        <v>2.8722489798897875E-2</v>
+        <v>7.8688648925378524E-2</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="8"/>
-        <v>4.6741993317101291E-4</v>
+        <v>2.7600210502093268E-3</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="8"/>
-        <v>9.0487765855694109E-6</v>
+        <v>8.1565787433239865E-5</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
-        <v>2.5311263176417934E-7</v>
+        <v>2.5811958048493631E-6</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="11"/>
@@ -6948,15 +6979,15 @@
       </c>
       <c r="N28" s="16">
         <f t="shared" si="9"/>
-        <v>1.2620338195617349E-2</v>
+        <v>7.4520568355651823E-2</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="9"/>
-        <v>4.0719494635062351E-4</v>
+        <v>3.6704604344957939E-3</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="9"/>
-        <v>2.2780136858776142E-5</v>
+        <v>2.3230762243644268E-4</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="S28" s="12">
@@ -6990,23 +7021,23 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="13"/>
-        <v>1.4398861230746771</v>
+        <v>2.1855324545907502</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="8"/>
-        <v>1.6223439518153415E-2</v>
+        <v>5.4974081202050745E-2</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="8"/>
-        <v>1.9817384293491171E-4</v>
+        <v>1.5972344040563232E-3</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="8"/>
-        <v>2.8831110711888549E-6</v>
+        <v>4.720242328312492E-5</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
-        <v>6.0064813983101139E-8</v>
+        <v>1.4937475722507886E-6</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="11"/>
@@ -7022,15 +7053,15 @@
       </c>
       <c r="N29" s="16">
         <f t="shared" si="9"/>
-        <v>3.5671291728284109E-3</v>
+        <v>2.8750219273013817E-2</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="9"/>
-        <v>7.7843998922099084E-5</v>
+        <v>1.2744654286443728E-3</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="9"/>
-        <v>3.2434999550874615E-6</v>
+        <v>8.0662368901542581E-5</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="S29" s="12">
@@ -7064,23 +7095,23 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="13"/>
-        <v>0.96357398350244527</v>
+        <v>1.1069212302396159</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="8"/>
-        <v>7.2402126775230119E-3</v>
+        <v>1.4031558151122234E-2</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="8"/>
-        <v>5.9008859722459959E-5</v>
+        <v>1.1979258030422425E-4</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="8"/>
-        <v>5.7345830634071874E-7</v>
+        <v>3.540181746234369E-6</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>7.9097697426306045E-9</v>
+        <v>1.1203106791880915E-7</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="11"/>
@@ -7096,15 +7127,15 @@
       </c>
       <c r="N30" s="16">
         <f t="shared" si="9"/>
-        <v>2.9504429861229977E-4</v>
+        <v>5.9896290152112129E-4</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="9"/>
-        <v>5.1611247570664687E-6</v>
+        <v>3.1861635716109324E-5</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="9"/>
-        <v>2.1356378305102632E-7</v>
+        <v>3.0248388338078471E-6</v>
       </c>
       <c r="S30" s="12">
         <f t="shared" si="12"/>
@@ -7210,23 +7241,23 @@
       </c>
       <c r="E32" s="5">
         <f>L15*(1-M15)*100</f>
-        <v>2.3815606978611576</v>
+        <v>1.1069212302396159</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="8"/>
-        <v>4.4692670848907483E-2</v>
+        <v>1.3949261622376648E-2</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="8"/>
-        <v>9.0838761888023328E-4</v>
+        <v>1.9965430050704038E-4</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="8"/>
-        <v>2.1937252020577062E-5</v>
+        <v>5.9003029103906142E-6</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>7.7243845142876992E-7</v>
+        <v>1.8671844653134855E-7</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="11"/>
@@ -7242,15 +7273,15 @@
       </c>
       <c r="N32" s="16">
         <f t="shared" si="9"/>
-        <v>2.7251628566406999E-3</v>
+        <v>5.9896290152112119E-4</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="9"/>
-        <v>1.5356076414403943E-4</v>
+        <v>4.1302120372734301E-5</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="9"/>
-        <v>1.3903892125717859E-5</v>
+        <v>3.3609320375642738E-6</v>
       </c>
       <c r="S32" s="12">
         <f t="shared" si="12"/>

--- a/Math/Valiant-1.0Math.xlsx
+++ b/Math/Valiant-1.0Math.xlsx
@@ -727,7 +727,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -970,7 +970,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,18 +1001,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1029,7 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1060,8 +1048,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1398,7 +1384,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="T5" sqref="T5:X16"/>
@@ -1415,7 +1401,7 @@
     <col min="34" max="34" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15.75">
+    <row r="1" spans="1:68" ht="15.75">
       <c r="A1" s="3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1432,36 +1418,36 @@
       </c>
       <c r="AC1">
         <f>MIN($AA$14)</f>
-        <v>5.9308497139790699</v>
+        <v>27.369614887893121</v>
       </c>
       <c r="AG1">
         <v>1</v>
       </c>
       <c r="AH1" s="6">
         <f t="shared" ref="AH1:AL1" si="0">3*L5</f>
-        <v>1.5271966527196654</v>
+        <v>1.6783216783216783</v>
       </c>
       <c r="AI1" s="6">
         <f t="shared" si="0"/>
-        <v>8.9955022488755615E-2</v>
+        <v>0.1911504424778761</v>
       </c>
       <c r="AJ1" s="6">
         <f t="shared" si="0"/>
-        <v>9.7402597402597393E-2</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="AK1" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.66914498141263934</v>
       </c>
       <c r="AL1" s="6">
         <f t="shared" si="0"/>
-        <v>0.34682080924855491</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="AM1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="24" customHeight="1">
+    <row r="2" spans="1:68" ht="24" customHeight="1">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1485,7 +1471,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:43" ht="15.75">
+    <row r="3" spans="1:68" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:68">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -1589,36 +1575,36 @@
       </c>
       <c r="AF4" s="22">
         <f>PRODUCT(AH4:AL4)</f>
-        <v>-0.14142686856023637</v>
+        <v>-7.4306927243346726E-2</v>
       </c>
       <c r="AG4" s="5">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>1-AH1</f>
-        <v>-0.52719665271966543</v>
+        <v>-0.67832167832167833</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AL4" si="1">1-AI1</f>
-        <v>0.91004497751124436</v>
+        <v>0.80884955752212395</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>0.90259740259740262</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.33085501858736066</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" si="1"/>
-        <v>0.65317919075144504</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:68">
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
@@ -1628,68 +1614,66 @@
       <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="26">
-        <v>365</v>
+      <c r="E5">
+        <v>320</v>
       </c>
       <c r="F5">
-        <f>E6</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <f>F5</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:P7" si="2">E5/E$17</f>
-        <v>0.50906555090655514</v>
+        <v>0.55944055944055948</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>2.9985007496251874E-2</v>
+        <v>6.3716814159292035E-2</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>3.2467532467532464E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.22304832713754646</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="2"/>
-        <v>0.11560693641618497</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T15" si="3">"x"&amp;E5&amp;" "&amp;$D5</f>
-        <v>x365 0</v>
+        <v>x320 0</v>
       </c>
       <c r="U5" t="str">
         <f t="shared" ref="U5:U15" si="4">"x"&amp;F5&amp;" "&amp;$D5</f>
-        <v>x20 0</v>
+        <v>x36 0</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" ref="V5:V15" si="5">"x"&amp;G5&amp;" "&amp;$D5</f>
-        <v>x20 0</v>
+        <v>x40 0</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" ref="W5:W15" si="6">"x"&amp;H5&amp;" "&amp;$D5</f>
-        <v>x30 0</v>
+        <v>x60 0</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" ref="X5:X15" si="7">"x"&amp;I5&amp;" "&amp;$D5</f>
-        <v>x20 0</v>
+        <v>x40 0</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>48</v>
@@ -1699,65 +1683,128 @@
       </c>
       <c r="AC5" t="b">
         <f>$AA$6&gt;=0</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>1</v>
       </c>
       <c r="AF5" s="22">
         <f>SUM(AH5:AL5)</f>
-        <v>0.16392667965755889</v>
+        <v>-7.3039141269368418E-2</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6">
         <f>PRODUCT($AG4:AG4,AI4:$AM4)*AH1</f>
-        <v>0.40968894463877997</v>
+        <v>0.18385219111755893</v>
       </c>
       <c r="AI5" s="6">
         <f>PRODUCT($AG4:AH4,AJ4:$AM4)*AI1</f>
-        <v>-1.3979591620451702E-2</v>
+        <v>-1.7560499217246055E-2</v>
       </c>
       <c r="AJ5" s="6">
         <f>PRODUCT($AG4:AI4,AK4:$AM4)*AJ1</f>
-        <v>-1.526189229067299E-2</v>
+        <v>-1.9384415802612187E-2</v>
       </c>
       <c r="AK5" s="6">
         <f>PRODUCT($AG4:AJ4,AL4:$AM4)*AK1</f>
-        <v>-0.14142686856023637</v>
+        <v>-0.15028367307643153</v>
       </c>
       <c r="AL5" s="6">
         <f>PRODUCT($AG4:AK4,AM4:$AM4)*AL1</f>
-        <v>-7.5093912509860028E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43">
+        <v>-6.9662744290637568E-2</v>
+      </c>
+      <c r="AT5">
+        <v>320</v>
+      </c>
+      <c r="AU5">
+        <v>40</v>
+      </c>
+      <c r="AV5">
+        <v>40</v>
+      </c>
+      <c r="AW5">
+        <v>60</v>
+      </c>
+      <c r="AX5">
+        <v>40</v>
+      </c>
+      <c r="AZ5">
+        <v>400</v>
+      </c>
+      <c r="BA5">
+        <v>40</v>
+      </c>
+      <c r="BB5">
+        <v>40</v>
+      </c>
+      <c r="BC5">
+        <v>60</v>
+      </c>
+      <c r="BD5">
+        <v>40</v>
+      </c>
+      <c r="BF5">
+        <v>320</v>
+      </c>
+      <c r="BG5">
+        <v>40</v>
+      </c>
+      <c r="BH5">
+        <v>40</v>
+      </c>
+      <c r="BI5">
+        <v>60</v>
+      </c>
+      <c r="BJ5">
+        <v>40</v>
+      </c>
+      <c r="BL5">
+        <v>400</v>
+      </c>
+      <c r="BM5">
+        <v>34</v>
+      </c>
+      <c r="BN5">
+        <v>34</v>
+      </c>
+      <c r="BO5">
+        <v>60</v>
+      </c>
+      <c r="BP5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
+      <c r="C6">
+        <f>E5/E6</f>
+        <v>8.8888888888888893</v>
+      </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D16" si="8">D5+1</f>
         <v>1</v>
       </c>
       <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="26">
-        <f>E5</f>
-        <v>365</v>
+        <f>F5</f>
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>310</v>
       </c>
       <c r="G6">
-        <f>F7</f>
-        <v>20</v>
+        <f>G5</f>
+        <v>40</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I6">
-        <f>H5</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ref="K6:K16" si="9">K5+1</f>
@@ -1765,111 +1812,171 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>2.7894002789400279E-2</v>
+        <v>6.2937062937062943E-2</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>0.54722638680659674</v>
+        <v>0.54867256637168138</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>3.2467532467532464E-2</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>0.16666666666666666</v>
+        <v>0.14869888475836432</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="2"/>
-        <v>0.17341040462427745</v>
+        <v>0.24193548387096775</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>x20 1</v>
+        <v>x36 1</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="4"/>
-        <v>x365 1</v>
+        <v>x310 1</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" si="5"/>
-        <v>x20 1</v>
+        <v>x40 1</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="6"/>
-        <v>x30 1</v>
+        <v>x40 1</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="7"/>
-        <v>x30 1</v>
+        <v>x60 1</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="5">
         <f>B9-(AA4-AA5)</f>
-        <v>-8.3103936219211541</v>
+        <v>78.480277399542913</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="AC6" t="b">
         <f>$AA$7&gt;=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="23">
         <f>SUM(AH6:AQ6)</f>
-        <v>0.59055993369993409</v>
+        <v>0.38077956635356297</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6">
         <f>PRODUCT(AH4:AJ4)*PRODUCT(AK1,AL1)</f>
-        <v>-7.5093912509860028E-2</v>
+        <v>-0.14089094350915457</v>
       </c>
       <c r="AI6" s="6">
         <f>PRODUCT(AH4:AI4,AK4)*PRODUCT(AJ1,AL1)</f>
-        <v>-8.1036596233661894E-3</v>
+        <v>-1.8172889814948929E-2</v>
       </c>
       <c r="AJ6" s="6">
         <f>PRODUCT(AH4:AI4,AL4)*PRODUCT(AJ1,AK1)</f>
-        <v>-1.526189229067299E-2</v>
+        <v>-3.920443645472127E-2</v>
       </c>
       <c r="AK6" s="6">
         <f>PRODUCT(AH4,AJ4,AK4)*PRODUCT(AI1,AL1)</f>
-        <v>-7.422792010859311E-3</v>
+        <v>-1.6462968016168179E-2</v>
       </c>
       <c r="AL6" s="6">
         <f>PRODUCT(AH4,AJ4,AL4)*PRODUCT(AI1,AK1)</f>
-        <v>-1.3979591620451702E-2</v>
+        <v>-3.5515616394430211E-2</v>
       </c>
       <c r="AM6" s="6">
         <f>PRODUCT(AH4,AK4,AL4)*PRODUCT(AI1,AJ1)</f>
-        <v>-1.5085890237897519E-3</v>
+        <v>-4.5809997958033179E-3</v>
       </c>
       <c r="AN6" s="6">
         <f>PRODUCT(AI4,AJ4,AK4)*PRODUCT(AH1,AL1)</f>
-        <v>0.21753395290554689</v>
+        <v>0.17236142917271149</v>
       </c>
       <c r="AO6" s="6">
         <f>PRODUCT(AI4,AJ4,AL4)*PRODUCT(AH1,AK1)</f>
-        <v>0.40968894463877997</v>
+        <v>0.37183589214787194</v>
       </c>
       <c r="AP6" s="6">
         <f>PRODUCT(AI4,AK4,AL4)*PRODUCT(AH1,AJ1)</f>
-        <v>4.4211037191235245E-2</v>
+        <v>4.7961441161102319E-2</v>
       </c>
       <c r="AQ6" s="6">
         <f>PRODUCT(AJ4,AK4,AL4)*PRODUCT(AH1,AI1)</f>
-        <v>4.0496436043371983E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43">
+        <v>4.3448657857103647E-2</v>
+      </c>
+      <c r="AT6">
+        <v>40</v>
+      </c>
+      <c r="AU6">
+        <v>310</v>
+      </c>
+      <c r="AV6">
+        <v>40</v>
+      </c>
+      <c r="AW6">
+        <v>40</v>
+      </c>
+      <c r="AX6">
+        <v>60</v>
+      </c>
+      <c r="AZ6">
+        <v>40</v>
+      </c>
+      <c r="BA6">
+        <v>400</v>
+      </c>
+      <c r="BB6">
+        <v>40</v>
+      </c>
+      <c r="BC6">
+        <v>40</v>
+      </c>
+      <c r="BD6">
+        <v>60</v>
+      </c>
+      <c r="BF6">
+        <v>40</v>
+      </c>
+      <c r="BG6">
+        <v>310</v>
+      </c>
+      <c r="BH6">
+        <v>40</v>
+      </c>
+      <c r="BI6">
+        <v>40</v>
+      </c>
+      <c r="BJ6">
+        <v>60</v>
+      </c>
+      <c r="BL6">
+        <v>34</v>
+      </c>
+      <c r="BM6">
+        <v>400</v>
+      </c>
+      <c r="BN6">
+        <v>34</v>
+      </c>
+      <c r="BO6">
+        <v>40</v>
+      </c>
+      <c r="BP6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
       <c r="A7" s="12" t="s">
         <v>23</v>
       </c>
@@ -1883,22 +1990,20 @@
       </c>
       <c r="E7">
         <f>E6</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F8" si="10">E7</f>
-        <v>20</v>
-      </c>
-      <c r="G7" s="26">
-        <f>F6-1</f>
-        <v>364</v>
+        <f>G6</f>
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>320</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I7">
-        <f t="shared" ref="I5:I7" si="11">H7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="9"/>
@@ -1906,53 +2011,53 @@
       </c>
       <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>2.7894002789400279E-2</v>
+        <v>6.2937062937062943E-2</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>2.9985007496251874E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="2"/>
-        <v>0.59090909090909094</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>0.1111111111111111</v>
+        <v>0.22304832713754646</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="2"/>
-        <v>0.11560693641618497</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>x20 2</v>
+        <v>x36 2</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="4"/>
-        <v>x20 2</v>
+        <v>x40 2</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="5"/>
-        <v>x364 2</v>
+        <v>x320 2</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="6"/>
-        <v>x20 2</v>
+        <v>x60 2</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="7"/>
-        <v>x20 2</v>
+        <v>x40 2</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AA7" s="5">
         <f>(AA4+AA5)-B9</f>
-        <v>48.31039362192115</v>
+        <v>-38.480277399542913</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>37</v>
@@ -1966,63 +2071,124 @@
       </c>
       <c r="AF7" s="23">
         <f>SUM(AH7:AQ7)</f>
-        <v>0.33375290317563433</v>
+        <v>0.54689222650568292</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6">
         <f>PRODUCT(AH1:AJ1)*PRODUCT(AK4,AL4)</f>
-        <v>4.3701189974861858E-3</v>
+        <v>1.1334432484461818E-2</v>
       </c>
       <c r="AI7" s="6">
         <f>PRODUCT(AH1:AI1,AK1)*PRODUCT(AJ4,AL4)</f>
-        <v>4.0496436043371983E-2</v>
+        <v>8.7873690048074757E-2</v>
       </c>
       <c r="AJ7" s="6">
         <f>PRODUCT(AH1:AI1,AL1)*PRODUCT(AJ4,AK4)</f>
-        <v>2.1502532412409906E-2</v>
+        <v>4.0733116741034664E-2</v>
       </c>
       <c r="AK7" s="6">
         <f>PRODUCT(AH1,AJ1,AK1)*PRODUCT(AI4,AL4)</f>
-        <v>4.4211037191235245E-2</v>
+        <v>9.7000667516836128E-2</v>
       </c>
       <c r="AL7" s="6">
         <f>PRODUCT(AH1,AJ1,AL1)*PRODUCT(AI4,AK4)</f>
-        <v>2.3474887004195706E-2</v>
+        <v>4.496385108853343E-2</v>
       </c>
       <c r="AM7" s="6">
         <f>PRODUCT(AH1,AK1,AL1)*PRODUCT(AI4,AJ4)</f>
-        <v>0.21753395290554689</v>
+        <v>0.34859614888862994</v>
       </c>
       <c r="AN7" s="6">
         <f>PRODUCT(AI1,AJ1,AK1)*PRODUCT(AH4,AL4)</f>
-        <v>-1.5085890237897519E-3</v>
+        <v>-9.2649434072426644E-3</v>
       </c>
       <c r="AO7" s="6">
         <f>PRODUCT(AI1,AJ1,AL1)*PRODUCT(AH4,AK4)</f>
-        <v>-8.0102072059632843E-4</v>
+        <v>-4.2946873085656107E-3</v>
       </c>
       <c r="AP7" s="6">
         <f>PRODUCT(AI1,AK1,AL1)*PRODUCT(AH4,AJ4)</f>
-        <v>-7.422792010859311E-3</v>
+        <v>-3.3295890369778328E-2</v>
       </c>
       <c r="AQ7" s="6">
         <f>PRODUCT(AJ1,AK1,AL1)*PRODUCT(AH4,AI4)</f>
-        <v>-8.1036596233661894E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43">
+        <v>-3.675415917630119E-2</v>
+      </c>
+      <c r="AT7">
+        <v>40</v>
+      </c>
+      <c r="AU7">
+        <v>40</v>
+      </c>
+      <c r="AV7">
+        <v>320</v>
+      </c>
+      <c r="AW7">
+        <v>60</v>
+      </c>
+      <c r="AX7">
+        <v>40</v>
+      </c>
+      <c r="AZ7">
+        <v>40</v>
+      </c>
+      <c r="BA7">
+        <v>40</v>
+      </c>
+      <c r="BB7">
+        <v>400</v>
+      </c>
+      <c r="BC7">
+        <v>60</v>
+      </c>
+      <c r="BD7">
+        <v>40</v>
+      </c>
+      <c r="BF7">
+        <v>40</v>
+      </c>
+      <c r="BG7">
+        <v>40</v>
+      </c>
+      <c r="BH7">
+        <v>320</v>
+      </c>
+      <c r="BI7">
+        <v>60</v>
+      </c>
+      <c r="BJ7">
+        <v>40</v>
+      </c>
+      <c r="BL7">
+        <v>34</v>
+      </c>
+      <c r="BM7">
+        <v>34</v>
+      </c>
+      <c r="BN7">
+        <v>400</v>
+      </c>
+      <c r="BO7">
+        <v>60</v>
+      </c>
+      <c r="BP7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
       <c r="A8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
+      <c r="C8" s="5">
+        <f>E8/E9</f>
+        <v>10</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="E8" s="27">
-        <v>250</v>
+      <c r="E8">
+        <v>120</v>
       </c>
       <c r="F8">
         <v>12</v>
@@ -2031,42 +2197,41 @@
         <v>12</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I8">
-        <f>H9</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L13" si="12">E8/E$17</f>
-        <v>0.34867503486750351</v>
+        <f t="shared" ref="L8:L13" si="10">E8/E$17</f>
+        <v>0.20979020979020979</v>
       </c>
       <c r="M8" s="6">
-        <f t="shared" ref="M8:M13" si="13">F8/F$17</f>
-        <v>1.7991004497751123E-2</v>
+        <f t="shared" ref="M8:M13" si="11">F8/F$17</f>
+        <v>2.1238938053097345E-2</v>
       </c>
       <c r="N8" s="6">
-        <f t="shared" ref="N8:N13" si="14">G8/G$17</f>
-        <v>1.948051948051948E-2</v>
+        <f t="shared" ref="N8:N13" si="12">G8/G$17</f>
+        <v>2.0689655172413793E-2</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" ref="O8:O13" si="15">H8/H$17</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="O8:O13" si="13">H8/H$17</f>
+        <v>0.11152416356877323</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" ref="P8:P13" si="16">I8/I$17</f>
-        <v>0.14450867052023122</v>
+        <f t="shared" ref="P8:P13" si="14">I8/I$17</f>
+        <v>0.12096774193548387</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>x250 3</v>
+        <v>x120 3</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="4"/>
@@ -2078,11 +2243,11 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="6"/>
-        <v>x20 3</v>
+        <v>x30 3</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="7"/>
-        <v>x25 3</v>
+        <v>x30 3</v>
       </c>
       <c r="AC8" t="b">
         <f>$AA$16&gt;=$AA$17</f>
@@ -2093,36 +2258,96 @@
       </c>
       <c r="AF8" s="23">
         <f>SUM(AH8:AL8)</f>
-        <v>5.086693486030229E-2</v>
+        <v>0.19818342754388601</v>
       </c>
       <c r="AH8" s="24">
         <f>PRODUCT($AG1:AG1,AI1:$AM1)*AH4</f>
-        <v>-8.0102072059632843E-4</v>
+        <v>-8.6858844442899985E-3</v>
       </c>
       <c r="AI8" s="24">
         <f>PRODUCT($AG1:AH1,AJ1:$AM1)*AI4</f>
-        <v>2.3474887004195706E-2</v>
+        <v>9.0938125797033892E-2</v>
       </c>
       <c r="AJ8" s="24">
         <f>PRODUCT($AG1:AI1,AK1:$AM1)*AJ4</f>
-        <v>2.1502532412409906E-2</v>
+        <v>8.2381584420070084E-2</v>
       </c>
       <c r="AK8" s="24">
         <f>PRODUCT($AG1:AJ1,AL1:$AM1)*AK4</f>
-        <v>2.3204171668068244E-3</v>
+        <v>1.0626030454182955E-2</v>
       </c>
       <c r="AL8" s="24">
         <f>PRODUCT($AG1:AK1,AM1:$AM1)*AL4</f>
-        <v>4.3701189974861858E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43">
+        <v>2.2923571316889064E-2</v>
+      </c>
+      <c r="AT8">
+        <v>120</v>
+      </c>
+      <c r="AU8">
+        <v>12</v>
+      </c>
+      <c r="AV8">
+        <v>12</v>
+      </c>
+      <c r="AW8">
+        <v>30</v>
+      </c>
+      <c r="AX8">
+        <v>30</v>
+      </c>
+      <c r="AZ8">
+        <v>150</v>
+      </c>
+      <c r="BA8">
+        <v>12</v>
+      </c>
+      <c r="BB8">
+        <v>12</v>
+      </c>
+      <c r="BC8">
+        <v>30</v>
+      </c>
+      <c r="BD8">
+        <v>30</v>
+      </c>
+      <c r="BF8">
+        <v>120</v>
+      </c>
+      <c r="BG8">
+        <v>12</v>
+      </c>
+      <c r="BH8">
+        <v>12</v>
+      </c>
+      <c r="BI8">
+        <v>30</v>
+      </c>
+      <c r="BJ8">
+        <v>30</v>
+      </c>
+      <c r="BL8">
+        <v>200</v>
+      </c>
+      <c r="BM8">
+        <v>12</v>
+      </c>
+      <c r="BN8">
+        <v>12</v>
+      </c>
+      <c r="BO8">
+        <v>30</v>
+      </c>
+      <c r="BP8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
       <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5">
         <f>SUM(L22:P33)</f>
-        <v>21.689606378078846</v>
+        <v>108.48027739954291</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="8"/>
@@ -2131,43 +2356,41 @@
       <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9" s="27">
-        <v>200</v>
+      <c r="F9">
+        <v>120</v>
       </c>
       <c r="G9">
-        <f>G8</f>
         <v>12</v>
       </c>
       <c r="H9">
         <v>25</v>
       </c>
       <c r="I9">
-        <f>H10</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="L9" s="6">
+        <f t="shared" si="10"/>
+        <v>2.097902097902098E-2</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="11"/>
+        <v>0.21238938053097345</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="12"/>
-        <v>1.6736401673640166E-2</v>
-      </c>
-      <c r="M9" s="6">
+        <v>2.0689655172413793E-2</v>
+      </c>
+      <c r="O9" s="6">
         <f t="shared" si="13"/>
-        <v>0.29985007496251875</v>
-      </c>
-      <c r="N9" s="6">
+        <v>9.2936802973977689E-2</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="14"/>
-        <v>1.948051948051948E-2</v>
-      </c>
-      <c r="O9" s="6">
-        <f t="shared" si="15"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="16"/>
-        <v>0.13872832369942195</v>
+        <v>0.10080645161290322</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -2178,7 +2401,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="4"/>
-        <v>x200 4</v>
+        <v>x120 4</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="5"/>
@@ -2190,7 +2413,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="7"/>
-        <v>x24 4</v>
+        <v>x25 4</v>
       </c>
       <c r="Z9" s="12" t="s">
         <v>52</v>
@@ -2207,17 +2430,77 @@
       </c>
       <c r="AF9" s="23">
         <f>PRODUCT(AH1:AL1)</f>
-        <v>2.3204171668068244E-3</v>
+        <v>2.1490848109583498E-2</v>
       </c>
       <c r="AG9" s="5"/>
-    </row>
-    <row r="10" spans="1:43">
+      <c r="AT9">
+        <v>12</v>
+      </c>
+      <c r="AU9">
+        <v>120</v>
+      </c>
+      <c r="AV9">
+        <v>12</v>
+      </c>
+      <c r="AW9">
+        <v>25</v>
+      </c>
+      <c r="AX9">
+        <v>25</v>
+      </c>
+      <c r="AZ9">
+        <v>12</v>
+      </c>
+      <c r="BA9">
+        <v>150</v>
+      </c>
+      <c r="BB9">
+        <v>12</v>
+      </c>
+      <c r="BC9">
+        <v>25</v>
+      </c>
+      <c r="BD9">
+        <v>25</v>
+      </c>
+      <c r="BF9">
+        <v>12</v>
+      </c>
+      <c r="BG9">
+        <v>120</v>
+      </c>
+      <c r="BH9">
+        <v>12</v>
+      </c>
+      <c r="BI9">
+        <v>25</v>
+      </c>
+      <c r="BJ9">
+        <v>25</v>
+      </c>
+      <c r="BL9">
+        <v>12</v>
+      </c>
+      <c r="BM9">
+        <v>200</v>
+      </c>
+      <c r="BN9">
+        <v>12</v>
+      </c>
+      <c r="BO9">
+        <v>25</v>
+      </c>
+      <c r="BP9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5">
         <f>100*(1-(1-SUMIF(T22:X33,"&lt;&gt;0",E22:I33)/100)^B6)</f>
-        <v>1.2859064428135558</v>
+        <v>5.0151417411354204</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -2230,42 +2513,40 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:I10" si="17">E10</f>
         <v>12</v>
       </c>
-      <c r="G10" s="27">
-        <v>150</v>
+      <c r="G10">
+        <v>120</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10">
-        <f t="shared" si="17"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="L10" s="6">
+        <f t="shared" si="10"/>
+        <v>2.097902097902098E-2</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="11"/>
+        <v>2.1238938053097345E-2</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="12"/>
-        <v>1.6736401673640166E-2</v>
-      </c>
-      <c r="M10" s="6">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="O10" s="6">
         <f t="shared" si="13"/>
-        <v>1.7991004497751123E-2</v>
-      </c>
-      <c r="N10" s="6">
+        <v>8.1784386617100371E-2</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="14"/>
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="15"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="16"/>
-        <v>0.13872832369942195</v>
+        <v>8.8709677419354843E-2</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -2280,15 +2561,15 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="5"/>
-        <v>x150 5</v>
+        <v>x120 5</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="6"/>
-        <v>x24 5</v>
+        <v>x22 5</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="7"/>
-        <v>x24 5</v>
+        <v>x22 5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>53</v>
@@ -2302,16 +2583,76 @@
       </c>
       <c r="AF10" s="22">
         <f>SUM(AF4:AF9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>12</v>
+      </c>
+      <c r="AU10">
+        <v>12</v>
+      </c>
+      <c r="AV10">
+        <v>120</v>
+      </c>
+      <c r="AW10">
+        <v>22</v>
+      </c>
+      <c r="AX10">
+        <v>22</v>
+      </c>
+      <c r="AZ10">
+        <v>12</v>
+      </c>
+      <c r="BA10">
+        <v>12</v>
+      </c>
+      <c r="BB10">
+        <v>520</v>
+      </c>
+      <c r="BC10">
+        <v>22</v>
+      </c>
+      <c r="BD10">
+        <v>22</v>
+      </c>
+      <c r="BF10">
+        <v>12</v>
+      </c>
+      <c r="BG10">
+        <v>12</v>
+      </c>
+      <c r="BH10">
+        <v>120</v>
+      </c>
+      <c r="BI10">
+        <v>22</v>
+      </c>
+      <c r="BJ10">
+        <v>22</v>
+      </c>
+      <c r="BL10">
+        <v>12</v>
+      </c>
+      <c r="BM10">
+        <v>12</v>
+      </c>
+      <c r="BN10">
+        <v>200</v>
+      </c>
+      <c r="BO10">
+        <v>22</v>
+      </c>
+      <c r="BP10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
         <f>1/$B$6*(1/100*SUMPRODUCT(F22:I33,U22:X33,U22:X33)-(1/100*SUMPRODUCT(F22:I33,U22:X33))^2)</f>
-        <v>7.576995615248606</v>
+        <v>51.000670763814107</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -2324,18 +2665,15 @@
         <v>12</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F10:I13" si="18">E11</f>
         <v>12</v>
       </c>
       <c r="G11">
-        <f>F11</f>
         <v>12</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
-        <f t="shared" ref="H11:I11" si="19">H11</f>
         <v>5</v>
       </c>
       <c r="K11" s="12">
@@ -2343,24 +2681,24 @@
         <v>6</v>
       </c>
       <c r="L11" s="6">
+        <f t="shared" si="10"/>
+        <v>2.097902097902098E-2</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="11"/>
+        <v>2.1238938053097345E-2</v>
+      </c>
+      <c r="N11" s="6">
         <f t="shared" si="12"/>
-        <v>1.6736401673640166E-2</v>
-      </c>
-      <c r="M11" s="6">
+        <v>2.0689655172413793E-2</v>
+      </c>
+      <c r="O11" s="6">
         <f t="shared" si="13"/>
-        <v>1.7991004497751123E-2</v>
-      </c>
-      <c r="N11" s="6">
+        <v>1.858736059479554E-2</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="14"/>
-        <v>1.948051948051948E-2</v>
-      </c>
-      <c r="O11" s="6">
-        <f t="shared" si="15"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="16"/>
-        <v>2.8901734104046242E-2</v>
+        <v>2.0161290322580645E-2</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
@@ -2390,7 +2728,7 @@
       </c>
       <c r="AA11" s="5">
         <f>B10-(AA9-AA10)</f>
-        <v>-8.7140935571864446</v>
+        <v>-4.9848582588645796</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>37</v>
@@ -2399,14 +2737,74 @@
         <f>$E$7=INT($E$7)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:43">
+      <c r="AT11">
+        <v>12</v>
+      </c>
+      <c r="AU11">
+        <v>12</v>
+      </c>
+      <c r="AV11">
+        <v>12</v>
+      </c>
+      <c r="AW11">
+        <v>5</v>
+      </c>
+      <c r="AX11">
+        <v>5</v>
+      </c>
+      <c r="AZ11">
+        <v>12</v>
+      </c>
+      <c r="BA11">
+        <v>12</v>
+      </c>
+      <c r="BB11">
+        <v>12</v>
+      </c>
+      <c r="BC11">
+        <v>5</v>
+      </c>
+      <c r="BD11">
+        <v>5</v>
+      </c>
+      <c r="BF11">
+        <v>12</v>
+      </c>
+      <c r="BG11">
+        <v>12</v>
+      </c>
+      <c r="BH11">
+        <v>12</v>
+      </c>
+      <c r="BI11">
+        <v>5</v>
+      </c>
+      <c r="BJ11">
+        <v>5</v>
+      </c>
+      <c r="BL11">
+        <v>12</v>
+      </c>
+      <c r="BM11">
+        <v>12</v>
+      </c>
+      <c r="BN11">
+        <v>12</v>
+      </c>
+      <c r="BO11">
+        <v>5</v>
+      </c>
+      <c r="BP11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="5">
         <f>SQRT(B11)</f>
-        <v>2.752634304670456</v>
+        <v>7.1414753912489335</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -2419,18 +2817,15 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="G12">
-        <f>F12</f>
         <v>10</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <f t="shared" ref="H12:I12" si="20">H12</f>
         <v>5</v>
       </c>
       <c r="K12" s="12">
@@ -2438,24 +2833,24 @@
         <v>7</v>
       </c>
       <c r="L12" s="6">
+        <f t="shared" si="10"/>
+        <v>1.7482517482517484E-2</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="11"/>
+        <v>1.7699115044247787E-2</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="12"/>
-        <v>1.3947001394700139E-2</v>
-      </c>
-      <c r="M12" s="6">
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="O12" s="6">
         <f t="shared" si="13"/>
-        <v>1.4992503748125937E-2</v>
-      </c>
-      <c r="N12" s="6">
+        <v>1.858736059479554E-2</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="14"/>
-        <v>1.6233766233766232E-2</v>
-      </c>
-      <c r="O12" s="6">
-        <f t="shared" si="15"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="16"/>
-        <v>2.8901734104046242E-2</v>
+        <v>2.0161290322580645E-2</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
@@ -2485,7 +2880,7 @@
       </c>
       <c r="AA12" s="5">
         <f>(AA9+AA10)-B10</f>
-        <v>38.714093557186445</v>
+        <v>34.984858258864577</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>37</v>
@@ -2499,14 +2894,74 @@
       </c>
       <c r="AF12" s="23">
         <f>SUM(AF13:AF15)</f>
-        <v>0.38694025520274344</v>
+        <v>0.76656650215915234</v>
       </c>
       <c r="AG12">
         <f>1/AF12</f>
-        <v>2.5843783027331551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43">
+        <v>1.3045182605597119</v>
+      </c>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+      <c r="AU12">
+        <v>10</v>
+      </c>
+      <c r="AV12">
+        <v>10</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>5</v>
+      </c>
+      <c r="AZ12">
+        <v>10</v>
+      </c>
+      <c r="BA12">
+        <v>10</v>
+      </c>
+      <c r="BB12">
+        <v>10</v>
+      </c>
+      <c r="BC12">
+        <v>5</v>
+      </c>
+      <c r="BD12">
+        <v>5</v>
+      </c>
+      <c r="BF12">
+        <v>10</v>
+      </c>
+      <c r="BG12">
+        <v>10</v>
+      </c>
+      <c r="BH12">
+        <v>10</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>5</v>
+      </c>
+      <c r="BL12">
+        <v>10</v>
+      </c>
+      <c r="BM12">
+        <v>10</v>
+      </c>
+      <c r="BN12">
+        <v>10</v>
+      </c>
+      <c r="BO12">
+        <v>5</v>
+      </c>
+      <c r="BP12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -2518,18 +2973,15 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
-        <f>F13</f>
         <v>5</v>
       </c>
       <c r="I13">
-        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="K13" s="12">
@@ -2537,24 +2989,24 @@
         <v>8</v>
       </c>
       <c r="L13" s="6">
+        <f t="shared" si="10"/>
+        <v>8.7412587412587419E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="11"/>
+        <v>8.8495575221238937E-3</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="12"/>
-        <v>6.9735006973500697E-3</v>
-      </c>
-      <c r="M13" s="6">
+        <v>5.1724137931034482E-3</v>
+      </c>
+      <c r="O13" s="6">
         <f t="shared" si="13"/>
-        <v>7.4962518740629685E-3</v>
-      </c>
-      <c r="N13" s="6">
+        <v>1.858736059479554E-2</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="14"/>
-        <v>4.87012987012987E-3</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="15"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="P13" s="6">
-        <f t="shared" si="16"/>
-        <v>2.8901734104046242E-2</v>
+        <v>2.0161290322580645E-2</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
@@ -2588,18 +3040,78 @@
       </c>
       <c r="AF13" s="23">
         <f>AF7</f>
-        <v>0.33375290317563433</v>
+        <v>0.54689222650568292</v>
       </c>
       <c r="AG13">
         <f>1/AF13</f>
-        <v>2.9962286184931233</v>
+        <v>1.8285138305757371</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" ref="AH13:AH15" si="21">AF13/AF$12*100</f>
-        <v>86.254376144130902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43">
+        <f t="shared" ref="AH13:AH15" si="15">AF13/AF$12*100</f>
+        <v>71.343089603482142</v>
+      </c>
+      <c r="AT13">
+        <v>5</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>5</v>
+      </c>
+      <c r="AX13">
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <v>5</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>3</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>5</v>
+      </c>
+      <c r="BF13">
+        <v>5</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+      <c r="BH13">
+        <v>3</v>
+      </c>
+      <c r="BI13">
+        <v>5</v>
+      </c>
+      <c r="BJ13">
+        <v>5</v>
+      </c>
+      <c r="BL13">
+        <v>5</v>
+      </c>
+      <c r="BM13">
+        <v>5</v>
+      </c>
+      <c r="BN13">
+        <v>3</v>
+      </c>
+      <c r="BO13">
+        <v>5</v>
+      </c>
+      <c r="BP13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
       <c r="B14" s="5"/>
       <c r="D14" s="12">
         <f t="shared" si="8"/>
@@ -2625,24 +3137,24 @@
         <v>9</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" ref="L14:P17" si="22">E14/E$17</f>
-        <v>2.7894002789400278E-3</v>
+        <f t="shared" ref="L14:P17" si="16">E14/E$17</f>
+        <v>3.4965034965034965E-3</v>
       </c>
       <c r="M14" s="6">
-        <f t="shared" si="22"/>
-        <v>2.9985007496251873E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5398230088495575E-3</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="22"/>
-        <v>3.246753246753247E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="22"/>
-        <v>1.1111111111111112E-2</v>
+        <f t="shared" si="16"/>
+        <v>7.4349442379182153E-3</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="22"/>
-        <v>1.1560693641618497E-2</v>
+        <f t="shared" si="16"/>
+        <v>8.0645161290322578E-3</v>
       </c>
       <c r="Q14" s="7">
         <v>0</v>
@@ -2672,7 +3184,7 @@
       </c>
       <c r="AA14" s="21">
         <f>MAX(N22:P33)-MIN(N22:P33)</f>
-        <v>5.9308497139790699</v>
+        <v>27.369614887893121</v>
       </c>
       <c r="AC14" t="b">
         <f>$E$10=INT($E$10)</f>
@@ -2683,87 +3195,143 @@
       </c>
       <c r="AF14" s="23">
         <f>AF8</f>
-        <v>5.086693486030229E-2</v>
+        <v>0.19818342754388601</v>
       </c>
       <c r="AG14">
         <f>1/AF14</f>
-        <v>19.659136190264586</v>
+        <v>5.0458305842881774</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="21"/>
-        <v>13.145940277950599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43">
+        <f t="shared" si="15"/>
+        <v>25.85339001713119</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BD14">
+        <v>2</v>
+      </c>
+      <c r="BF14">
+        <v>2</v>
+      </c>
+      <c r="BG14">
+        <v>2</v>
+      </c>
+      <c r="BH14">
+        <v>2</v>
+      </c>
+      <c r="BI14">
+        <v>2</v>
+      </c>
+      <c r="BJ14">
+        <v>2</v>
+      </c>
+      <c r="BL14">
+        <v>2</v>
+      </c>
+      <c r="BM14">
+        <v>2</v>
+      </c>
+      <c r="BN14">
+        <v>2</v>
+      </c>
+      <c r="BO14">
+        <v>2</v>
+      </c>
+      <c r="BP14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
       <c r="D15" s="12">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="E15">
-        <f>ROUND(E18*4/350,0)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:I15" si="23">ROUND(F18*4/350,0)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="23"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <f>ROUND(I18*4/230,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="12">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="22"/>
-        <v>6.9735006973500697E-3</v>
+        <f t="shared" si="16"/>
+        <v>5.244755244755245E-3</v>
       </c>
       <c r="M15" s="6">
-        <f t="shared" si="22"/>
-        <v>7.4962518740629685E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.5398230088495575E-3</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" si="22"/>
-        <v>8.1168831168831161E-3</v>
+        <f t="shared" si="16"/>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="22"/>
-        <v>2.2222222222222223E-2</v>
+        <f t="shared" si="16"/>
+        <v>7.4349442379182153E-3</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="22"/>
-        <v>1.7341040462427744E-2</v>
+        <f t="shared" si="16"/>
+        <v>8.0645161290322578E-3</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="3"/>
-        <v>x5 10</v>
+        <v>x3 10</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="4"/>
-        <v>x5 10</v>
+        <v>x2 10</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="5"/>
-        <v>x5 10</v>
+        <v>x2 10</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="6"/>
-        <v>x4 10</v>
+        <v>x2 10</v>
       </c>
       <c r="X15" t="str">
         <f t="shared" si="7"/>
-        <v>x3 10</v>
+        <v>x2 10</v>
       </c>
       <c r="AC15" t="b">
         <f>$E$11=INT($E$11)</f>
@@ -2774,21 +3342,81 @@
       </c>
       <c r="AF15" s="23">
         <f>AF9</f>
-        <v>2.3204171668068244E-3</v>
+        <v>2.1490848109583498E-2</v>
       </c>
       <c r="AG15">
         <f>1/AF15</f>
-        <v>430.95699096905122</v>
+        <v>46.531434911313063</v>
       </c>
       <c r="AH15" s="5">
-        <f t="shared" si="21"/>
-        <v>0.59968357791850968</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43">
+        <f t="shared" si="15"/>
+        <v>2.8035203793866836</v>
+      </c>
+      <c r="AT15">
+        <v>3</v>
+      </c>
+      <c r="AU15">
+        <v>2</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AZ15">
+        <v>2</v>
+      </c>
+      <c r="BA15">
+        <v>3</v>
+      </c>
+      <c r="BB15">
+        <v>3</v>
+      </c>
+      <c r="BC15">
+        <v>3</v>
+      </c>
+      <c r="BD15">
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <v>7</v>
+      </c>
+      <c r="BG15">
+        <v>7</v>
+      </c>
+      <c r="BH15">
+        <v>7</v>
+      </c>
+      <c r="BI15">
+        <v>7</v>
+      </c>
+      <c r="BJ15">
+        <v>7</v>
+      </c>
+      <c r="BL15">
+        <v>1</v>
+      </c>
+      <c r="BM15">
+        <v>3</v>
+      </c>
+      <c r="BN15">
+        <v>3</v>
+      </c>
+      <c r="BO15">
+        <v>2</v>
+      </c>
+      <c r="BP15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
       <c r="A16">
         <f>1-(1-4*E16/E17)^5</f>
-        <v>0.10670621694510263</v>
+        <v>0.13225161523341122</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="12">
@@ -2802,117 +3430,177 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K16" s="12">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="L16" s="6">
-        <f t="shared" si="22"/>
-        <v>5.5788005578800556E-3</v>
+        <f t="shared" si="16"/>
+        <v>6.993006993006993E-3</v>
       </c>
       <c r="M16" s="6">
-        <f t="shared" si="22"/>
-        <v>5.9970014992503746E-3</v>
+        <f t="shared" si="16"/>
+        <v>7.0796460176991149E-3</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" si="22"/>
-        <v>9.74025974025974E-3</v>
+        <f t="shared" si="16"/>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="22"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.8327137546468404E-2</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="22"/>
-        <v>5.7803468208092484E-2</v>
+        <f t="shared" si="16"/>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="Q16" s="7">
         <v>0</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" ref="T16" si="24">"x"&amp;E16&amp;" "&amp;$D16</f>
+        <f t="shared" ref="T16" si="17">"x"&amp;E16&amp;" "&amp;$D16</f>
         <v>x4 11</v>
       </c>
       <c r="U16" t="str">
-        <f t="shared" ref="U16" si="25">"x"&amp;F16&amp;" "&amp;$D16</f>
+        <f t="shared" ref="U16" si="18">"x"&amp;F16&amp;" "&amp;$D16</f>
         <v>x4 11</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" ref="V16" si="26">"x"&amp;G16&amp;" "&amp;$D16</f>
-        <v>x6 11</v>
+        <f t="shared" ref="V16" si="19">"x"&amp;G16&amp;" "&amp;$D16</f>
+        <v>x7 11</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" ref="W16" si="27">"x"&amp;H16&amp;" "&amp;$D16</f>
-        <v>x10 11</v>
+        <f t="shared" ref="W16" si="20">"x"&amp;H16&amp;" "&amp;$D16</f>
+        <v>x13 11</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" ref="X16" si="28">"x"&amp;I16&amp;" "&amp;$D16</f>
-        <v>x10 11</v>
+        <f t="shared" ref="X16" si="21">"x"&amp;I16&amp;" "&amp;$D16</f>
+        <v>x12 11</v>
       </c>
       <c r="Z16" s="12" t="s">
         <v>58</v>
       </c>
       <c r="AA16" s="21">
         <f>MAX(E5:I16)</f>
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="AC16" t="b">
         <f>$E$12=INT($E$12)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AT16">
+        <v>4</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AV16">
+        <v>7</v>
+      </c>
+      <c r="AW16">
+        <v>13</v>
+      </c>
+      <c r="AX16">
+        <v>12</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
+      <c r="BJ16">
+        <v>0</v>
+      </c>
+      <c r="BL16">
+        <v>0</v>
+      </c>
+      <c r="BM16">
+        <v>0</v>
+      </c>
+      <c r="BN16">
+        <v>0</v>
+      </c>
+      <c r="BO16">
+        <v>0</v>
+      </c>
+      <c r="BP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
       <c r="A17">
         <f>1/A16^3</f>
-        <v>823.05873917924941</v>
+        <v>432.31175561846908</v>
       </c>
       <c r="B17" s="5"/>
       <c r="E17" s="1">
         <f>SUM(E5:E16)</f>
-        <v>717</v>
+        <v>572</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(F5:F16)</f>
-        <v>667</v>
+        <v>565</v>
       </c>
       <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="I17" s="1">
         <f>SUM($I$5:I16)</f>
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M17" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="N17" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Z17" s="12" t="s">
@@ -2929,18 +3617,78 @@
       <c r="AE17">
         <v>36.976999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
       <c r="B18" s="5"/>
       <c r="E18">
         <v>400</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:I18" si="29">E18</f>
+        <f t="shared" ref="F18:G18" si="22">E18</f>
         <v>400</v>
       </c>
       <c r="G18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="22"/>
         <v>400</v>
       </c>
       <c r="H18">
@@ -2958,10 +3706,10 @@
         <v>11.128</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:68">
       <c r="AA19">
         <f>_xlfn.STDEV.S(N22:P33)</f>
-        <v>1.4216902316312305</v>
+        <v>7.2302801789016975</v>
       </c>
       <c r="AC19" t="b">
         <f>$E$15=INT($E$15)</f>
@@ -2971,7 +3719,7 @@
         <v>8.7390000000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:68">
       <c r="B20" s="5"/>
       <c r="D20" s="14" t="s">
         <v>16</v>
@@ -2981,14 +3729,14 @@
       </c>
       <c r="AA20" s="21">
         <f>SUMSQ(N22:P33)-SUM(N22:P33)*SUM(N22:P33)</f>
-        <v>-386.62916513106154</v>
+        <v>-9611.3892115954077</v>
       </c>
       <c r="AC20" t="b">
         <f>$E$16=INT($E$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:68">
       <c r="E21" s="12" t="s">
         <v>17</v>
       </c>
@@ -3036,59 +3784,59 @@
       </c>
       <c r="AA21">
         <f>_xlfn.VAR.S(N22:P33)</f>
-        <v>2.0212031147156622</v>
+        <v>52.276951465418769</v>
       </c>
       <c r="AC21" t="b">
         <f>$F$5=INT($F$5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:68">
       <c r="B22" s="2"/>
       <c r="D22" s="12">
         <v>0</v>
       </c>
       <c r="E22" s="5">
         <f>L5*(1-M5)*100</f>
-        <v>49.380121654653848</v>
+        <v>52.379478928151492</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" ref="F22:I24" si="30">E22/(1-M5)*M5*(1-N5)</f>
-        <v>1.4768739088587535</v>
+        <f t="shared" ref="F22:I24" si="23">E22/(1-M5)*M5*(1-N5)</f>
+        <v>3.318744118255867</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="30"/>
-        <v>4.1299605952425995E-2</v>
+        <f t="shared" si="23"/>
+        <v>0.19100028107269065</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="30"/>
-        <v>7.3050170066140761E-3</v>
+        <f t="shared" si="23"/>
+        <v>4.5988646160425591E-2</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="30"/>
-        <v>9.5490418387112104E-4</v>
+        <f t="shared" si="23"/>
+        <v>8.8439704154664595E-3</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" ref="L22:L33" si="31">E22*T22</f>
+        <f t="shared" ref="L22:L33" si="24">E22*T22</f>
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <f t="shared" ref="M22:M33" si="32">F22*U22</f>
+        <f t="shared" ref="M22:M33" si="25">F22*U22</f>
         <v>0</v>
       </c>
       <c r="N22" s="16">
-        <f t="shared" ref="N22:N33" si="33">G22*V22</f>
+        <f t="shared" ref="N22:N33" si="26">G22*V22</f>
         <v>0</v>
       </c>
       <c r="O22" s="16">
-        <f t="shared" ref="O22:O33" si="34">H22*W22</f>
+        <f t="shared" ref="O22:O33" si="27">H22*W22</f>
         <v>0</v>
       </c>
       <c r="P22" s="16">
-        <f t="shared" ref="P22:P33" si="35">I22*X22</f>
+        <f t="shared" ref="P22:P33" si="28">I22*X22</f>
         <v>0</v>
       </c>
       <c r="S22" s="12">
@@ -3111,65 +3859,65 @@
       </c>
       <c r="AA22" s="21">
         <f>SUM(N22:P33)</f>
-        <v>21.689606378078846</v>
+        <v>108.48027739954291</v>
       </c>
       <c r="AC22" t="b">
         <f>$F$6=INT($F$6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:68">
       <c r="B23" s="2"/>
       <c r="D23" s="12">
-        <f t="shared" ref="D23:D33" si="36">D22+1</f>
+        <f t="shared" ref="D23:D33" si="29">D22+1</f>
         <v>1</v>
       </c>
       <c r="E23" s="5">
         <f>L6*(1-M6)*100</f>
-        <v>1.2629668429383634</v>
+        <v>2.8405223095488585</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="30"/>
-        <v>1.4768739088587535</v>
+        <f t="shared" si="23"/>
+        <v>3.2150333645603713</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="30"/>
-        <v>4.1299605952425995E-2</v>
+        <f t="shared" si="23"/>
+        <v>0.20273788805846757</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="30"/>
-        <v>6.8275649146785156E-3</v>
+        <f t="shared" si="23"/>
+        <v>2.6845135198613826E-2</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="30"/>
-        <v>1.4323562758066816E-3</v>
+        <f t="shared" si="23"/>
+        <v>8.5675963399831356E-3</v>
       </c>
       <c r="K23" s="12">
-        <f t="shared" ref="K23:K33" si="37">K22+1</f>
+        <f t="shared" ref="K23:K33" si="30">K22+1</f>
         <v>1</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M23" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N23" s="16">
-        <f t="shared" si="33"/>
-        <v>5.5754468035775098</v>
+        <f t="shared" si="26"/>
+        <v>27.369614887893121</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="34"/>
-        <v>2.7651637904447988</v>
+        <f t="shared" si="27"/>
+        <v>10.872279755438599</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="35"/>
-        <v>1.9336809723390203</v>
+        <f t="shared" si="28"/>
+        <v>11.566255058977234</v>
       </c>
       <c r="S23" s="12">
-        <f t="shared" ref="S23:S33" si="38">S22+1</f>
+        <f t="shared" ref="S23:S33" si="31">S22+1</f>
         <v>1</v>
       </c>
       <c r="T23">
@@ -3189,66 +3937,66 @@
       </c>
       <c r="AA23">
         <f>SUMSQ(N22:P33)</f>
-        <v>83.809859704937026</v>
+        <v>2156.5813730863729</v>
       </c>
       <c r="AC23" t="b">
         <f>$F$7=INT($F$7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:68">
       <c r="B24" s="2"/>
       <c r="C24" s="5"/>
       <c r="D24" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="E24" s="5">
         <f>L7*(1-M7)*100</f>
-        <v>2.7057600906659642</v>
+        <v>5.8481341667182374</v>
       </c>
       <c r="F24" s="5">
+        <f t="shared" si="23"/>
+        <v>0.19973922933947344</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" si="23"/>
+        <v>0.19100028107269065</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="23"/>
+        <v>4.5988646160425591E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="23"/>
+        <v>8.8439704154664595E-3</v>
+      </c>
+      <c r="K24" s="12">
         <f t="shared" si="30"/>
-        <v>3.4216440657571554E-2</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="30"/>
-        <v>4.3932220103548664E-2</v>
-      </c>
-      <c r="H24" s="9">
-        <f t="shared" si="30"/>
-        <v>4.856668840926984E-3</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="30"/>
-        <v>6.3485867201659913E-4</v>
-      </c>
-      <c r="K24" s="12">
-        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="L24" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="26"/>
+        <v>25.785037944813237</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="27"/>
+        <v>18.625401694972364</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="28"/>
+        <v>11.93936006087972</v>
+      </c>
+      <c r="S24" s="12">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="16">
-        <f t="shared" si="33"/>
-        <v>5.9308497139790699</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="34"/>
-        <v>1.9669508805754286</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="35"/>
-        <v>0.8570592072224088</v>
-      </c>
-      <c r="S24" s="12">
-        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="T24">
@@ -3275,60 +4023,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:68">
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" ref="E25:E30" si="39">L8*(1-M8)*100</f>
-        <v>34.240202074694871</v>
+        <f t="shared" ref="E25:E30" si="32">L8*(1-M8)*100</f>
+        <v>20.533448852032922</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" ref="F25:I25" si="40">E25/(1-M8)*M8*(1-N8)</f>
-        <v>0.61508125467777441</v>
+        <f t="shared" ref="F25:I25" si="33">E25/(1-M8)*M8*(1-N8)</f>
+        <v>0.4363533933262343</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="40"/>
-        <v>1.086236211351478E-2</v>
+        <f t="shared" si="33"/>
+        <v>8.1906221010238749E-3</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="40"/>
-        <v>1.1615820757226788E-3</v>
+        <f t="shared" si="33"/>
+        <v>9.0374322683047881E-4</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="40"/>
-        <v>1.9621318846666872E-4</v>
+        <f t="shared" si="33"/>
+        <v>1.243683339674971E-4</v>
       </c>
       <c r="K25" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M25" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" si="33"/>
-        <v>0.97761259021633018</v>
+        <f t="shared" si="26"/>
+        <v>0.73715598909214874</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="34"/>
-        <v>0.26135596703760272</v>
+        <f t="shared" si="27"/>
+        <v>0.20334222603685773</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="35"/>
-        <v>0.1236143087340013</v>
+        <f t="shared" si="28"/>
+        <v>7.8352050399523171E-2</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="S25" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="T25">
@@ -3348,66 +4096,66 @@
       </c>
       <c r="AA25" s="21">
         <f>AA23/AA24-(AA22/AA24)^2</f>
-        <v>1.9650585837513384</v>
+        <v>50.824813924712686</v>
       </c>
       <c r="AC25" t="b">
         <f>$F$9=INT($F$9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:68">
       <c r="B26" s="5"/>
       <c r="D26" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="39"/>
-        <v>1.1717990377196337</v>
+        <f t="shared" si="32"/>
+        <v>1.6523299709140418</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" ref="F26:I26" si="41">E26/(1-M9)*M9*(1-N9)</f>
-        <v>0.49206500374221962</v>
+        <f t="shared" ref="F26:I26" si="34">E26/(1-M9)*M9*(1-N9)</f>
+        <v>0.43635339332623435</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="41"/>
-        <v>8.4183306379739548E-3</v>
+        <f t="shared" si="34"/>
+        <v>8.3619740278235398E-3</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="41"/>
-        <v>1.1694306032613458E-3</v>
+        <f t="shared" si="34"/>
+        <v>7.7039273540977372E-4</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="41"/>
-        <v>1.8836466092800197E-4</v>
+        <f t="shared" si="34"/>
+        <v>8.6366898588539657E-5</v>
       </c>
       <c r="K26" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="L26" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M26" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="33"/>
-        <v>0.60611980593412473</v>
+        <f t="shared" si="26"/>
+        <v>0.60206213000329489</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="34"/>
-        <v>0.15787313144028167</v>
+        <f t="shared" si="27"/>
+        <v>0.10400301928031945</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="35"/>
-        <v>6.7811277934080705E-2</v>
+        <f t="shared" si="28"/>
+        <v>3.1092083491874277E-2</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="S26" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="T26">
@@ -3430,60 +4178,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:68">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="39"/>
-        <v>1.6435296995853537</v>
+        <f t="shared" si="32"/>
+        <v>2.0533448852032925</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" ref="F27:I27" si="42">E27/(1-M10)*M10*(1-N10)</f>
-        <v>2.2778373352040492E-2</v>
+        <f t="shared" ref="F27:I27" si="35">E27/(1-M10)*M10*(1-N10)</f>
+        <v>3.5338479036983769E-2</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="42"/>
-        <v>6.3544818364061452E-3</v>
+        <f t="shared" si="35"/>
+        <v>8.464785183903336E-3</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="42"/>
-        <v>8.4199003434816855E-4</v>
+        <f t="shared" si="35"/>
+        <v>6.8706595165155069E-4</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="42"/>
-        <v>1.3562255586816135E-4</v>
+        <f t="shared" si="35"/>
+        <v>6.688252626696512E-5</v>
       </c>
       <c r="K27" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="L27" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M27" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="33"/>
-        <v>0.34314201916593184</v>
+        <f t="shared" si="26"/>
+        <v>0.45709839993078016</v>
       </c>
       <c r="O27" s="8">
-        <f t="shared" si="34"/>
-        <v>7.5779103091335176E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.183593564863956E-2</v>
       </c>
       <c r="P27" s="8">
-        <f t="shared" si="35"/>
-        <v>2.4412060056269044E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.2038854728053721E-2</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="S27" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="T27">
@@ -3506,59 +4254,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:68">
       <c r="C28" s="5"/>
       <c r="D28" s="12">
+        <f t="shared" si="29"/>
+        <v>6</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="32"/>
+        <v>2.0533448852032925</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" ref="F28:I28" si="36">E28/(1-M11)*M11*(1-N11)</f>
+        <v>4.3635339332623431E-2</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="36"/>
+        <v>9.0473817350221898E-4</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="36"/>
+        <v>1.6789725085612112E-5</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="36"/>
+        <v>3.4546759435415865E-7</v>
+      </c>
+      <c r="K28" s="12">
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
-      <c r="E28" s="5">
-        <f t="shared" si="39"/>
-        <v>1.6435296995853537</v>
-      </c>
-      <c r="F28" s="5">
-        <f t="shared" ref="F28:I28" si="43">E28/(1-M11)*M11*(1-N11)</f>
-        <v>2.9523900224533169E-2</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="43"/>
-        <v>5.7027401095952588E-4</v>
-      </c>
-      <c r="H28" s="9">
-        <f t="shared" si="43"/>
-        <v>1.5822631517952161E-5</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="43"/>
-        <v>4.709116523200048E-7</v>
-      </c>
-      <c r="K28" s="12">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
       <c r="L28" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M28" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="33"/>
-        <v>1.5397398295907199E-2</v>
+        <f t="shared" si="26"/>
+        <v>2.4427930684559913E-2</v>
       </c>
       <c r="O28" s="8">
-        <f t="shared" si="34"/>
-        <v>7.1201841830784726E-4</v>
+        <f t="shared" si="27"/>
+        <v>7.5553762885254504E-4</v>
       </c>
       <c r="P28" s="8">
-        <f t="shared" si="35"/>
-        <v>4.2382048708800429E-5</v>
+        <f t="shared" si="28"/>
+        <v>3.1092083491874276E-5</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="S28" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="T28">
@@ -3581,58 +4329,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:68">
       <c r="D29" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" si="39"/>
-        <v>1.3737900924014981</v>
+        <f t="shared" si="32"/>
+        <v>1.7173092394331333</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" ref="F29:I29" si="44">E29/(1-M12)*M12*(1-N12)</f>
-        <v>2.0570598252468614E-2</v>
+        <f t="shared" ref="F29:I29" si="37">E29/(1-M12)*M12*(1-N12)</f>
+        <v>3.0409017287259581E-2</v>
       </c>
       <c r="G29" s="5">
-        <f t="shared" si="44"/>
-        <v>3.300196822682441E-4</v>
+        <f t="shared" si="37"/>
+        <v>5.2357533188785821E-4</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="44"/>
-        <v>9.1566154617778708E-6</v>
+        <f t="shared" si="37"/>
+        <v>9.7162760912107115E-6</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="44"/>
-        <v>2.7251831731481757E-7</v>
+        <f t="shared" si="37"/>
+        <v>1.9992337636236032E-7</v>
       </c>
       <c r="K29" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" si="31"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" si="33"/>
-        <v>5.9403542808283936E-3</v>
+        <f t="shared" si="26"/>
+        <v>9.4243559739814482E-3</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" si="34"/>
-        <v>2.4722861746800251E-4</v>
+        <f t="shared" si="27"/>
+        <v>2.6233945446268921E-4</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" si="35"/>
-        <v>1.4715989135000149E-5</v>
+        <f t="shared" si="28"/>
+        <v>1.0795862323567457E-5</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="S29" s="12">
-        <f t="shared" si="38"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="T29">
@@ -3655,57 +4403,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:68">
       <c r="D30" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="E30" s="5">
-        <f t="shared" si="39"/>
-        <v>0.69212255796787792</v>
+        <f t="shared" si="32"/>
+        <v>0.86639024692122046</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" ref="F30:I30" si="45">E30/(1-M13)*M13*(1-N13)</f>
-        <v>5.2020531059254367E-3</v>
+        <f t="shared" ref="F30:I30" si="38">E30/(1-M13)*M13*(1-N13)</f>
+        <v>7.6956153398020982E-3</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" si="45"/>
-        <v>2.475147617011831E-5</v>
+        <f t="shared" si="38"/>
+        <v>3.9268149891589372E-5</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="45"/>
-        <v>6.8674615963334027E-7</v>
+        <f t="shared" si="38"/>
+        <v>7.287207068408036E-7</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="45"/>
-        <v>2.0438873798611321E-8</v>
+        <f t="shared" si="38"/>
+        <v>1.4994253227177025E-8</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="L30" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="26"/>
+        <v>1.9634074945794685E-4</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="27"/>
+        <v>6.5584863615672325E-6</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="28"/>
+        <v>4.0484483713377968E-7</v>
+      </c>
+      <c r="S30" s="12">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="16">
-        <f t="shared" si="33"/>
-        <v>1.2375738085059154E-4</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="34"/>
-        <v>6.1807154367000622E-6</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="35"/>
-        <v>5.5184959256250564E-7</v>
-      </c>
-      <c r="S30" s="12">
-        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="T30">
@@ -3728,57 +4476,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:68">
       <c r="D31" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="E31" s="5">
         <f>L14*(1-M14)*100</f>
-        <v>0.27810362601126215</v>
+        <v>0.34841264929760501</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" ref="F31:I33" si="46">E31/(1-M14)*M14*(1-N14)</f>
-        <v>8.3368629221225931E-4</v>
+        <f t="shared" ref="F31:I33" si="39">E31/(1-M14)*M14*(1-N14)</f>
+        <v>1.233432420493757E-3</v>
       </c>
       <c r="G31" s="5">
-        <f t="shared" si="46"/>
-        <v>2.6854173002855986E-6</v>
+        <f t="shared" si="39"/>
+        <v>4.2362004125472159E-6</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="46"/>
-        <v>2.9824404646933648E-8</v>
+        <f t="shared" si="39"/>
+        <v>3.1475936374490011E-8</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="46"/>
-        <v>3.488234461629666E-10</v>
+        <f t="shared" si="39"/>
+        <v>2.5590192174382121E-10</v>
       </c>
       <c r="K31" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="L31" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="26"/>
+        <v>2.1181002062736079E-5</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="27"/>
+        <v>2.8328342737041007E-7</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="28"/>
+        <v>4.6062345913887822E-9</v>
+      </c>
+      <c r="S31" s="12">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <f t="shared" si="33"/>
-        <v>1.3427086501427993E-5</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="34"/>
-        <v>2.6841964182240286E-7</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="35"/>
-        <v>6.2788220309333991E-9</v>
-      </c>
-      <c r="S31" s="12">
-        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="T31">
@@ -3801,57 +4549,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:68">
       <c r="D32" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="E32" s="5">
         <f>L15*(1-M15)*100</f>
-        <v>0.69212255796787792</v>
+        <v>0.52261897394640755</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="46"/>
-        <v>5.1850806651230702E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.8501486307406355E-3</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" si="46"/>
-        <v>4.1488188628007826E-5</v>
+        <f t="shared" si="39"/>
+        <v>6.3543006188208238E-6</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="46"/>
-        <v>9.2656227887037973E-7</v>
+        <f t="shared" si="39"/>
+        <v>4.7213904561735003E-8</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="46"/>
-        <v>1.6351099038889053E-8</v>
+        <f t="shared" si="39"/>
+        <v>3.8385288261573176E-10</v>
       </c>
       <c r="K32" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="L32" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="26"/>
+        <v>1.906290185646247E-5</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="27"/>
+        <v>3.3049733193214505E-7</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="28"/>
+        <v>6.9093518870831716E-9</v>
+      </c>
+      <c r="S32" s="12">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
-        <f t="shared" si="33"/>
-        <v>1.2446456588402347E-4</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="34"/>
-        <v>6.4859359520926578E-6</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="35"/>
-        <v>2.9431978270000296E-7</v>
-      </c>
-      <c r="S32" s="12">
-        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="T32">
@@ -3876,55 +4624,55 @@
     </row>
     <row r="33" spans="2:29">
       <c r="D33" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="E33" s="5">
         <f>L16*(1-M16)*100</f>
-        <v>0.55453444825704301</v>
+        <v>0.69434989788972079</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="46"/>
-        <v>3.3130204446220079E-3</v>
+        <f t="shared" si="39"/>
+        <v>4.8910503594665937E-3</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="46"/>
-        <v>3.0776692654958541E-5</v>
+        <f t="shared" si="39"/>
+        <v>5.6863454226851018E-5</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="46"/>
-        <v>1.7057466517369066E-6</v>
+        <f t="shared" si="39"/>
+        <v>2.7478748356851521E-6</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="46"/>
-        <v>1.0464703384888997E-7</v>
+        <f t="shared" si="39"/>
+        <v>1.3972244927212638E-7</v>
       </c>
       <c r="K33" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="L33" s="16">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="26"/>
+        <v>1.7059036268055305E-4</v>
+      </c>
+      <c r="O33" s="8">
+        <f t="shared" si="27"/>
+        <v>1.9235123849796065E-5</v>
+      </c>
+      <c r="P33" s="8">
+        <f t="shared" si="28"/>
+        <v>1.2575020434491375E-6</v>
+      </c>
+      <c r="S33" s="12">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="16">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="16">
-        <f t="shared" si="33"/>
-        <v>9.2330077964875623E-5</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="34"/>
-        <v>1.1940226562158346E-5</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="35"/>
-        <v>9.418233046400097E-7</v>
-      </c>
-      <c r="S33" s="12">
-        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="T33">
@@ -4818,23 +5566,23 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" ref="E59:I59" si="47">E15-TRUNC(E15)</f>
+        <f t="shared" ref="E59:I59" si="40">E15-TRUNC(E15)</f>
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I59">
-        <f t="shared" si="47"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC59" t="b">
@@ -4885,30 +5633,30 @@
       </c>
       <c r="AC1">
         <f>MIN($AA$14)</f>
-        <v>7.8361878140470598</v>
+        <v>37.852773115220039</v>
       </c>
       <c r="AG1">
         <v>1</v>
       </c>
       <c r="AH1" s="6">
         <f t="shared" ref="AH1:AL1" si="0">3*L5</f>
-        <v>0.67264573991031396</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="AI1" s="6">
         <f t="shared" si="0"/>
-        <v>0.15151515151515152</v>
+        <v>0.30681818181818182</v>
       </c>
       <c r="AJ1" s="6">
         <f t="shared" si="0"/>
-        <v>0.1744186046511628</v>
+        <v>0.33898305084745761</v>
       </c>
       <c r="AK1" s="6">
         <f t="shared" si="0"/>
-        <v>0.5325443786982248</v>
+        <v>0.70038910505836571</v>
       </c>
       <c r="AL1" s="6">
         <f t="shared" si="0"/>
-        <v>0.36809815950920244</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="AM1">
         <v>1</v>
@@ -5033,30 +5781,30 @@
       </c>
       <c r="AF4" s="22">
         <f>PRODUCT(AH4:AL4)</f>
-        <v>6.773482186402971E-2</v>
+        <v>9.3479605139356776E-3</v>
       </c>
       <c r="AG4" s="5">
         <v>1</v>
       </c>
       <c r="AH4" s="6">
         <f>1-AH1</f>
-        <v>0.32735426008968604</v>
+        <v>0.13793103448275867</v>
       </c>
       <c r="AI4" s="6">
         <f t="shared" ref="AI4:AL4" si="1">1-AI1</f>
-        <v>0.84848484848484851</v>
+        <v>0.69318181818181812</v>
       </c>
       <c r="AJ4" s="6">
         <f t="shared" si="1"/>
-        <v>0.82558139534883723</v>
+        <v>0.66101694915254239</v>
       </c>
       <c r="AK4" s="6">
         <f t="shared" si="1"/>
-        <v>0.4674556213017752</v>
+        <v>0.29961089494163429</v>
       </c>
       <c r="AL4" s="6">
         <f t="shared" si="1"/>
-        <v>0.63190184049079756</v>
+        <v>0.49367088607594933</v>
       </c>
       <c r="AM4" s="5">
         <v>1</v>
@@ -5077,42 +5825,42 @@
       </c>
       <c r="F5">
         <f>Base!F5</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G5">
         <f>Base!G5</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <f>Base!H5</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <f>Base!I5</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K5" s="12">
         <v>0</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:P16" si="2">E5/E$17</f>
-        <v>0.22421524663677131</v>
+        <v>0.28735632183908044</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
-        <v>5.0505050505050504E-2</v>
+        <v>0.10227272727272728</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>5.8139534883720929E-2</v>
+        <v>0.11299435028248588</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="2"/>
-        <v>0.17751479289940827</v>
+        <v>0.23346303501945526</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="2"/>
-        <v>0.12269938650306748</v>
+        <v>0.16877637130801687</v>
       </c>
       <c r="Q5" s="7">
         <v>0</v>
@@ -5123,19 +5871,19 @@
       </c>
       <c r="U5" t="str">
         <f t="shared" si="3"/>
-        <v>x20 0</v>
+        <v>x36 0</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" si="3"/>
-        <v>x20 0</v>
+        <v>x40 0</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="3"/>
-        <v>x30 0</v>
+        <v>x60 0</v>
       </c>
       <c r="X5" t="str">
         <f t="shared" si="3"/>
-        <v>x20 0</v>
+        <v>x40 0</v>
       </c>
       <c r="Z5" s="12" t="s">
         <v>48</v>
@@ -5152,28 +5900,28 @@
       </c>
       <c r="AF5" s="22">
         <f>SUM(AH5:AL5)</f>
-        <v>0.28221024889539736</v>
+        <v>9.8796228020051252E-2</v>
       </c>
       <c r="AG5" s="5"/>
       <c r="AH5" s="6">
         <f>PRODUCT($AG4:AG4,AI4:$AM4)*AH1</f>
-        <v>0.13918114081649946</v>
+        <v>5.842475321209796E-2</v>
       </c>
       <c r="AI5" s="6">
         <f>PRODUCT($AG4:AH4,AJ4:$AM4)*AI1</f>
-        <v>1.2095503904291023E-2</v>
+        <v>4.1376218668239895E-3</v>
       </c>
       <c r="AJ5" s="6">
         <f>PRODUCT($AG4:AI4,AK4:$AM4)*AJ1</f>
-        <v>1.4310173633245713E-2</v>
+        <v>4.7938259045823993E-3</v>
       </c>
       <c r="AK5" s="6">
         <f>PRODUCT($AG4:AJ4,AL4:$AM4)*AK1</f>
-        <v>7.7166252756489528E-2</v>
+        <v>2.18523752273821E-2</v>
       </c>
       <c r="AL5" s="6">
         <f>PRODUCT($AG4:AK4,AM4:$AM4)*AL1</f>
-        <v>3.9457177784871678E-2</v>
+        <v>9.5876518091648003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -5189,22 +5937,22 @@
       </c>
       <c r="E6">
         <f>Base!E6</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6">
         <f>Base!G6</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <f>Base!H6</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <f>Base!I6</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" ref="K6:K16" si="5">K5+1</f>
@@ -5212,30 +5960,30 @@
       </c>
       <c r="L6" s="6">
         <f t="shared" si="2"/>
-        <v>4.4843049327354258E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
-        <v>0.25252525252525254</v>
+        <v>0.28409090909090912</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="2"/>
-        <v>5.8139534883720929E-2</v>
+        <v>0.11299435028248588</v>
       </c>
       <c r="O6" s="6">
         <f t="shared" si="2"/>
-        <v>0.17751479289940827</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="P6" s="6">
         <f t="shared" si="2"/>
-        <v>0.18404907975460122</v>
+        <v>0.25316455696202533</v>
       </c>
       <c r="Q6" s="7">
         <v>0</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="3"/>
-        <v>x20 1</v>
+        <v>x36 1</v>
       </c>
       <c r="U6" t="str">
         <f t="shared" si="3"/>
@@ -5243,77 +5991,77 @@
       </c>
       <c r="V6" t="str">
         <f t="shared" si="3"/>
-        <v>x20 1</v>
+        <v>x40 1</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="3"/>
-        <v>x30 1</v>
+        <v>x40 1</v>
       </c>
       <c r="X6" t="str">
         <f t="shared" si="3"/>
-        <v>x30 1</v>
+        <v>x60 1</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="5">
         <f>B9-(AA4-AA5)</f>
-        <v>9.0517548906732515</v>
+        <v>129.39224049073579</v>
       </c>
       <c r="AB6" s="19" t="s">
         <v>37</v>
       </c>
       <c r="AC6" t="b">
         <f>$AA$7&gt;=0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>2</v>
       </c>
       <c r="AF6" s="23">
         <f>SUM(AH6:AQ6)</f>
-        <v>0.38686639643407339</v>
+        <v>0.30689543578695416</v>
       </c>
       <c r="AG6" s="5"/>
       <c r="AH6" s="6">
         <f>PRODUCT(AH4:AJ4)*PRODUCT(AK1,AL1)</f>
-        <v>4.4951215197955058E-2</v>
+        <v>2.2412692540904722E-2</v>
       </c>
       <c r="AI6" s="6">
         <f>PRODUCT(AH4:AI4,AK4)*PRODUCT(AJ1,AL1)</f>
-        <v>8.3360234756771137E-3</v>
+        <v>4.9167445175204091E-3</v>
       </c>
       <c r="AJ6" s="6">
         <f>PRODUCT(AH4:AI4,AL4)*PRODUCT(AJ1,AK1)</f>
-        <v>1.6302729455596375E-2</v>
+        <v>1.1206346270452359E-2</v>
       </c>
       <c r="AK6" s="6">
         <f>PRODUCT(AH4,AJ4,AK4)*PRODUCT(AI1,AL1)</f>
-        <v>7.0459246044413714E-3</v>
+        <v>4.243714735204092E-3</v>
       </c>
       <c r="AL6" s="6">
         <f>PRODUCT(AH4,AJ4,AL4)*PRODUCT(AI1,AK1)</f>
-        <v>1.3779687992230274E-2</v>
+        <v>9.6723628055625701E-3</v>
       </c>
       <c r="AM6" s="6">
         <f>PRODUCT(AH4,AK4,AL4)*PRODUCT(AI1,AJ1)</f>
-        <v>2.5553881487938774E-3</v>
+        <v>2.1218573676020456E-3</v>
       </c>
       <c r="AN6" s="6">
         <f>PRODUCT(AI4,AJ4,AK4)*PRODUCT(AH1,AL1)</f>
-        <v>8.1076392708640449E-2</v>
+        <v>5.9922823807279972E-2</v>
       </c>
       <c r="AO6" s="6">
         <f>PRODUCT(AI4,AJ4,AL4)*PRODUCT(AH1,AK1)</f>
-        <v>0.1585607933352525</v>
+        <v>0.13657734517113806</v>
       </c>
       <c r="AP6" s="6">
         <f>PRODUCT(AI4,AK4,AL4)*PRODUCT(AH1,AJ1)</f>
-        <v>2.9404466369682979E-2</v>
+        <v>2.9961411903639979E-2</v>
       </c>
       <c r="AQ6" s="6">
         <f>PRODUCT(AJ4,AK4,AL4)*PRODUCT(AH1,AI1)</f>
-        <v>2.4853775145803472E-2</v>
+        <v>2.5860136667649924E-2</v>
       </c>
     </row>
     <row r="7" spans="1:43">
@@ -5330,22 +6078,22 @@
       </c>
       <c r="E7">
         <f>Base!E7</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <f>Base!F7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
         <f>Base!H7</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <f>Base!I7</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="5"/>
@@ -5353,34 +6101,34 @@
       </c>
       <c r="L7" s="6">
         <f t="shared" si="2"/>
-        <v>4.4843049327354258E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
-        <v>5.0505050505050504E-2</v>
+        <v>0.11363636363636363</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="2"/>
-        <v>0.29069767441860467</v>
+        <v>0.2824858757062147</v>
       </c>
       <c r="O7" s="6">
         <f t="shared" si="2"/>
-        <v>0.11834319526627218</v>
+        <v>0.23346303501945526</v>
       </c>
       <c r="P7" s="6">
         <f t="shared" si="2"/>
-        <v>0.12269938650306748</v>
+        <v>0.16877637130801687</v>
       </c>
       <c r="Q7" s="7">
         <v>0</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>x20 2</v>
+        <v>x36 2</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="3"/>
-        <v>x20 2</v>
+        <v>x40 2</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" si="3"/>
@@ -5388,18 +6136,18 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="3"/>
-        <v>x20 2</v>
+        <v>x60 2</v>
       </c>
       <c r="X7" t="str">
         <f t="shared" si="3"/>
-        <v>x20 2</v>
+        <v>x40 2</v>
       </c>
       <c r="Z7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="AA7" s="5">
         <f>(AA4+AA5)-B9</f>
-        <v>30.948245109326749</v>
+        <v>-89.392240490735787</v>
       </c>
       <c r="AB7" s="19" t="s">
         <v>37</v>
@@ -5413,48 +6161,48 @@
       </c>
       <c r="AF7" s="23">
         <f>SUM(AH7:AQ7)</f>
-        <v>0.21295975304203327</v>
+        <v>0.36963624959447916</v>
       </c>
       <c r="AG7" s="5"/>
       <c r="AH7" s="6">
         <f>PRODUCT(AH1:AJ1)*PRODUCT(AK4,AL4)</f>
-        <v>5.250797566014819E-3</v>
+        <v>1.3261608547512781E-2</v>
       </c>
       <c r="AI7" s="6">
         <f>PRODUCT(AH1:AI1,AK1)*PRODUCT(AJ4,AL4)</f>
-        <v>2.8314427381295085E-2</v>
+        <v>6.0452267534766034E-2</v>
       </c>
       <c r="AJ7" s="6">
         <f>PRODUCT(AH1:AI1,AL1)*PRODUCT(AJ4,AK4)</f>
-        <v>1.4477927269400078E-2</v>
+        <v>2.6523217095025566E-2</v>
       </c>
       <c r="AK7" s="6">
         <f>PRODUCT(AH1,AJ1,AK1)*PRODUCT(AI4,AL4)</f>
-        <v>3.3498759155335033E-2</v>
+        <v>7.00396641903272E-2</v>
       </c>
       <c r="AL7" s="6">
         <f>PRODUCT(AH1,AJ1,AL1)*PRODUCT(AI4,AK4)</f>
-        <v>1.7128815360980376E-2</v>
+        <v>3.0729653234502548E-2</v>
       </c>
       <c r="AM7" s="6">
         <f>PRODUCT(AH1,AK1,AL1)*PRODUCT(AI4,AJ4)</f>
-        <v>9.2365510680729596E-2</v>
+        <v>0.14007932838065443</v>
       </c>
       <c r="AN7" s="6">
         <f>PRODUCT(AI1,AJ1,AK1)*PRODUCT(AH4,AL4)</f>
-        <v>2.9112016884993539E-3</v>
+        <v>4.9601860541346509E-3</v>
       </c>
       <c r="AO7" s="6">
         <f>PRODUCT(AI1,AJ1,AL1)*PRODUCT(AH4,AK4)</f>
-        <v>1.4885756206566274E-3</v>
+        <v>2.1762639667713291E-3</v>
       </c>
       <c r="AP7" s="6">
         <f>PRODUCT(AI1,AK1,AL1)*PRODUCT(AH4,AJ4)</f>
-        <v>8.0270027139205478E-3</v>
+        <v>9.9203721082693052E-3</v>
       </c>
       <c r="AQ7" s="6">
         <f>PRODUCT(AJ1,AK1,AL1)*PRODUCT(AH4,AI4)</f>
-        <v>9.4967356052017733E-3</v>
+        <v>1.1493688482515241E-2</v>
       </c>
     </row>
     <row r="8" spans="1:43">
@@ -5470,7 +6218,7 @@
       </c>
       <c r="E8">
         <f>Base!E8</f>
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="F8">
         <f>Base!F8</f>
@@ -5482,11 +6230,11 @@
       </c>
       <c r="H8">
         <f>Base!H8</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <f>Base!I8</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="5"/>
@@ -5494,30 +6242,30 @@
       </c>
       <c r="L8" s="6">
         <f t="shared" si="2"/>
-        <v>0.5605381165919282</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="2"/>
-        <v>3.0303030303030304E-2</v>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="2"/>
-        <v>3.4883720930232558E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="2"/>
-        <v>0.11834319526627218</v>
+        <v>0.11673151750972763</v>
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>0.15337423312883436</v>
+        <v>0.12658227848101267</v>
       </c>
       <c r="Q8" s="7">
         <v>0</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>x250 3</v>
+        <v>x120 3</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="3"/>
@@ -5529,11 +6277,11 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="3"/>
-        <v>x20 3</v>
+        <v>x30 3</v>
       </c>
       <c r="X8" t="str">
         <f t="shared" si="3"/>
-        <v>x25 3</v>
+        <v>x30 3</v>
       </c>
       <c r="AC8" t="b">
         <f>$AA$16&gt;=$AA$17</f>
@@ -5544,27 +6292,27 @@
       </c>
       <c r="AF8" s="23">
         <f>SUM(AH8:AL8)</f>
-        <v>4.6744165427919537E-2</v>
+        <v>0.18352806163499868</v>
       </c>
       <c r="AH8" s="24">
         <f>PRODUCT($AG1:AG1,AI1:$AM1)*AH4</f>
-        <v>1.6958456437860311E-3</v>
+        <v>5.0873703119329759E-3</v>
       </c>
       <c r="AI8" s="24">
         <f>PRODUCT($AG1:AH1,AJ1:$AM1)*AI4</f>
-        <v>1.9513840284661185E-2</v>
+        <v>7.1835553015720213E-2</v>
       </c>
       <c r="AJ8" s="24">
         <f>PRODUCT($AG1:AI1,AK1:$AM1)*AJ4</f>
-        <v>1.649384119298743E-2</v>
+        <v>6.200232567668313E-2</v>
       </c>
       <c r="AK8" s="24">
         <f>PRODUCT($AG1:AJ1,AL1:$AM1)*AK4</f>
-        <v>3.0587170287464959E-3</v>
+        <v>1.3601649792320803E-2</v>
       </c>
       <c r="AL8" s="24">
         <f>PRODUCT($AG1:AK1,AM1:$AM1)*AL4</f>
-        <v>5.9819212777383994E-3</v>
+        <v>3.1001162838341562E-2</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -5573,7 +6321,7 @@
       </c>
       <c r="B9" s="5">
         <f>SUM(L22:P33)</f>
-        <v>39.051754890673251</v>
+        <v>159.39224049073579</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="4"/>
@@ -5585,7 +6333,7 @@
       </c>
       <c r="F9">
         <f>Base!F9</f>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G9">
         <f>Base!G9</f>
@@ -5597,7 +6345,7 @@
       </c>
       <c r="I9">
         <f>Base!I9</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="5"/>
@@ -5605,23 +6353,23 @@
       </c>
       <c r="L9" s="6">
         <f t="shared" si="2"/>
-        <v>2.6905829596412557E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="2"/>
-        <v>0.50505050505050508</v>
+        <v>0.34090909090909088</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="2"/>
-        <v>3.4883720930232558E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="O9" s="6">
         <f t="shared" si="2"/>
-        <v>0.14792899408284024</v>
+        <v>9.727626459143969E-2</v>
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>0.14723926380368099</v>
+        <v>0.10548523206751055</v>
       </c>
       <c r="Q9" s="7">
         <v>0</v>
@@ -5632,7 +6380,7 @@
       </c>
       <c r="U9" t="str">
         <f t="shared" si="3"/>
-        <v>x200 4</v>
+        <v>x120 4</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" si="3"/>
@@ -5644,7 +6392,7 @@
       </c>
       <c r="X9" t="str">
         <f t="shared" si="3"/>
-        <v>x24 4</v>
+        <v>x25 4</v>
       </c>
       <c r="Z9" s="12" t="s">
         <v>52</v>
@@ -5661,7 +6409,7 @@
       </c>
       <c r="AF9" s="23">
         <f>PRODUCT(AH1:AL1)</f>
-        <v>3.48461433654664E-3</v>
+        <v>3.1796064449581093E-2</v>
       </c>
       <c r="AG9" s="5"/>
     </row>
@@ -5671,7 +6419,7 @@
       </c>
       <c r="B10" s="5">
         <f>100*(1-(1-SUMIF(T22:X33,"&lt;&gt;0",E22:I33)/100)^B6)</f>
-        <v>2.7523261435854041</v>
+        <v>7.6291921488819021</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -5690,15 +6438,15 @@
       </c>
       <c r="G10">
         <f>Base!G10</f>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H10">
         <f>Base!H10</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <f>Base!I10</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="5"/>
@@ -5706,23 +6454,23 @@
       </c>
       <c r="L10" s="6">
         <f t="shared" si="2"/>
-        <v>2.6905829596412557E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="M10" s="6">
         <f t="shared" si="2"/>
-        <v>3.0303030303030304E-2</v>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="2"/>
-        <v>0.43604651162790697</v>
+        <v>0.33898305084745761</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="2"/>
-        <v>0.14201183431952663</v>
+        <v>8.5603112840466927E-2</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>0.14723926380368099</v>
+        <v>9.2827004219409287E-2</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -5737,15 +6485,15 @@
       </c>
       <c r="V10" t="str">
         <f t="shared" si="3"/>
-        <v>x150 5</v>
+        <v>x120 5</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="3"/>
-        <v>x24 5</v>
+        <v>x22 5</v>
       </c>
       <c r="X10" t="str">
         <f t="shared" si="3"/>
-        <v>x24 5</v>
+        <v>x22 5</v>
       </c>
       <c r="Z10" s="12" t="s">
         <v>53</v>
@@ -5759,7 +6507,7 @@
       </c>
       <c r="AF10" s="22">
         <f>SUM(AF4:AF9)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -5768,7 +6516,7 @@
       </c>
       <c r="B11" s="5">
         <f>1/$B$6*(1/100*SUMPRODUCT(F22:I33,U22:X33,U22:X33)-(1/100*SUMPRODUCT(F22:I33,U22:X33))^2)</f>
-        <v>12.130760183996218</v>
+        <v>75.263423467566327</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -5803,23 +6551,23 @@
       </c>
       <c r="L11" s="6">
         <f t="shared" si="2"/>
-        <v>2.6905829596412557E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="M11" s="6">
         <f t="shared" si="2"/>
-        <v>3.0303030303030304E-2</v>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="2"/>
-        <v>3.4883720930232558E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="O11" s="6">
         <f t="shared" si="2"/>
-        <v>2.9585798816568046E-2</v>
+        <v>1.9455252918287938E-2</v>
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>3.0674846625766871E-2</v>
+        <v>2.1097046413502109E-2</v>
       </c>
       <c r="Q11" s="7">
         <v>0</v>
@@ -5849,7 +6597,7 @@
       </c>
       <c r="AA11" s="5">
         <f>B10-(AA9-AA10)</f>
-        <v>-7.2476738564145959</v>
+        <v>-2.3708078511180979</v>
       </c>
       <c r="AB11" s="19" t="s">
         <v>37</v>
@@ -5865,7 +6613,7 @@
       </c>
       <c r="B12" s="5">
         <f>SQRT(B11)</f>
-        <v>3.4829240853047914</v>
+        <v>8.675449467754758</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -5900,23 +6648,23 @@
       </c>
       <c r="L12" s="6">
         <f t="shared" si="2"/>
-        <v>2.2421524663677129E-2</v>
+        <v>2.8735632183908046E-2</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" si="2"/>
-        <v>2.5252525252525252E-2</v>
+        <v>2.8409090909090908E-2</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="2"/>
-        <v>2.9069767441860465E-2</v>
+        <v>2.8248587570621469E-2</v>
       </c>
       <c r="O12" s="6">
         <f t="shared" si="2"/>
-        <v>2.9585798816568046E-2</v>
+        <v>1.9455252918287938E-2</v>
       </c>
       <c r="P12" s="6">
         <f t="shared" si="2"/>
-        <v>3.0674846625766871E-2</v>
+        <v>2.1097046413502109E-2</v>
       </c>
       <c r="Q12" s="7">
         <v>0</v>
@@ -5946,7 +6694,7 @@
       </c>
       <c r="AA12" s="5">
         <f>(AA9+AA10)-B10</f>
-        <v>37.247673856414593</v>
+        <v>32.370807851118101</v>
       </c>
       <c r="AB12" s="19" t="s">
         <v>37</v>
@@ -5960,11 +6708,11 @@
       </c>
       <c r="AF12" s="23">
         <f>SUM(AF13:AF15)</f>
-        <v>0.2631885328064994</v>
+        <v>0.5849603756790589</v>
       </c>
       <c r="AG12">
         <f>1/AF12</f>
-        <v>3.7995576377760223</v>
+        <v>1.7095175016583593</v>
       </c>
     </row>
     <row r="13" spans="1:43">
@@ -6001,23 +6749,23 @@
       </c>
       <c r="L13" s="6">
         <f t="shared" si="2"/>
-        <v>1.1210762331838564E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
-        <v>1.2626262626262626E-2</v>
+        <v>1.4204545454545454E-2</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="2"/>
-        <v>8.7209302325581394E-3</v>
+        <v>8.4745762711864406E-3</v>
       </c>
       <c r="O13" s="6">
         <f t="shared" si="2"/>
-        <v>2.9585798816568046E-2</v>
+        <v>1.9455252918287938E-2</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="2"/>
-        <v>3.0674846625766871E-2</v>
+        <v>2.1097046413502109E-2</v>
       </c>
       <c r="Q13" s="7">
         <v>0</v>
@@ -6051,15 +6799,15 @@
       </c>
       <c r="AF13" s="23">
         <f>AF7</f>
-        <v>0.21295975304203327</v>
+        <v>0.36963624959447916</v>
       </c>
       <c r="AG13">
         <f>1/AF13</f>
-        <v>4.695722951005787</v>
+        <v>2.705362369348463</v>
       </c>
       <c r="AH13" s="5">
         <f t="shared" ref="AH13:AH15" si="6">AF13/AF$12*100</f>
-        <v>80.915285620975297</v>
+        <v>63.189963792911975</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -6135,7 +6883,7 @@
       </c>
       <c r="AA14" s="21">
         <f>MAX(N22:P33)-MIN(N22:P33)</f>
-        <v>7.8361878140470598</v>
+        <v>37.852773115220039</v>
       </c>
       <c r="AC14" t="b">
         <f>$E$10=INT($E$10)</f>
@@ -6146,15 +6894,15 @@
       </c>
       <c r="AF14" s="23">
         <f>AF8</f>
-        <v>4.6744165427919537E-2</v>
+        <v>0.18352806163499868</v>
       </c>
       <c r="AG14">
         <f>1/AF14</f>
-        <v>21.393044262219647</v>
+        <v>5.4487580323754727</v>
       </c>
       <c r="AH14" s="5">
         <f t="shared" si="6"/>
-        <v>17.760715077311755</v>
+        <v>31.374443341046433</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -6183,23 +6931,23 @@
       </c>
       <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>1.1210762331838564E-2</v>
+        <v>1.4367816091954023E-2</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="2"/>
-        <v>1.2626262626262626E-2</v>
+        <v>1.4204545454545454E-2</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="2"/>
-        <v>1.4534883720930232E-2</v>
+        <v>1.4124293785310734E-2</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="2"/>
-        <v>2.9585798816568046E-2</v>
+        <v>1.9455252918287938E-2</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
-        <v>3.0674846625766871E-2</v>
+        <v>2.1097046413502109E-2</v>
       </c>
       <c r="Q15" s="7">
         <v>0</v>
@@ -6233,15 +6981,15 @@
       </c>
       <c r="AF15" s="23">
         <f>AF9</f>
-        <v>3.48461433654664E-3</v>
+        <v>3.1796064449581093E-2</v>
       </c>
       <c r="AG15">
         <f>1/AF15</f>
-        <v>286.97580375308644</v>
+        <v>31.450433168724274</v>
       </c>
       <c r="AH15" s="5">
         <f t="shared" si="6"/>
-        <v>1.3239993017129612</v>
+        <v>5.4355928660416044</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -6317,7 +7065,7 @@
       </c>
       <c r="AA16" s="21">
         <f>MAX(E5:I16)</f>
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AC16" t="b">
         <f>$E$12=INT($E$12)</f>
@@ -6328,23 +7076,23 @@
       <c r="B17" s="5"/>
       <c r="E17" s="1">
         <f>SUM(E5:E16)</f>
-        <v>446</v>
+        <v>348</v>
       </c>
       <c r="F17" s="1">
         <f>SUM(F5:F16)</f>
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="G17" s="1">
         <f>SUM(G5:G16)</f>
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H5:H16)</f>
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="I17" s="1">
         <f>SUM($I$5:I16)</f>
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17:P17" si="7">E17/E$17</f>
@@ -6394,7 +7142,7 @@
     <row r="19" spans="2:31">
       <c r="AA19">
         <f>_xlfn.STDEV.S(N22:P33)</f>
-        <v>2.011718026102649</v>
+        <v>9.9707503314992252</v>
       </c>
       <c r="AC19" t="b">
         <f>$E$15=INT($E$15)</f>
@@ -6414,7 +7162,7 @@
       </c>
       <c r="AA20" s="21">
         <f>SUMSQ(N22:P33)-SUM(N22:P33)*SUM(N22:P33)</f>
-        <v>-1341.0320204609552</v>
+        <v>-21220.612087913432</v>
       </c>
       <c r="AC20" t="b">
         <f>$E$16=INT($E$16)</f>
@@ -6469,7 +7217,7 @@
       </c>
       <c r="AA21">
         <f>_xlfn.VAR.S(N22:P33)</f>
-        <v>4.0470094165463379</v>
+        <v>99.415862173091909</v>
       </c>
       <c r="AC21" t="b">
         <f>$F$5=INT($F$5)</f>
@@ -6483,23 +7231,23 @@
       </c>
       <c r="E22" s="5">
         <f>L5*(1-M5)*100</f>
-        <v>21.289124428137882</v>
+        <v>25.796760710553812</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ref="F22:I33" si="8">E22/(1-M5)*M5*(1-N5)</f>
-        <v>1.066563012542781</v>
+        <v>2.6067956006588386</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="8"/>
-        <v>5.4150141991177778E-2</v>
+        <v>0.25454843159919266</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="8"/>
-        <v>1.0253083335929411E-2</v>
+        <v>6.4442640911188037E-2</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="8"/>
-        <v>1.4339976693607565E-3</v>
+        <v>1.3084800185012797E-2</v>
       </c>
       <c r="K22" s="12">
         <v>0</v>
@@ -6544,7 +7292,7 @@
       </c>
       <c r="AA22" s="21">
         <f>SUM(N22:P33)</f>
-        <v>39.051754890673251</v>
+        <v>159.39224049073579</v>
       </c>
       <c r="AC22" t="b">
         <f>$F$6=INT($F$6)</f>
@@ -6559,23 +7307,23 @@
       </c>
       <c r="E23" s="5">
         <f>L6*(1-M6)*100</f>
-        <v>3.3519046971961766</v>
+        <v>7.405956112852663</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" si="8"/>
-        <v>1.0665630125427812</v>
+        <v>2.6067956006588382</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="8"/>
-        <v>5.4150141991177791E-2</v>
+        <v>0.28039091196459287</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="8"/>
-        <v>9.5360845012490356E-3</v>
+        <v>3.8600160545787736E-2</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="8"/>
-        <v>2.1509965040411357E-3</v>
+        <v>1.3084800185012792E-2</v>
       </c>
       <c r="K23" s="12">
         <f t="shared" ref="K23:K33" si="11">K22+1</f>
@@ -6591,15 +7339,15 @@
       </c>
       <c r="N23" s="16">
         <f t="shared" si="9"/>
-        <v>7.3102691688090022</v>
+        <v>37.852773115220039</v>
       </c>
       <c r="O23" s="8">
         <f t="shared" si="9"/>
-        <v>3.8621142230058596</v>
+        <v>15.633065021044033</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="9"/>
-        <v>2.903845280455533</v>
+        <v>17.664480249767269</v>
       </c>
       <c r="S23" s="12">
         <f t="shared" ref="S23:S33" si="12">S22+1</f>
@@ -6622,7 +7370,7 @@
       </c>
       <c r="AA23">
         <f>SUMSQ(N22:P33)</f>
-        <v>184.00753958026689</v>
+        <v>4185.2742407431215</v>
       </c>
       <c r="AC23" t="b">
         <f>$F$7=INT($F$7)</f>
@@ -6638,23 +7386,23 @@
       </c>
       <c r="E24" s="5">
         <f>L7*(1-M7)*100</f>
-        <v>4.257824885627576</v>
+        <v>9.1692789968652022</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="8"/>
-        <v>0.16064282411138181</v>
+        <v>0.84347271664629908</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="8"/>
-        <v>5.8045835659607851E-2</v>
+        <v>0.2545484315991926</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="8"/>
-        <v>6.8353888906196097E-3</v>
+        <v>6.4442640911188009E-2</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="8"/>
-        <v>9.5599844624050473E-4</v>
+        <v>1.3084800185012792E-2</v>
       </c>
       <c r="K24" s="12">
         <f t="shared" si="11"/>
@@ -6670,15 +7418,15 @@
       </c>
       <c r="N24" s="16">
         <f t="shared" si="9"/>
-        <v>7.8361878140470598</v>
+        <v>34.364038265891004</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="9"/>
-        <v>2.7683325007009421</v>
+        <v>26.099269569031144</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="9"/>
-        <v>1.2905979024246814</v>
+        <v>17.664480249767269</v>
       </c>
       <c r="S24" s="12">
         <f t="shared" si="12"/>
@@ -6717,23 +7465,23 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E30" si="13">L8*(1-M8)*100</f>
-        <v>54.355211305883941</v>
+        <v>33.307210031347964</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="8"/>
-        <v>1.639346852612052</v>
+        <v>1.1356994846182455</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="8"/>
-        <v>5.2241252093647057E-2</v>
+        <v>3.5197458257675167E-2</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="8"/>
-        <v>5.9367503511535335E-3</v>
+        <v>4.0628304574464721E-3</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="8"/>
-        <v>1.0754982520205676E-3</v>
+        <v>5.8881600832557562E-4</v>
       </c>
       <c r="K25" s="12">
         <f t="shared" si="11"/>
@@ -6749,15 +7497,15 @@
       </c>
       <c r="N25" s="16">
         <f t="shared" si="9"/>
-        <v>4.701712688428235</v>
+        <v>3.167771243190765</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="9"/>
-        <v>1.3357688290095451</v>
+        <v>0.91413685292545621</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="9"/>
-        <v>0.67756389877295764</v>
+        <v>0.37095408524511264</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="S25" s="12">
@@ -6781,7 +7529,7 @@
       </c>
       <c r="AA25" s="21">
         <f>AA23/AA24-(AA22/AA24)^2</f>
-        <v>3.9345924883089394</v>
+        <v>96.654310446061587</v>
       </c>
       <c r="AC25" t="b">
         <f>$F$9=INT($F$9)</f>
@@ -6796,23 +7544,23 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="13"/>
-        <v>1.3317026769941569</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="8"/>
-        <v>1.311477482089642</v>
+        <v>1.1356994846182453</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="8"/>
-        <v>4.0390551954282837E-2</v>
+        <v>3.5972732668637167E-2</v>
       </c>
       <c r="H26" s="9">
         <f t="shared" si="8"/>
-        <v>5.9797702812343576E-3</v>
+        <v>3.4674720490283895E-3</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="8"/>
-        <v>1.0324783219397453E-3</v>
+        <v>4.089000057816497E-4</v>
       </c>
       <c r="K26" s="12">
         <f t="shared" si="11"/>
@@ -6828,15 +7576,15 @@
       </c>
       <c r="N26" s="16">
         <f t="shared" si="9"/>
-        <v>2.9081197407083641</v>
+        <v>2.5900367521418759</v>
       </c>
       <c r="O26" s="8">
         <f t="shared" si="9"/>
-        <v>0.80726898796663826</v>
+        <v>0.46810872661883257</v>
       </c>
       <c r="P26" s="8">
         <f t="shared" si="9"/>
-        <v>0.37169219589830832</v>
+        <v>0.14720400208139389</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="S26" s="12">
@@ -6872,23 +7620,23 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="13"/>
-        <v>2.6090501426824302</v>
+        <v>3.3307210031347965</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="8"/>
-        <v>4.5980716540733234E-2</v>
+        <v>7.7705754210722067E-2</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="8"/>
-        <v>3.050328142380735E-2</v>
+        <v>3.6437897315214379E-2</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="8"/>
-        <v>4.3054346024887389E-3</v>
+        <v>3.0945552437555259E-3</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="8"/>
-        <v>7.4338439179661689E-4</v>
+        <v>3.1665216447730965E-4</v>
       </c>
       <c r="K27" s="12">
         <f t="shared" si="11"/>
@@ -6904,15 +7652,15 @@
       </c>
       <c r="N27" s="16">
         <f t="shared" si="9"/>
-        <v>1.6471771968855968</v>
+        <v>1.9676464550215764</v>
       </c>
       <c r="O27" s="8">
         <f t="shared" si="9"/>
-        <v>0.38748911422398652</v>
+        <v>0.27850997193799731</v>
       </c>
       <c r="P27" s="8">
         <f t="shared" si="9"/>
-        <v>0.13380919052339105</v>
+        <v>5.6997389605915737E-2</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="S27" s="12">
@@ -6947,23 +7695,23 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="13"/>
-        <v>2.6090501426824302</v>
+        <v>3.3307210031347965</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="8"/>
-        <v>7.8688648925378524E-2</v>
+        <v>0.11356994846182455</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="8"/>
-        <v>2.7600210502093268E-3</v>
+        <v>3.9073830312485198E-3</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="8"/>
-        <v>8.1565787433239865E-5</v>
+        <v>7.5891841073074206E-5</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="8"/>
-        <v>2.5811958048493631E-6</v>
+        <v>1.6356000231265991E-6</v>
       </c>
       <c r="K28" s="12">
         <f t="shared" si="11"/>
@@ -6979,15 +7727,15 @@
       </c>
       <c r="N28" s="16">
         <f t="shared" si="9"/>
-        <v>7.4520568355651823E-2</v>
+        <v>0.10549934184371003</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="9"/>
-        <v>3.6704604344957939E-3</v>
+        <v>3.4151328482883393E-3</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="9"/>
-        <v>2.3230762243644268E-4</v>
+        <v>1.472040020813939E-4</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="S28" s="12">
@@ -7021,23 +7769,23 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="13"/>
-        <v>2.1855324545907502</v>
+        <v>2.7919278996865202</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="8"/>
-        <v>5.4974081202050745E-2</v>
+        <v>7.9329236255010649E-2</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="8"/>
-        <v>1.5972344040563232E-3</v>
+        <v>2.2612170319725234E-3</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="8"/>
-        <v>4.720242328312492E-5</v>
+        <v>4.3918889509880902E-5</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="8"/>
-        <v>1.4937475722507886E-6</v>
+        <v>9.4652779116122634E-7</v>
       </c>
       <c r="K29" s="12">
         <f t="shared" si="11"/>
@@ -7053,15 +7801,15 @@
       </c>
       <c r="N29" s="16">
         <f t="shared" si="9"/>
-        <v>2.8750219273013817E-2</v>
+        <v>4.0701906575505424E-2</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="9"/>
-        <v>1.2744654286443728E-3</v>
+        <v>1.1858100167667844E-3</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="9"/>
-        <v>8.0662368901542581E-5</v>
+        <v>5.1112500722706219E-5</v>
       </c>
       <c r="Q29" s="7"/>
       <c r="S29" s="12">
@@ -7095,23 +7843,23 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="13"/>
-        <v>1.1069212302396159</v>
+        <v>1.4163727795193313</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="8"/>
-        <v>1.4031558151122234E-2</v>
+        <v>2.0235873492375538E-2</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="8"/>
-        <v>1.1979258030422425E-4</v>
+        <v>1.6959127739793922E-4</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="8"/>
-        <v>3.540181746234369E-6</v>
+        <v>3.2939167132410676E-6</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="8"/>
-        <v>1.1203106791880915E-7</v>
+        <v>7.098958433709197E-8</v>
       </c>
       <c r="K30" s="12">
         <f t="shared" si="11"/>
@@ -7127,15 +7875,15 @@
       </c>
       <c r="N30" s="16">
         <f t="shared" si="9"/>
-        <v>5.9896290152112129E-4</v>
+        <v>8.4795638698969612E-4</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="9"/>
-        <v>3.1861635716109324E-5</v>
+        <v>2.9645250419169608E-5</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="9"/>
-        <v>3.0248388338078471E-6</v>
+        <v>1.9167187771014831E-6</v>
       </c>
       <c r="S30" s="12">
         <f t="shared" si="12"/>
@@ -7241,23 +7989,23 @@
       </c>
       <c r="E32" s="5">
         <f>L15*(1-M15)*100</f>
-        <v>1.1069212302396159</v>
+        <v>1.4163727795193313</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="8"/>
-        <v>1.3949261622376648E-2</v>
+        <v>2.0120569369911856E-2</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="8"/>
-        <v>1.9965430050704038E-4</v>
+        <v>2.8265212899656543E-4</v>
       </c>
       <c r="H32" s="9">
         <f t="shared" si="8"/>
-        <v>5.9003029103906142E-6</v>
+        <v>5.4898611887351128E-6</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="8"/>
-        <v>1.8671844653134855E-7</v>
+        <v>1.1831597389515329E-7</v>
       </c>
       <c r="K32" s="12">
         <f t="shared" si="11"/>
@@ -7273,15 +8021,15 @@
       </c>
       <c r="N32" s="16">
         <f t="shared" si="9"/>
-        <v>5.9896290152112119E-4</v>
+        <v>8.4795638698969633E-4</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="9"/>
-        <v>4.1302120372734301E-5</v>
+        <v>3.842902832114579E-5</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="9"/>
-        <v>3.3609320375642738E-6</v>
+        <v>2.1296875301127591E-6</v>
       </c>
       <c r="S32" s="12">
         <f t="shared" si="12"/>
